--- a/Business - Technology Services/NBIS.xlsx
+++ b/Business - Technology Services/NBIS.xlsx
@@ -1,37 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Documents\models\Business - Technology Services\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D99617CA-BE1E-44CD-A562-288AB11151B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D104CB63-95EE-4334-BB8D-738B0DE800C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14805" yWindow="45" windowWidth="13995" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
     <sheet name="Model" sheetId="2" r:id="rId2"/>
     <sheet name="Analysts" sheetId="7" r:id="rId3"/>
-    <sheet name="Model-graph" sheetId="3" r:id="rId4"/>
-    <sheet name="KPIs" sheetId="6" r:id="rId5"/>
+    <sheet name="KPIs" sheetId="6" r:id="rId4"/>
+    <sheet name="Model-graph" sheetId="3" r:id="rId5"/>
     <sheet name="Catalysts" sheetId="4" r:id="rId6"/>
     <sheet name="DoR" sheetId="5" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Model!$B$25</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Model!$B$26</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Model!$N$25:$AA$25</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Model!$N$26:$AA$26</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Model!$N$2:$AA$2</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Model!$B$24</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Model!$B$25</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Model!$K$24:$P$24</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Model!$K$25:$P$25</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Model!$K$2:$P$2</definedName>
     <definedName name="_xlchart.v1.5" hidden="1">Model!$B$6</definedName>
     <definedName name="_xlchart.v1.6" hidden="1">Model!$B$7</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Model!$N$2:$AA$2</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Model!$N$6:$AA$6</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Model!$N$7:$AA$7</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Model!$K$2:$P$2</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Model!$K$6:$P$6</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Model!$K$7:$P$7</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -319,7 +319,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="187">
   <si>
     <t>Price</t>
   </si>
@@ -339,24 +339,6 @@
     <t>EV</t>
   </si>
   <si>
-    <t>Q222</t>
-  </si>
-  <si>
-    <t>Q322</t>
-  </si>
-  <si>
-    <t>Q422</t>
-  </si>
-  <si>
-    <t>Q123</t>
-  </si>
-  <si>
-    <t>Q122</t>
-  </si>
-  <si>
-    <t>FY21</t>
-  </si>
-  <si>
     <t>FY22</t>
   </si>
   <si>
@@ -364,9 +346,6 @@
   </si>
   <si>
     <t>Revenue</t>
-  </si>
-  <si>
-    <t>FY20</t>
   </si>
   <si>
     <t>EBITDA</t>
@@ -396,12 +375,6 @@
     <t>Other</t>
   </si>
   <si>
-    <t>Goodwill</t>
-  </si>
-  <si>
-    <t>Other long-term liabilieties</t>
-  </si>
-  <si>
     <t>Total Assets</t>
   </si>
   <si>
@@ -420,12 +393,6 @@
     <t>FY24</t>
   </si>
   <si>
-    <t>FY19</t>
-  </si>
-  <si>
-    <t>Q223</t>
-  </si>
-  <si>
     <t>Net CASH</t>
   </si>
   <si>
@@ -433,12 +400,6 @@
   </si>
   <si>
     <t>Net Cash</t>
-  </si>
-  <si>
-    <t>Q323</t>
-  </si>
-  <si>
-    <t>Q423</t>
   </si>
   <si>
     <t>Last Update</t>
@@ -498,9 +459,6 @@
     <t>COGS</t>
   </si>
   <si>
-    <t>Sales &amp; Marketing</t>
-  </si>
-  <si>
     <t>Current Assets</t>
   </si>
   <si>
@@ -522,13 +480,7 @@
     <t>Rev. Exp.</t>
   </si>
   <si>
-    <t>Sales &amp; Marketing / REV</t>
-  </si>
-  <si>
     <t>Q224</t>
-  </si>
-  <si>
-    <t>Interest Collect (exp)</t>
   </si>
   <si>
     <t>FY25</t>
@@ -546,25 +498,13 @@
     <t>EV/EBITDA</t>
   </si>
   <si>
-    <t>R&amp;D</t>
-  </si>
-  <si>
-    <t>NI Noncontrolling Interest</t>
-  </si>
-  <si>
     <t>Notes</t>
   </si>
   <si>
     <t>Restricted Cash</t>
   </si>
   <si>
-    <t>Receivables</t>
-  </si>
-  <si>
     <t>Prepaid Expense</t>
-  </si>
-  <si>
-    <t>Restricted cash</t>
   </si>
   <si>
     <t>PP&amp;E</t>
@@ -573,37 +513,13 @@
     <t>Intangible Asset</t>
   </si>
   <si>
-    <t>Deffered Income Tax</t>
-  </si>
-  <si>
-    <t>Long term debt</t>
-  </si>
-  <si>
-    <t>Acctured Liab</t>
-  </si>
-  <si>
     <t>Equity</t>
-  </si>
-  <si>
-    <t>Rights of use</t>
-  </si>
-  <si>
-    <t>Current position in LTB</t>
   </si>
   <si>
     <t>Interest exp / REV</t>
   </si>
   <si>
     <t>Interest exp / op Inc</t>
-  </si>
-  <si>
-    <t>Assets of Businesses for Sale</t>
-  </si>
-  <si>
-    <t>Liab Business for Sale</t>
-  </si>
-  <si>
-    <t>Inventories</t>
   </si>
   <si>
     <t>Interest Rate debt</t>
@@ -792,12 +708,6 @@
     <t>R&amp;D / REV</t>
   </si>
   <si>
-    <t>G&amp;A / REV</t>
-  </si>
-  <si>
-    <t>G&amp;A</t>
-  </si>
-  <si>
     <t>Net Income before Tax</t>
   </si>
   <si>
@@ -847,6 +757,134 @@
   </si>
   <si>
     <t>Q225</t>
+  </si>
+  <si>
+    <t>Q325</t>
+  </si>
+  <si>
+    <t>Q425</t>
+  </si>
+  <si>
+    <t>Q126</t>
+  </si>
+  <si>
+    <t>Q226</t>
+  </si>
+  <si>
+    <t>VAT reclaimable</t>
+  </si>
+  <si>
+    <t>Other current</t>
+  </si>
+  <si>
+    <t>Equity method investment</t>
+  </si>
+  <si>
+    <t>Investments in non-marketable</t>
+  </si>
+  <si>
+    <t>Deferred Tax</t>
+  </si>
+  <si>
+    <t>Other non-current</t>
+  </si>
+  <si>
+    <t>Debt current</t>
+  </si>
+  <si>
+    <t>Income tax payable</t>
+  </si>
+  <si>
+    <t>Deferred Revenue</t>
+  </si>
+  <si>
+    <t>Other accrued liab</t>
+  </si>
+  <si>
+    <t>Product Development</t>
+  </si>
+  <si>
+    <t>SG&amp;A</t>
+  </si>
+  <si>
+    <t>Interest Income</t>
+  </si>
+  <si>
+    <t>Discontinues Operations</t>
+  </si>
+  <si>
+    <t>SG&amp;A / REV</t>
+  </si>
+  <si>
+    <t>ARR</t>
+  </si>
+  <si>
+    <t>Nebius Group is a technology company building full-stack infrastructure to service the high-growth global AI industry, including large-scale GPU clusters, cloud platforms, and tools and services for developers. Headquartered in Amsterdam and listed on Nasdaq, the Company has a global footprint with R&amp;D hubs across Europe, North America and Israel.
+Nebius Group’s core business is an AI-centric cloud platform built for intensive AI workloads. With proprietary cloud software architecture and hardware designed in-house (including servers, racks and data center design), Nebius Group gives AI builders the compute, storage, managed services and tools they need to build, tune and run their models.
+The group also operates three additional businesses under their own distinctive brands:
+· Toloka – a data partner for all stages of AI development from training to evaluation;
+· TripleTen – a leading edtech player in the U.S. and certain other markets, re-skilling people for careers in tech;
+· Avride – one of the most experienced teams developing autonomous driving technology for self-driving cars and delivery robots.</t>
+  </si>
+  <si>
+    <t>Mr. Arkady Volozh</t>
+  </si>
+  <si>
+    <t>Founder, CEO &amp; Non-Independent Executive Director</t>
+  </si>
+  <si>
+    <t>Dado Alonso</t>
+  </si>
+  <si>
+    <t>Chief Financial Officer</t>
+  </si>
+  <si>
+    <t>Dr. Ophir Nave</t>
+  </si>
+  <si>
+    <t>COO &amp; Non-Independent Executive Director</t>
+  </si>
+  <si>
+    <t>Danila Shtan</t>
+  </si>
+  <si>
+    <t>Chief Technology Officer</t>
+  </si>
+  <si>
+    <t>Mr. Neil A. Doshi</t>
+  </si>
+  <si>
+    <t>VP &amp; Head of Investor Relations</t>
+  </si>
+  <si>
+    <t>Mr. Boaz Tal</t>
+  </si>
+  <si>
+    <t>General Counsel</t>
+  </si>
+  <si>
+    <t>Mr. Tom Blackwell</t>
+  </si>
+  <si>
+    <t>Chief Communications Officer</t>
+  </si>
+  <si>
+    <t>Daniel Bounds</t>
+  </si>
+  <si>
+    <t>Chief Marketing Officer</t>
+  </si>
+  <si>
+    <t>Sarah Boulogne</t>
+  </si>
+  <si>
+    <t>Chief People Officer</t>
+  </si>
+  <si>
+    <t>Mr. Roman Chernin</t>
+  </si>
+  <si>
+    <t>Chief Business Office</t>
   </si>
 </sst>
 </file>
@@ -1596,7 +1634,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="144">
+  <cellXfs count="146">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1654,12 +1692,6 @@
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -1752,33 +1784,6 @@
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1808,6 +1813,23 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2804,6 +2826,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -2811,7 +2834,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3148,6 +3170,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -3155,7 +3178,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3728,6 +3750,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -3735,7 +3758,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3868,7 +3890,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dPt>
-            <c:idx val="11"/>
+            <c:idx val="3"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
@@ -3880,14 +3902,9 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-E309-400E-9279-09DE67BBD1C5}"/>
-              </c:ext>
-            </c:extLst>
           </c:dPt>
           <c:dPt>
-            <c:idx val="12"/>
+            <c:idx val="4"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
@@ -3901,11 +3918,6 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-E309-400E-9279-09DE67BBD1C5}"/>
-              </c:ext>
-            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -3964,49 +3976,25 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Model!$N$2:$AA$2</c:f>
+              <c:f>Model!$K$2:$P$2</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>Q122</c:v>
+                  <c:v>Q124</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Q222</c:v>
+                  <c:v>Q224</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Q322</c:v>
+                  <c:v>Q324</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Q422</c:v>
+                  <c:v>Q424</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Q123</c:v>
+                  <c:v>Q125</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Q223</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Q323</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Q423</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Q124</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Q224</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Q324</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Q424</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Q125</c:v>
-                </c:pt>
-                <c:pt idx="13">
                   <c:v>Q225</c:v>
                 </c:pt>
               </c:strCache>
@@ -4014,51 +4002,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$N$6:$AA$6</c:f>
+              <c:f>Model!$K$6:$P$6</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>11.4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>14.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>37.9</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>55.3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>105.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4090,7 +4054,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Model!$B$29</c:f>
+              <c:f>Model!$B$28</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4167,51 +4131,15 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Model!$N$29:$AA$29</c:f>
+              <c:f>Model!$K$28:$P$28</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
+                <c:ptCount val="6"/>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>3.8508771929824555</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>6.2482758620689651</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4431,6 +4359,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -4438,7 +4367,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -4575,7 +4503,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dPt>
-            <c:idx val="4"/>
+            <c:idx val="1"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
@@ -4587,14 +4515,9 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-21CC-452E-9D1B-EA54FE60E683}"/>
-              </c:ext>
-            </c:extLst>
           </c:dPt>
           <c:dPt>
-            <c:idx val="5"/>
+            <c:idx val="2"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
@@ -4608,11 +4531,6 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-8FA1-4450-8EE0-3FE2DAE0EFFF}"/>
-              </c:ext>
-            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -4668,31 +4586,22 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Model!$C$2:$J$2</c:f>
+              <c:f>Model!$C$2:$G$2</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>FY19</c:v>
+                  <c:v>FY22</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>FY20</c:v>
+                  <c:v>FY23</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>FY21</c:v>
+                  <c:v>FY24</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>FY22</c:v>
+                  <c:v>FY25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>FY23</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>FY24</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>FY25</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>FY26</c:v>
                 </c:pt>
               </c:strCache>
@@ -4700,10 +4609,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$C$6:$J$6</c:f>
+              <c:f>Model!$C$6:$G$6</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4711,22 +4620,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>117.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>578.16</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>1680</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4757,7 +4657,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Model!$B$29</c:f>
+              <c:f>Model!$B$28</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4844,10 +4744,13 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Model!$C$29:$J$29</c:f>
+              <c:f>Model!$C$28:$G$28</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4855,19 +4758,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>3.9205106382978725</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>1.9057700290577007</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5087,6 +4981,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -5094,7 +4989,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -5211,7 +5105,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Model!$B$25</c:f>
+              <c:f>Model!$B$24</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5287,49 +5181,25 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Model!$N$2:$AA$2</c:f>
+              <c:f>Model!$K$2:$P$2</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>Q122</c:v>
+                  <c:v>Q124</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Q222</c:v>
+                  <c:v>Q224</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Q322</c:v>
+                  <c:v>Q324</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Q422</c:v>
+                  <c:v>Q424</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Q123</c:v>
+                  <c:v>Q125</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Q223</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Q323</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Q423</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Q124</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Q224</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Q324</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Q424</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Q125</c:v>
-                </c:pt>
-                <c:pt idx="13">
                   <c:v>Q225</c:v>
                 </c:pt>
               </c:strCache>
@@ -5337,10 +5207,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$N$25:$AA$25</c:f>
+              <c:f>Model!$K$24:$P$24</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5351,37 +5221,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>-0.57941851153068291</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>-0.47709276267876011</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>2.4482091902756724</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5413,7 +5259,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Model!$B$35</c:f>
+              <c:f>Model!$B$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5490,51 +5336,15 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Model!$N$35:$AA$35</c:f>
+              <c:f>Model!$K$33:$P$33</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
+                <c:ptCount val="6"/>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>-0.64107424960505521</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>-7.012345679012344</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5754,6 +5564,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -5761,7 +5572,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -5878,7 +5688,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Model!$B$25</c:f>
+              <c:f>Model!$B$24</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5952,31 +5762,22 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Model!$C$2:$J$2</c:f>
+              <c:f>Model!$C$2:$G$2</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>FY19</c:v>
+                  <c:v>FY22</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>FY20</c:v>
+                  <c:v>FY23</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>FY21</c:v>
+                  <c:v>FY24</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>FY22</c:v>
+                  <c:v>FY25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>FY23</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>FY24</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>FY25</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>FY26</c:v>
                 </c:pt>
               </c:strCache>
@@ -5984,10 +5785,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$C$25:$J$25</c:f>
+              <c:f>Model!$C$24:$G$24</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5995,21 +5796,12 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>-2.7342106334749503</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -6042,7 +5834,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Model!$B$35</c:f>
+              <c:f>Model!$B$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6117,10 +5909,13 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Model!$C$35:$J$35</c:f>
+              <c:f>Model!$C$33:$G$33</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6131,15 +5926,6 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -6360,6 +6146,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -6367,7 +6154,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -6499,11 +6285,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Model!$B$30</c:f>
+              <c:f>Model!$B$29</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Sales &amp; Marketing / REV</c:v>
+                  <c:v>R&amp;D / REV</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6592,49 +6378,25 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Model!$N$2:$AA$2</c:f>
+              <c:f>Model!$K$2:$P$2</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>Q122</c:v>
+                  <c:v>Q124</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Q222</c:v>
+                  <c:v>Q224</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Q322</c:v>
+                  <c:v>Q324</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Q422</c:v>
+                  <c:v>Q424</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Q123</c:v>
+                  <c:v>Q125</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Q223</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Q323</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Q423</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Q124</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Q224</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Q324</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Q424</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Q125</c:v>
-                </c:pt>
-                <c:pt idx="13">
                   <c:v>Q225</c:v>
                 </c:pt>
               </c:strCache>
@@ -6642,51 +6404,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$N$30:$AA$30</c:f>
+              <c:f>Model!$K$29:$P$29</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>2.2105263157894735</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>2.2068965517241379</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.93403693931398413</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.72332730560578662</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>0.4072312083729781</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6703,11 +6441,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Model!$B$31</c:f>
+              <c:f>Model!$B$30</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>R&amp;D / REV</c:v>
+                  <c:v>SG&amp;A / REV</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6796,49 +6534,25 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Model!$N$2:$AA$2</c:f>
+              <c:f>Model!$K$2:$P$2</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>Q122</c:v>
+                  <c:v>Q124</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Q222</c:v>
+                  <c:v>Q224</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Q322</c:v>
+                  <c:v>Q324</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Q422</c:v>
+                  <c:v>Q424</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Q123</c:v>
+                  <c:v>Q125</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Q223</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Q323</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Q423</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Q124</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Q224</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Q324</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Q424</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Q125</c:v>
-                </c:pt>
-                <c:pt idx="13">
                   <c:v>Q225</c:v>
                 </c:pt>
               </c:strCache>
@@ -6846,51 +6560,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$N$31:$AA$31</c:f>
+              <c:f>Model!$K$30:$P$30</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>4.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>5.2137931034482756</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>2.3746701846965701</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>1.1952983725135624</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>0.64890580399619413</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6899,210 +6589,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-1CAA-4791-8C2B-1B9112E1C867}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Model!$B$32</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>G&amp;A / REV</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="de-DE"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="t"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Model!$N$2:$AA$2</c:f>
-              <c:strCache>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>Q122</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Q222</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Q322</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Q422</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Q123</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Q223</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Q323</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Q423</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Q124</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Q224</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Q324</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Q424</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Q125</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Q225</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Model!$N$32:$AA$32</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-1CAA-4791-8C2B-1B9112E1C867}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7268,6 +6754,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -7275,7 +6762,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -7400,11 +6886,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Model!$B$30</c:f>
+              <c:f>Model!$B$29</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Sales &amp; Marketing / REV</c:v>
+                  <c:v>R&amp;D / REV</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7493,31 +6979,22 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Model!$C$2:$J$2</c:f>
+              <c:f>Model!$C$2:$G$2</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>FY19</c:v>
+                  <c:v>FY22</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>FY20</c:v>
+                  <c:v>FY23</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>FY21</c:v>
+                  <c:v>FY24</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>FY22</c:v>
+                  <c:v>FY25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>FY23</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>FY24</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>FY25</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>FY26</c:v>
                 </c:pt>
               </c:strCache>
@@ -7525,10 +7002,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$C$30:$J$30</c:f>
+              <c:f>Model!$C$29:$G$29</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7536,21 +7013,12 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1.1038297872340423</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -7568,11 +7036,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Model!$B$31</c:f>
+              <c:f>Model!$B$30</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>R&amp;D / REV</c:v>
+                  <c:v>SG&amp;A / REV</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7661,31 +7129,22 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Model!$C$2:$J$2</c:f>
+              <c:f>Model!$C$2:$G$2</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>FY19</c:v>
+                  <c:v>FY22</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>FY20</c:v>
+                  <c:v>FY23</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>FY21</c:v>
+                  <c:v>FY24</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>FY22</c:v>
+                  <c:v>FY25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>FY23</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>FY24</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>FY25</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>FY26</c:v>
                 </c:pt>
               </c:strCache>
@@ -7693,10 +7152,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$C$31:$I$31</c:f>
+              <c:f>Model!$C$30:$F$30</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7704,18 +7163,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>2.3642553191489362</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -7725,171 +7175,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-E79C-46D7-BBD0-0EABFCB1E143}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Model!$B$32</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>G&amp;A / REV</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="de-DE"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="t"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Model!$C$2:$J$2</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>FY19</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>FY20</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>FY21</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>FY22</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>FY23</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>FY24</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>FY25</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>FY26</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Model!$C$32:$I$32</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-E79C-46D7-BBD0-0EABFCB1E143}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8055,6 +7340,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -8062,7 +7348,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -8357,6 +7642,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -8364,7 +7650,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -16068,10 +15353,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:N54"/>
+  <dimension ref="B2:N43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16094,55 +15379,65 @@
       <c r="B2" s="34"/>
       <c r="C2" s="19"/>
       <c r="E2" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="F2" s="55" t="s">
-        <v>48</v>
+        <v>34</v>
+      </c>
+      <c r="F2" s="53" t="s">
+        <v>35</v>
       </c>
       <c r="G2" s="25"/>
       <c r="H2" s="26" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="I2" s="26" t="s">
         <v>1</v>
       </c>
       <c r="J2" s="27" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="L2" s="30" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="M2" s="31" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="N2" s="32" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="C3" s="20">
-        <v>45560</v>
+        <v>45967</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="28"/>
       <c r="I3" s="10"/>
       <c r="J3" s="38"/>
-      <c r="L3" s="5"/>
+      <c r="L3" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="M3" t="s">
+        <v>168</v>
+      </c>
       <c r="N3" s="37"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="5"/>
       <c r="C4" s="21">
-        <v>0.69166666666666665</v>
+        <v>0.81111111111111112</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="28"/>
       <c r="I4" s="10"/>
       <c r="J4" s="38"/>
-      <c r="L4" s="5"/>
+      <c r="L4" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="M4" t="s">
+        <v>170</v>
+      </c>
       <c r="N4" s="13"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
@@ -16152,31 +15447,51 @@
       <c r="F5" s="28"/>
       <c r="I5" s="10"/>
       <c r="J5" s="38"/>
-      <c r="L5" s="5"/>
+      <c r="L5" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="M5" t="s">
+        <v>172</v>
+      </c>
       <c r="N5" s="13"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="13"/>
+      <c r="C6" s="16">
+        <v>110.69</v>
+      </c>
       <c r="E6" s="5"/>
       <c r="F6" s="28"/>
       <c r="I6" s="10"/>
       <c r="J6" s="38"/>
-      <c r="L6" s="5"/>
+      <c r="L6" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="M6" t="s">
+        <v>174</v>
+      </c>
       <c r="N6" s="13"/>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="15"/>
+      <c r="C7" s="15">
+        <f>Model!P23</f>
+        <v>238.70509200000001</v>
+      </c>
       <c r="E7" s="5"/>
       <c r="F7" s="28"/>
       <c r="I7" s="10"/>
       <c r="J7" s="38"/>
-      <c r="L7" s="5"/>
+      <c r="L7" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="M7" t="s">
+        <v>176</v>
+      </c>
       <c r="N7" s="13"/>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
@@ -16185,28 +15500,38 @@
       </c>
       <c r="C8" s="15">
         <f>C6*C7</f>
-        <v>0</v>
+        <v>26422.266633480001</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="28"/>
       <c r="I8" s="10"/>
       <c r="J8" s="38"/>
-      <c r="L8" s="5"/>
+      <c r="L8" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="M8" t="s">
+        <v>178</v>
+      </c>
       <c r="N8" s="13"/>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="15" t="e">
-        <f>Model!F28</f>
-        <v>#DIV/0!</v>
+      <c r="C9" s="15">
+        <f>Model!P39</f>
+        <v>1679.3</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="28"/>
       <c r="I9" s="10"/>
       <c r="J9" s="38"/>
-      <c r="L9" s="5"/>
+      <c r="L9" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="M9" t="s">
+        <v>180</v>
+      </c>
       <c r="N9" s="13"/>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.25">
@@ -16214,52 +15539,67 @@
         <v>4</v>
       </c>
       <c r="C10" s="15">
-        <f>Model!F41+Model!F45</f>
-        <v>0</v>
+        <f>Model!P55</f>
+        <v>8</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="28"/>
       <c r="I10" s="10"/>
       <c r="J10" s="38"/>
-      <c r="L10" s="5"/>
+      <c r="L10" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="M10" t="s">
+        <v>182</v>
+      </c>
       <c r="N10" s="13"/>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="15" t="e">
+        <v>24</v>
+      </c>
+      <c r="C11" s="15">
         <f>C9-C10</f>
-        <v>#DIV/0!</v>
+        <v>1671.3</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="28"/>
       <c r="I11" s="10"/>
       <c r="J11" s="38"/>
-      <c r="L11" s="5"/>
+      <c r="L11" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="M11" t="s">
+        <v>184</v>
+      </c>
       <c r="N11" s="13"/>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="15" t="e">
+      <c r="C12" s="15">
         <f>C8-C9+C10</f>
-        <v>#DIV/0!</v>
+        <v>24750.966633480002</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="28"/>
       <c r="J12" s="13"/>
-      <c r="L12" s="5"/>
+      <c r="L12" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="M12" t="s">
+        <v>186</v>
+      </c>
       <c r="N12" s="13"/>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="36" t="e">
-        <f>C6/Model!#REF!</f>
-        <v>#REF!</v>
+        <v>33</v>
+      </c>
+      <c r="C13" s="36">
+        <f>C6/Model!E24</f>
+        <v>-40.483347787775358</v>
       </c>
       <c r="E13" s="5"/>
       <c r="J13" s="13"/>
@@ -16268,11 +15608,11 @@
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" s="36" t="e">
-        <f>C6/Model!G16</f>
-        <v>#DIV/0!</v>
+        <v>31</v>
+      </c>
+      <c r="C14" s="36">
+        <f>Main!C6/Model!F25</f>
+        <v>112.94897959183673</v>
       </c>
       <c r="E14" s="22"/>
       <c r="F14" s="29"/>
@@ -16286,336 +15626,266 @@
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" s="36" t="e">
-        <f>C6/Model!H16</f>
-        <v>#DIV/0!</v>
+        <v>32</v>
+      </c>
+      <c r="C15" s="36">
+        <f>C6/Model!G25</f>
+        <v>-76.337931034482764</v>
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" s="6" t="e">
-        <f>Model!G16/Model!#REF!-1</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="C16" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" s="6" t="e">
-        <f>Model!H16/Model!G16-1</f>
-        <v>#DIV/0!</v>
+        <v>30</v>
+      </c>
+      <c r="C17" s="6">
+        <f>Model!G25/Model!F25-1</f>
+        <v>-2.4795918367346941</v>
       </c>
       <c r="E17" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="L17" s="125"/>
-      <c r="M17" s="126"/>
-      <c r="N17" s="127"/>
+        <v>40</v>
+      </c>
+      <c r="L17" s="144" t="s">
+        <v>166</v>
+      </c>
+      <c r="M17" s="144"/>
+      <c r="N17" s="144"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C18" s="46" t="e">
+        <v>55</v>
+      </c>
+      <c r="C18" s="46">
         <f>C14/(C16*100)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L18" s="128"/>
-      <c r="M18" s="129"/>
-      <c r="N18" s="130"/>
+        <v>1.1294897959183674</v>
+      </c>
+      <c r="E18" t="s">
+        <v>165</v>
+      </c>
+      <c r="L18" s="145"/>
+      <c r="M18" s="145"/>
+      <c r="N18" s="145"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C19" s="46" t="e">
+        <v>56</v>
+      </c>
+      <c r="C19" s="46">
         <f>C15/(C17*100)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L19" s="128"/>
-      <c r="M19" s="129"/>
-      <c r="N19" s="130"/>
+        <v>0.30786490705264652</v>
+      </c>
+      <c r="L19" s="145"/>
+      <c r="M19" s="145"/>
+      <c r="N19" s="145"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="C20" s="6" t="e">
-        <f>Model!G4/Model!F3-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L20" s="128"/>
-      <c r="M20" s="129"/>
-      <c r="N20" s="130"/>
+        <v>68</v>
+      </c>
+      <c r="C20" s="6">
+        <f>Model!F6/Model!E6-1</f>
+        <v>3.9205106382978725</v>
+      </c>
+      <c r="L20" s="145"/>
+      <c r="M20" s="145"/>
+      <c r="N20" s="145"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C21" s="6" t="e">
-        <f>Model!G5/Model!F4-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L21" s="128"/>
-      <c r="M21" s="129"/>
-      <c r="N21" s="130"/>
+        <v>69</v>
+      </c>
+      <c r="C21" s="6">
+        <f>Model!G6/Model!F6-1</f>
+        <v>1.9057700290577007</v>
+      </c>
+      <c r="L21" s="145"/>
+      <c r="M21" s="145"/>
+      <c r="N21" s="145"/>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="C22" s="15">
-        <f>Model!F12+Model!F10</f>
+        <f>Model!C12+Model!C10</f>
         <v>0</v>
       </c>
-      <c r="L22" s="128"/>
-      <c r="M22" s="129"/>
-      <c r="N22" s="130"/>
+      <c r="L22" s="145"/>
+      <c r="M22" s="145"/>
+      <c r="N22" s="145"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C23" s="15">
-        <f>Model!F12</f>
+        <f>Model!C12</f>
         <v>0</v>
       </c>
-      <c r="L23" s="128"/>
-      <c r="M23" s="129"/>
-      <c r="N23" s="130"/>
+      <c r="L23" s="145"/>
+      <c r="M23" s="145"/>
+      <c r="N23" s="145"/>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C24" s="7">
-        <f>Model!F17</f>
+        <f>Model!C16</f>
         <v>0</v>
       </c>
-      <c r="L24" s="128"/>
-      <c r="M24" s="129"/>
-      <c r="N24" s="130"/>
+      <c r="L24" s="145"/>
+      <c r="M24" s="145"/>
+      <c r="N24" s="145"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C25" s="7">
-        <f>Model!F18</f>
+        <f>Model!C17</f>
         <v>0</v>
       </c>
-      <c r="L25" s="128"/>
-      <c r="M25" s="129"/>
-      <c r="N25" s="130"/>
+      <c r="L25" s="145"/>
+      <c r="M25" s="145"/>
+      <c r="N25" s="145"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C26" s="36" t="e">
-        <f>C12/C23</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L26" s="128"/>
-      <c r="M26" s="129"/>
-      <c r="N26" s="130"/>
+        <v>58</v>
+      </c>
+      <c r="C26" s="36"/>
+      <c r="L26" s="145"/>
+      <c r="M26" s="145"/>
+      <c r="N26" s="145"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="C27" s="115" t="e">
-        <f>Model!O45/Model!O50</f>
-        <v>#DIV/0!</v>
+        <v>70</v>
+      </c>
+      <c r="C27" s="113">
+        <f>Model!E55/Model!E62</f>
+        <v>1.8747887020930019E-3</v>
       </c>
       <c r="E27" t="s">
-        <v>77</v>
-      </c>
-      <c r="L27" s="128"/>
-      <c r="M27" s="129"/>
-      <c r="N27" s="130"/>
+        <v>59</v>
+      </c>
+      <c r="L27" s="145"/>
+      <c r="M27" s="145"/>
+      <c r="N27" s="145"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
-        <v>99</v>
+        <v>71</v>
       </c>
       <c r="C28" s="36" t="e">
-        <f>C22/-Model!F10</f>
+        <f>C22/-Model!C10</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L28" s="131"/>
-      <c r="M28" s="132"/>
-      <c r="N28" s="133"/>
+      <c r="L28" s="145"/>
+      <c r="M28" s="145"/>
+      <c r="N28" s="145"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="C29" s="36" t="e">
-        <f>Model!O34/Model!O44</f>
-        <v>#DIV/0!</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="C29" s="36">
+        <f>Model!E45/Model!E58</f>
+        <v>9.5958333333333314</v>
+      </c>
+      <c r="L29" s="145"/>
+      <c r="M29" s="145"/>
+      <c r="N29" s="145"/>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="C30" s="36" t="e">
-        <f>(Model!O28+Model!O29)/Model!O44</f>
-        <v>#DIV/0!</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="C30" s="36">
+        <f>(Model!E39+Model!E40)/Model!E58</f>
+        <v>9.3284090909090907</v>
+      </c>
+      <c r="L30" s="145"/>
+      <c r="M30" s="145"/>
+      <c r="N30" s="145"/>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="C31" s="6" t="e">
-        <f>(Model!O34-Model!O44)/Model!O40</f>
-        <v>#DIV/0!</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="C31" s="6">
+        <f>(Model!E45-Model!E58)/Model!E53</f>
+        <v>0.63949163050216984</v>
+      </c>
+      <c r="L31" s="145"/>
+      <c r="M31" s="145"/>
+      <c r="N31" s="145"/>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="C32" s="36" t="e">
-        <f>(Model!O40-Model!O49)/Main!C7</f>
-        <v>#DIV/0!</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="C32" s="36"/>
+      <c r="L32" s="145"/>
+      <c r="M32" s="145"/>
+      <c r="N32" s="145"/>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="C33" s="36" t="e">
-        <f>Model!O3/Model!O40</f>
-        <v>#DIV/0!</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="C33" s="36"/>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="C34" s="38" t="e">
-        <f>Model!O14/Model!O40</f>
-        <v>#DIV/0!</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="C34" s="38"/>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="C35" s="38" t="e">
-        <f>Model!O14/Model!O50</f>
-        <v>#DIV/0!</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="C35" s="38"/>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" s="22" t="s">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="C36" s="23"/>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E41" s="51"/>
       <c r="F41" s="51"/>
-      <c r="G41" s="54"/>
-      <c r="H41" s="54"/>
-      <c r="I41" s="54"/>
+      <c r="G41" s="52"/>
+      <c r="H41" s="52"/>
+      <c r="I41" s="52"/>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E42" s="51"/>
       <c r="F42" s="51"/>
-      <c r="G42" s="54"/>
-      <c r="H42" s="54"/>
-      <c r="I42" s="54"/>
+      <c r="G42" s="52"/>
+      <c r="H42" s="52"/>
+      <c r="I42" s="52"/>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E43" s="51"/>
       <c r="F43" s="51"/>
-      <c r="G43" s="54"/>
-      <c r="H43" s="54"/>
-      <c r="I43" s="54"/>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E44" s="51"/>
-      <c r="F44" s="51"/>
-      <c r="G44" s="54"/>
-      <c r="H44" s="54"/>
-      <c r="I44" s="54"/>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E45" s="51"/>
-      <c r="F45" s="51"/>
-      <c r="G45" s="54"/>
-      <c r="H45" s="54"/>
-      <c r="I45" s="54"/>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E46" s="51"/>
-      <c r="F46" s="51"/>
-      <c r="G46" s="54"/>
-      <c r="H46" s="54"/>
-      <c r="I46" s="54"/>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E47" s="51"/>
-      <c r="F47" s="51"/>
-      <c r="G47" s="54"/>
-      <c r="H47" s="54"/>
-      <c r="I47" s="54"/>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E48" s="51"/>
-      <c r="F48" s="51"/>
-      <c r="G48" s="54"/>
-      <c r="H48" s="54"/>
-      <c r="I48" s="54"/>
-    </row>
-    <row r="49" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E49" s="51"/>
-      <c r="F49" s="51"/>
-      <c r="G49" s="54"/>
-      <c r="H49" s="54"/>
-      <c r="I49" s="54"/>
-    </row>
-    <row r="50" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E50" s="51"/>
-      <c r="F50" s="51"/>
-      <c r="G50" s="54"/>
-      <c r="H50" s="54"/>
-      <c r="I50" s="54"/>
-    </row>
-    <row r="51" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E51" s="51"/>
-      <c r="F51" s="51"/>
-      <c r="G51" s="54"/>
-      <c r="H51" s="54"/>
-      <c r="I51" s="54"/>
-    </row>
-    <row r="52" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E52" s="52"/>
-      <c r="F52" s="53"/>
-      <c r="G52" s="53"/>
-    </row>
-    <row r="53" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E53" s="52"/>
-      <c r="F53" s="53"/>
-      <c r="G53" s="53"/>
-    </row>
-    <row r="54" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E54" s="52"/>
-      <c r="F54" s="53"/>
-      <c r="G54" s="53"/>
+      <c r="G43" s="52"/>
+      <c r="H43" s="52"/>
+      <c r="I43" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="L17:N28"/>
+    <mergeCell ref="L17:N32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -16624,117 +15894,114 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7345E9-1C5F-45F5-BD7C-66FA029FFFF4}">
-  <dimension ref="A1:AA87"/>
+  <dimension ref="A1:T83"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="O9" sqref="O9"/>
+      <selection pane="bottomRight" activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.7109375" customWidth="1"/>
     <col min="2" max="2" width="27.28515625" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" style="13"/>
-    <col min="25" max="25" width="11.42578125" style="13"/>
+    <col min="5" max="5" width="11.42578125" style="13"/>
+    <col min="14" max="14" width="11.42578125" style="133"/>
+    <col min="17" max="17" width="11.42578125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
+        <v>7</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>23</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="I2" t="s">
-        <v>70</v>
-      </c>
-      <c r="J2" t="s">
-        <v>173</v>
-      </c>
-      <c r="N2" t="s">
-        <v>10</v>
+        <v>143</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>53</v>
+      </c>
+      <c r="M2" t="s">
+        <v>130</v>
+      </c>
+      <c r="N2" s="133" t="s">
+        <v>131</v>
       </c>
       <c r="O2" t="s">
-        <v>6</v>
+        <v>144</v>
       </c>
       <c r="P2" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q2" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q2" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="R2" s="142" t="s">
+        <v>147</v>
+      </c>
+      <c r="S2" s="142" t="s">
+        <v>148</v>
+      </c>
+      <c r="T2" s="142" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B3" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="E3" s="13">
+        <v>117.5</v>
+      </c>
+      <c r="K3">
+        <v>11.4</v>
+      </c>
+      <c r="L3">
+        <v>14.5</v>
+      </c>
+      <c r="N3" s="133">
+        <v>37.9</v>
+      </c>
+      <c r="O3">
+        <v>55.3</v>
+      </c>
+      <c r="P3">
+        <v>105.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B4" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B5" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+    </row>
+    <row r="6" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="R2" t="s">
-        <v>9</v>
-      </c>
-      <c r="S2" t="s">
-        <v>34</v>
-      </c>
-      <c r="T2" t="s">
-        <v>38</v>
-      </c>
-      <c r="U2" t="s">
-        <v>39</v>
-      </c>
-      <c r="V2" t="s">
-        <v>64</v>
-      </c>
-      <c r="W2" t="s">
-        <v>68</v>
-      </c>
-      <c r="X2" t="s">
-        <v>160</v>
-      </c>
-      <c r="Y2" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>174</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B3" s="9" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B4" s="9" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B5" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-    </row>
-    <row r="6" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="C6" s="11">
         <f>SUM(C3:C5)</f>
@@ -16744,2918 +16011,2255 @@
         <f>SUM(D3:D5)</f>
         <v>0</v>
       </c>
-      <c r="E6" s="11">
-        <f>SUM(E3:E5)</f>
-        <v>0</v>
+      <c r="E6" s="14">
+        <f t="shared" ref="E6" si="0">SUM(E3:E5)</f>
+        <v>117.5</v>
       </c>
       <c r="F6" s="11">
-        <f>SUM(F3:F5)</f>
-        <v>0</v>
+        <f>F7</f>
+        <v>578.16</v>
       </c>
       <c r="G6" s="11">
-        <f>SUM(G3:G5)</f>
-        <v>0</v>
-      </c>
-      <c r="H6" s="14">
-        <f t="shared" ref="H6:J6" si="0">SUM(H3:H5)</f>
-        <v>0</v>
-      </c>
-      <c r="I6" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J6" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N6" s="11">
-        <f t="shared" ref="N6:T6" si="1">SUM(N3:N5)</f>
-        <v>0</v>
-      </c>
-      <c r="O6" s="11">
+        <f>G7</f>
+        <v>1680</v>
+      </c>
+      <c r="K6" s="11">
+        <f t="shared" ref="K6:M6" si="1">SUM(K3:K5)</f>
+        <v>11.4</v>
+      </c>
+      <c r="L6" s="11">
+        <f t="shared" si="1"/>
+        <v>14.5</v>
+      </c>
+      <c r="M6" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="N6" s="134">
+        <f t="shared" ref="N6:T6" si="2">SUM(N3:N5)</f>
+        <v>37.9</v>
+      </c>
+      <c r="O6" s="11">
+        <f t="shared" si="2"/>
+        <v>55.3</v>
+      </c>
       <c r="P6" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>105.1</v>
       </c>
       <c r="Q6" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R6" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S6" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T6" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="U6" s="11">
-        <f t="shared" ref="U6:X6" si="2">SUM(U3:U5)</f>
-        <v>0</v>
-      </c>
-      <c r="V6" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="W6" s="11">
+      <c r="R6" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="X6" s="11">
+      <c r="S6" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Y6" s="14">
-        <f t="shared" ref="Y6:AA6" si="3">SUM(Y3:Y5)</f>
+      <c r="T6" s="11">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Z6" s="11">
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B7" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="116"/>
+      <c r="F7" s="42">
+        <v>578.16</v>
+      </c>
+      <c r="G7" s="121">
+        <v>1680</v>
+      </c>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="135"/>
+      <c r="O7" s="40"/>
+      <c r="P7" s="40"/>
+      <c r="Q7" s="13">
+        <v>155.72</v>
+      </c>
+      <c r="R7">
+        <v>265.95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B8" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="116">
+        <v>73.400000000000006</v>
+      </c>
+      <c r="F8" s="42"/>
+      <c r="G8" s="121"/>
+      <c r="K8" s="40">
+        <v>8.9</v>
+      </c>
+      <c r="L8" s="40">
+        <v>7.4</v>
+      </c>
+      <c r="M8" s="40"/>
+      <c r="N8" s="135">
+        <v>27.5</v>
+      </c>
+      <c r="O8" s="40">
+        <v>29.5</v>
+      </c>
+      <c r="P8" s="40">
+        <v>30.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B9" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="116"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="121"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="40"/>
+      <c r="N9" s="135"/>
+      <c r="O9" s="40"/>
+      <c r="P9" s="40"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B10" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="116"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="121"/>
+      <c r="K10" s="40"/>
+      <c r="L10" s="40"/>
+      <c r="M10" s="40"/>
+      <c r="N10" s="135"/>
+      <c r="O10" s="40"/>
+      <c r="P10" s="40"/>
+    </row>
+    <row r="11" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="11">
+        <f t="shared" ref="C11:G11" si="3">SUM(C8:C10)</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AA6" s="11">
+      <c r="E11" s="14">
+        <f t="shared" si="3"/>
+        <v>73.400000000000006</v>
+      </c>
+      <c r="F11" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B7" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="118"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="123"/>
-      <c r="N7" s="40"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="40"/>
-      <c r="R7" s="40"/>
-      <c r="S7" s="40"/>
-      <c r="T7" s="40"/>
-      <c r="U7" s="40"/>
-      <c r="V7" s="40"/>
-      <c r="W7" s="40"/>
-      <c r="X7" s="40"/>
-      <c r="Y7" s="118"/>
-      <c r="Z7" s="40"/>
-      <c r="AA7" s="40"/>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B8" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="118"/>
-      <c r="I8" s="42"/>
-      <c r="J8" s="123"/>
-      <c r="N8" s="40"/>
-      <c r="O8" s="40"/>
-      <c r="P8" s="40"/>
-      <c r="Q8" s="40"/>
-      <c r="R8" s="40"/>
-      <c r="S8" s="40"/>
-      <c r="T8" s="40"/>
-      <c r="U8" s="40"/>
-      <c r="V8" s="40"/>
-      <c r="W8" s="40"/>
-      <c r="X8" s="40"/>
-      <c r="Y8" s="118"/>
-      <c r="Z8" s="40"/>
-      <c r="AA8" s="40"/>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B9" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="118"/>
-      <c r="I9" s="42"/>
-      <c r="J9" s="123"/>
-      <c r="N9" s="40"/>
-      <c r="O9" s="40"/>
-      <c r="P9" s="40"/>
-      <c r="Q9" s="40"/>
-      <c r="R9" s="40"/>
-      <c r="S9" s="40"/>
-      <c r="T9" s="40"/>
-      <c r="U9" s="40"/>
-      <c r="V9" s="40"/>
-      <c r="W9" s="40"/>
-      <c r="X9" s="40"/>
-      <c r="Y9" s="118"/>
-      <c r="Z9" s="40"/>
-      <c r="AA9" s="40"/>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B10" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="118"/>
-      <c r="I10" s="42"/>
-      <c r="J10" s="123"/>
-      <c r="N10" s="40"/>
-      <c r="O10" s="40"/>
-      <c r="P10" s="40"/>
-      <c r="Q10" s="40"/>
-      <c r="R10" s="40"/>
-      <c r="S10" s="40"/>
-      <c r="T10" s="40"/>
-      <c r="U10" s="40"/>
-      <c r="V10" s="40"/>
-      <c r="W10" s="40"/>
-      <c r="X10" s="40"/>
-      <c r="Y10" s="118"/>
-      <c r="Z10" s="40"/>
-      <c r="AA10" s="40"/>
-    </row>
-    <row r="11" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C11" s="11">
-        <f>SUM(C8:C10)</f>
+      <c r="G11" s="11">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="D11" s="11">
-        <f t="shared" ref="D11:J11" si="4">SUM(D8:D10)</f>
-        <v>0</v>
-      </c>
-      <c r="E11" s="11">
+      <c r="K11" s="11">
+        <f t="shared" ref="K11:M11" si="4">SUM(K8:K10)</f>
+        <v>8.9</v>
+      </c>
+      <c r="L11" s="11">
+        <f t="shared" si="4"/>
+        <v>7.4</v>
+      </c>
+      <c r="M11" s="11">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F11" s="11">
-        <f t="shared" si="4"/>
+      <c r="N11" s="134">
+        <f t="shared" ref="N11:T11" si="5">SUM(N8:N10)</f>
+        <v>27.5</v>
+      </c>
+      <c r="O11" s="11">
+        <f t="shared" si="5"/>
+        <v>29.5</v>
+      </c>
+      <c r="P11" s="11">
+        <f t="shared" si="5"/>
+        <v>30.1</v>
+      </c>
+      <c r="Q11" s="14">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G11" s="11">
-        <f t="shared" si="4"/>
+      <c r="R11" s="11">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="H11" s="14">
-        <f t="shared" si="4"/>
+      <c r="S11" s="11">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I11" s="11">
-        <f t="shared" si="4"/>
+      <c r="T11" s="11">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J11" s="11">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="N11" s="11">
-        <f t="shared" ref="N11" si="5">SUM(N8:N10)</f>
-        <v>0</v>
-      </c>
-      <c r="O11" s="11">
-        <f t="shared" ref="O11" si="6">SUM(O8:O10)</f>
-        <v>0</v>
-      </c>
-      <c r="P11" s="11">
-        <f t="shared" ref="P11" si="7">SUM(P8:P10)</f>
-        <v>0</v>
-      </c>
-      <c r="Q11" s="11">
-        <f t="shared" ref="Q11" si="8">SUM(Q8:Q10)</f>
-        <v>0</v>
-      </c>
-      <c r="R11" s="11">
-        <f t="shared" ref="R11" si="9">SUM(R8:R10)</f>
-        <v>0</v>
-      </c>
-      <c r="S11" s="11">
-        <f t="shared" ref="S11" si="10">SUM(S8:S10)</f>
-        <v>0</v>
-      </c>
-      <c r="T11" s="11">
-        <f t="shared" ref="T11:X11" si="11">SUM(T8:T10)</f>
-        <v>0</v>
-      </c>
-      <c r="U11" s="11">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="V11" s="11">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="W11" s="11">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="X11" s="11">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="Y11" s="14">
-        <f t="shared" ref="Y11:AA11" si="12">SUM(Y8:Y10)</f>
-        <v>0</v>
-      </c>
-      <c r="Z11" s="11">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AA11" s="11">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>59</v>
+        <v>160</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="118"/>
-      <c r="I12" s="40"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="10"/>
-      <c r="R12" s="10"/>
-      <c r="S12" s="10"/>
-      <c r="T12" s="10"/>
-      <c r="U12" s="10"/>
-      <c r="V12" s="10"/>
-      <c r="W12" s="10"/>
-      <c r="X12" s="10"/>
-      <c r="Y12" s="15"/>
-      <c r="Z12" s="10"/>
-      <c r="AA12" s="10"/>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="E12" s="116">
+        <v>129.69999999999999</v>
+      </c>
+      <c r="F12" s="40"/>
+      <c r="K12" s="10">
+        <v>25.2</v>
+      </c>
+      <c r="L12" s="10">
+        <v>32</v>
+      </c>
+      <c r="M12" s="10"/>
+      <c r="N12" s="136">
+        <v>35.4</v>
+      </c>
+      <c r="O12" s="10">
+        <v>40</v>
+      </c>
+      <c r="P12" s="10">
+        <v>42.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>75</v>
+        <v>161</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="118"/>
-      <c r="I13" s="40"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="10"/>
-      <c r="R13" s="10"/>
-      <c r="S13" s="10"/>
-      <c r="T13" s="10"/>
-      <c r="U13" s="10"/>
-      <c r="V13" s="10"/>
-      <c r="W13" s="10"/>
-      <c r="X13" s="10"/>
-      <c r="Y13" s="15"/>
-      <c r="Z13" s="10"/>
-      <c r="AA13" s="10"/>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="E13" s="116">
+        <v>277.8</v>
+      </c>
+      <c r="F13" s="40"/>
+      <c r="K13" s="10">
+        <v>51.3</v>
+      </c>
+      <c r="L13" s="10">
+        <v>75.599999999999994</v>
+      </c>
+      <c r="M13" s="10"/>
+      <c r="N13" s="136">
+        <v>90</v>
+      </c>
+      <c r="O13" s="10">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="P13" s="10">
+        <v>68.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
+      <c r="E14" s="15">
+        <v>80.099999999999994</v>
+      </c>
       <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="10"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="10"/>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="10"/>
-      <c r="R14" s="10"/>
-      <c r="S14" s="10"/>
-      <c r="T14" s="10"/>
-      <c r="U14" s="10"/>
-      <c r="V14" s="10"/>
-      <c r="W14" s="10"/>
-      <c r="X14" s="10"/>
-      <c r="Y14" s="15"/>
-      <c r="Z14" s="10"/>
-      <c r="AA14" s="10"/>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>158</v>
-      </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="118"/>
-      <c r="I15" s="40"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="10"/>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="10"/>
-      <c r="R15" s="10"/>
-      <c r="S15" s="10"/>
-      <c r="T15" s="10"/>
-      <c r="U15" s="10"/>
-      <c r="V15" s="10"/>
-      <c r="W15" s="10"/>
-      <c r="X15" s="10"/>
-      <c r="Y15" s="15"/>
-      <c r="Z15" s="10"/>
-      <c r="AA15" s="10"/>
-    </row>
-    <row r="16" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="11">
-        <f>C6-SUM(C11:C15)</f>
+      <c r="K14" s="10">
+        <v>8.9</v>
+      </c>
+      <c r="L14" s="10">
+        <v>11.4</v>
+      </c>
+      <c r="M14" s="10"/>
+      <c r="N14" s="136">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="O14" s="10">
+        <v>49.2</v>
+      </c>
+      <c r="P14" s="10">
+        <v>75.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="11">
+        <f>C6-SUM(C11:C14)</f>
         <v>0</v>
       </c>
-      <c r="D16" s="11">
-        <f t="shared" ref="D16:G16" si="13">D6-SUM(D11:D15)</f>
+      <c r="D15" s="11">
+        <f>D6-SUM(D11:D14)</f>
         <v>0</v>
       </c>
-      <c r="E16" s="11">
-        <f t="shared" si="13"/>
+      <c r="E15" s="14">
+        <f>E6-SUM(E11:E14)</f>
+        <v>-443.5</v>
+      </c>
+      <c r="F15" s="11">
+        <f>F6-SUM(F11:F14)</f>
+        <v>578.16</v>
+      </c>
+      <c r="G15" s="11">
+        <f>G6-SUM(G11:G14)</f>
+        <v>1680</v>
+      </c>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11">
+        <f>K6-SUM(K11:K14)</f>
+        <v>-82.9</v>
+      </c>
+      <c r="L15" s="11">
+        <f>L6-SUM(L11:L14)</f>
+        <v>-111.9</v>
+      </c>
+      <c r="M15" s="11">
+        <f>M6-SUM(M11:M14)</f>
         <v>0</v>
       </c>
-      <c r="F16" s="11">
-        <f t="shared" si="13"/>
+      <c r="N15" s="134">
+        <f>N6-SUM(N11:N14)</f>
+        <v>-151.20000000000002</v>
+      </c>
+      <c r="O15" s="11">
+        <f>O6-SUM(O11:O14)</f>
+        <v>-129.5</v>
+      </c>
+      <c r="P15" s="11">
+        <f>P6-SUM(P11:P14)</f>
+        <v>-111.20000000000002</v>
+      </c>
+      <c r="Q15" s="14">
+        <f>Q6-SUM(Q11:Q14)</f>
         <v>0</v>
       </c>
-      <c r="G16" s="11">
-        <f t="shared" si="13"/>
+      <c r="R15" s="11">
+        <f>R6-SUM(R11:R14)</f>
         <v>0</v>
       </c>
-      <c r="H16" s="14">
-        <f t="shared" ref="H16:J16" si="14">H6-SUM(H11:H15)</f>
+      <c r="S15" s="11">
+        <f>S6-SUM(S11:S14)</f>
         <v>0</v>
       </c>
-      <c r="I16" s="11">
-        <f t="shared" si="14"/>
+      <c r="T15" s="11">
+        <f>T6-SUM(T11:T14)</f>
         <v>0</v>
       </c>
-      <c r="J16" s="11">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="11">
-        <f t="shared" ref="N16" si="15">N6-SUM(N11:N15)</f>
-        <v>0</v>
-      </c>
-      <c r="O16" s="11">
-        <f t="shared" ref="O16" si="16">O6-SUM(O11:O15)</f>
-        <v>0</v>
-      </c>
-      <c r="P16" s="11">
-        <f t="shared" ref="P16" si="17">P6-SUM(P11:P15)</f>
-        <v>0</v>
-      </c>
-      <c r="Q16" s="11">
-        <f t="shared" ref="Q16" si="18">Q6-SUM(Q11:Q15)</f>
-        <v>0</v>
-      </c>
-      <c r="R16" s="11">
-        <f t="shared" ref="R16" si="19">R6-SUM(R11:R15)</f>
-        <v>0</v>
-      </c>
-      <c r="S16" s="11">
-        <f t="shared" ref="S16" si="20">S6-SUM(S11:S15)</f>
-        <v>0</v>
-      </c>
-      <c r="T16" s="11">
-        <f t="shared" ref="T16:X16" si="21">T6-SUM(T11:T15)</f>
-        <v>0</v>
-      </c>
-      <c r="U16" s="11">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="V16" s="11">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="W16" s="11">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="X16" s="11">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="Y16" s="14">
-        <f t="shared" ref="Y16:AA16" si="22">Y6-SUM(Y11:Y15)</f>
-        <v>0</v>
-      </c>
-      <c r="Z16" s="11">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="AA16" s="11">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>162</v>
+      </c>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="15">
+        <v>63.6</v>
+      </c>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="K16" s="10">
+        <v>0.4</v>
+      </c>
+      <c r="L16" s="10">
+        <v>12.7</v>
+      </c>
+      <c r="M16" s="10"/>
+      <c r="N16" s="136">
+        <v>21.9</v>
+      </c>
+      <c r="O16" s="10">
+        <v>8.6</v>
+      </c>
+      <c r="P16" s="10">
+        <f>3.6-4.8</f>
+        <v>-1.1999999999999997</v>
+      </c>
+      <c r="Q16" s="15"/>
+      <c r="R16" s="10"/>
+      <c r="S16" s="10"/>
+      <c r="T16" s="10"/>
+    </row>
+    <row r="17" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
+      <c r="E17" s="15">
+        <v>0.4</v>
+      </c>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="10"/>
-      <c r="P17" s="10"/>
-      <c r="Q17" s="10"/>
+      <c r="K17" s="10">
+        <v>0</v>
+      </c>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="136"/>
+      <c r="O17" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="P17" s="10">
+        <v>597.4</v>
+      </c>
+      <c r="Q17" s="15"/>
       <c r="R17" s="10"/>
       <c r="S17" s="10"/>
       <c r="T17" s="10"/>
-      <c r="U17" s="10"/>
-      <c r="V17" s="10"/>
-      <c r="W17" s="10"/>
-      <c r="X17" s="10"/>
-      <c r="Y17" s="15"/>
-      <c r="Z17" s="10"/>
-      <c r="AA17" s="10"/>
-    </row>
-    <row r="18" spans="2:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
+      <c r="E18" s="15">
+        <v>-17.3</v>
+      </c>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="10"/>
-      <c r="P18" s="10"/>
-      <c r="Q18" s="10"/>
+      <c r="K18" s="10">
+        <v>-1</v>
+      </c>
+      <c r="L18" s="10">
+        <v>-14.8</v>
+      </c>
+      <c r="M18" s="10"/>
+      <c r="N18" s="136">
+        <v>-8.4</v>
+      </c>
+      <c r="O18" s="10">
+        <v>8.1</v>
+      </c>
+      <c r="P18" s="10">
+        <f>-6.3+24.6</f>
+        <v>18.3</v>
+      </c>
+      <c r="Q18" s="15"/>
       <c r="R18" s="10"/>
       <c r="S18" s="10"/>
       <c r="T18" s="10"/>
-      <c r="U18" s="10"/>
-      <c r="V18" s="10"/>
-      <c r="W18" s="10"/>
-      <c r="X18" s="10"/>
-      <c r="Y18" s="15"/>
-      <c r="Z18" s="10"/>
-      <c r="AA18" s="10"/>
-    </row>
-    <row r="19" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="N19" s="10"/>
-      <c r="O19" s="10"/>
-      <c r="P19" s="10"/>
-      <c r="Q19" s="10"/>
-      <c r="R19" s="10"/>
-      <c r="S19" s="10"/>
-      <c r="T19" s="10"/>
-      <c r="U19" s="10"/>
-      <c r="V19" s="10"/>
-      <c r="W19" s="10"/>
-      <c r="X19" s="10"/>
-      <c r="Y19" s="15"/>
-      <c r="Z19" s="10"/>
-      <c r="AA19" s="10"/>
-    </row>
-    <row r="20" spans="2:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C20" s="11">
-        <f>C16+SUM(C17:C19)</f>
+    </row>
+    <row r="19" spans="2:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C19" s="11">
+        <f t="shared" ref="C19:D19" si="6">C15+SUM(C16:C18)</f>
         <v>0</v>
       </c>
-      <c r="D20" s="11">
-        <f>D16+SUM(D17:D19)</f>
+      <c r="D19" s="11">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="E20" s="11">
-        <f t="shared" ref="E20:G20" si="23">E16+SUM(E17:E19)</f>
+      <c r="E19" s="14">
+        <f t="shared" ref="E19:G19" si="7">E15+SUM(E16:E18)</f>
+        <v>-396.8</v>
+      </c>
+      <c r="F19" s="11">
+        <f t="shared" si="7"/>
+        <v>578.16</v>
+      </c>
+      <c r="G19" s="11">
+        <f t="shared" si="7"/>
+        <v>1680</v>
+      </c>
+      <c r="K19" s="11">
+        <f t="shared" ref="K19:M19" si="8">K15+SUM(K16:K18)</f>
+        <v>-83.5</v>
+      </c>
+      <c r="L19" s="11">
+        <f t="shared" si="8"/>
+        <v>-114</v>
+      </c>
+      <c r="M19" s="11">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="F20" s="11">
-        <f t="shared" si="23"/>
+      <c r="N19" s="134">
+        <f t="shared" ref="N19:P19" si="9">N15+SUM(N16:N18)</f>
+        <v>-137.70000000000002</v>
+      </c>
+      <c r="O19" s="11">
+        <f t="shared" si="9"/>
+        <v>-112.7</v>
+      </c>
+      <c r="P19" s="11">
+        <f t="shared" si="9"/>
+        <v>503.29999999999984</v>
+      </c>
+      <c r="Q19" s="14">
+        <f t="shared" ref="Q19:T19" si="10">Q15+SUM(Q16:Q18)</f>
         <v>0</v>
       </c>
-      <c r="G20" s="11">
-        <f t="shared" si="23"/>
+      <c r="R19" s="11">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="H20" s="14">
-        <f t="shared" ref="H20:J20" si="24">H16+SUM(H17:H19)</f>
+      <c r="S19" s="11">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="I20" s="11">
-        <f t="shared" si="24"/>
+      <c r="T19" s="11">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="J20" s="11">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="N20" s="11">
-        <f t="shared" ref="N20" si="25">N16+SUM(N17:N19)</f>
-        <v>0</v>
-      </c>
-      <c r="O20" s="11">
-        <f t="shared" ref="O20" si="26">O16+SUM(O17:O19)</f>
-        <v>0</v>
-      </c>
-      <c r="P20" s="11">
-        <f t="shared" ref="P20" si="27">P16+SUM(P17:P19)</f>
-        <v>0</v>
-      </c>
-      <c r="Q20" s="11">
-        <f t="shared" ref="Q20" si="28">Q16+SUM(Q17:Q19)</f>
-        <v>0</v>
-      </c>
-      <c r="R20" s="11">
-        <f t="shared" ref="R20" si="29">R16+SUM(R17:R19)</f>
-        <v>0</v>
-      </c>
-      <c r="S20" s="11">
-        <f t="shared" ref="S20" si="30">S16+SUM(S17:S19)</f>
-        <v>0</v>
-      </c>
-      <c r="T20" s="11">
-        <f t="shared" ref="T20:X20" si="31">T16+SUM(T17:T19)</f>
-        <v>0</v>
-      </c>
-      <c r="U20" s="11">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="V20" s="11">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="W20" s="11">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="X20" s="11">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="Y20" s="14">
-        <f t="shared" ref="Y20:AA20" si="32">Y16+SUM(Y17:Y19)</f>
-        <v>0</v>
-      </c>
-      <c r="Z20" s="11">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="AA20" s="11">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="15">
+        <v>-0.1</v>
+      </c>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="K20" s="10">
+        <v>-3</v>
+      </c>
+      <c r="L20" s="10">
+        <v>2.6</v>
+      </c>
+      <c r="M20" s="10"/>
+      <c r="N20" s="136">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="O20" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="P20" s="10">
+        <v>0.8</v>
+      </c>
+      <c r="Q20" s="15"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="10"/>
+      <c r="T20" s="10"/>
+    </row>
+    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>17</v>
+        <v>163</v>
       </c>
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
+      <c r="E21" s="15">
+        <f>-465.2-59+772.1</f>
+        <v>247.89999999999998</v>
+      </c>
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="N21" s="10"/>
+      <c r="K21" s="10">
+        <v>236</v>
+      </c>
+      <c r="L21" s="10">
+        <v>-19.399999999999999</v>
+      </c>
+      <c r="M21" s="10"/>
+      <c r="N21" s="136"/>
       <c r="O21" s="10"/>
-      <c r="P21" s="10"/>
-      <c r="Q21" s="10"/>
+      <c r="P21" s="10">
+        <v>-81.900000000000006</v>
+      </c>
+      <c r="Q21" s="15"/>
       <c r="R21" s="10"/>
       <c r="S21" s="10"/>
       <c r="T21" s="10"/>
-      <c r="U21" s="10"/>
-      <c r="V21" s="10"/>
-      <c r="W21" s="10"/>
-      <c r="X21" s="10"/>
-      <c r="Y21" s="15"/>
-      <c r="Z21" s="10"/>
-      <c r="AA21" s="10"/>
-    </row>
-    <row r="22" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>76</v>
-      </c>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="10"/>
-      <c r="P22" s="10"/>
-      <c r="Q22" s="10"/>
-      <c r="R22" s="10"/>
-      <c r="S22" s="10"/>
-      <c r="T22" s="10"/>
-      <c r="U22" s="10"/>
-      <c r="V22" s="10"/>
-      <c r="W22" s="10"/>
-      <c r="X22" s="10"/>
-      <c r="Y22" s="15"/>
-      <c r="Z22" s="10"/>
-      <c r="AA22" s="10"/>
-    </row>
-    <row r="23" spans="2:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C23" s="11">
-        <f>C20-SUM(C21:C22)</f>
+    </row>
+    <row r="22" spans="2:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="11">
+        <f t="shared" ref="C22:D22" si="11">C19-SUM(C20:C21)</f>
         <v>0</v>
       </c>
-      <c r="D23" s="11">
-        <f t="shared" ref="D23:G23" si="33">D20-SUM(D21:D22)</f>
+      <c r="D22" s="11">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="E23" s="11">
-        <f t="shared" si="33"/>
+      <c r="E22" s="14">
+        <f t="shared" ref="E22:G22" si="12">E19-SUM(E20:E21)</f>
+        <v>-644.6</v>
+      </c>
+      <c r="F22" s="11">
+        <f t="shared" si="12"/>
+        <v>578.16</v>
+      </c>
+      <c r="G22" s="11">
+        <f t="shared" si="12"/>
+        <v>1680</v>
+      </c>
+      <c r="K22" s="11">
+        <f t="shared" ref="K22:M22" si="13">K19-SUM(K20:K21)</f>
+        <v>-316.5</v>
+      </c>
+      <c r="L22" s="11">
+        <f t="shared" si="13"/>
+        <v>-97.2</v>
+      </c>
+      <c r="M22" s="11">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="F23" s="11">
-        <f t="shared" si="33"/>
+      <c r="N22" s="134">
+        <f t="shared" ref="N22:P22" si="14">N19-SUM(N20:N21)</f>
+        <v>-136.60000000000002</v>
+      </c>
+      <c r="O22" s="11">
+        <f t="shared" si="14"/>
+        <v>-113.60000000000001</v>
+      </c>
+      <c r="P22" s="11">
+        <f t="shared" si="14"/>
+        <v>584.39999999999986</v>
+      </c>
+      <c r="Q22" s="14">
+        <f t="shared" ref="Q22:T22" si="15">Q19-SUM(Q20:Q21)</f>
         <v>0</v>
       </c>
-      <c r="G23" s="11">
-        <f t="shared" si="33"/>
+      <c r="R22" s="11">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="H23" s="14">
-        <f t="shared" ref="H23:J23" si="34">H20-SUM(H21:H22)</f>
+      <c r="S22" s="11">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="I23" s="11">
-        <f t="shared" si="34"/>
+      <c r="T22" s="11">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="J23" s="11">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="N23" s="11">
-        <f t="shared" ref="N23" si="35">N20-SUM(N21:N22)</f>
-        <v>0</v>
-      </c>
-      <c r="O23" s="11">
-        <f t="shared" ref="O23" si="36">O20-SUM(O21:O22)</f>
-        <v>0</v>
-      </c>
-      <c r="P23" s="11">
-        <f t="shared" ref="P23" si="37">P20-SUM(P21:P22)</f>
-        <v>0</v>
-      </c>
-      <c r="Q23" s="11">
-        <f t="shared" ref="Q23" si="38">Q20-SUM(Q21:Q22)</f>
-        <v>0</v>
-      </c>
-      <c r="R23" s="11">
-        <f t="shared" ref="R23" si="39">R20-SUM(R21:R22)</f>
-        <v>0</v>
-      </c>
-      <c r="S23" s="11">
-        <f t="shared" ref="S23" si="40">S20-SUM(S21:S22)</f>
-        <v>0</v>
-      </c>
-      <c r="T23" s="11">
-        <f t="shared" ref="T23:X23" si="41">T20-SUM(T21:T22)</f>
-        <v>0</v>
-      </c>
-      <c r="U23" s="11">
-        <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="V23" s="11">
-        <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="W23" s="11">
-        <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="X23" s="11">
-        <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="Y23" s="14">
-        <f t="shared" ref="Y23:AA23" si="42">Y20-SUM(Y21:Y22)</f>
-        <v>0</v>
-      </c>
-      <c r="Z23" s="11">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="AA23" s="11">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
+    </row>
+    <row r="23" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
         <v>1</v>
       </c>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
-      <c r="N24" s="10"/>
-      <c r="O24" s="10"/>
-      <c r="P24" s="10"/>
-      <c r="Q24" s="10"/>
-      <c r="R24" s="10"/>
-      <c r="S24" s="10"/>
-      <c r="T24" s="10"/>
-      <c r="U24" s="10"/>
-      <c r="V24" s="10"/>
-      <c r="W24" s="10"/>
-      <c r="X24" s="10"/>
-      <c r="Y24" s="15"/>
-      <c r="Z24" s="10"/>
-      <c r="AA24" s="10"/>
-    </row>
-    <row r="25" spans="2:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C25" s="2" t="e">
-        <f>C23/C24</f>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="15">
+        <v>235.75360000000001</v>
+      </c>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="136">
+        <f>E23</f>
+        <v>235.75360000000001</v>
+      </c>
+      <c r="O23" s="10">
+        <v>238.10883100000001</v>
+      </c>
+      <c r="P23" s="10">
+        <v>238.70509200000001</v>
+      </c>
+      <c r="Q23" s="15"/>
+      <c r="R23" s="10"/>
+      <c r="S23" s="10"/>
+      <c r="T23" s="10"/>
+    </row>
+    <row r="24" spans="2:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="2" t="e">
+        <f>C22/C23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D25" s="2" t="e">
-        <f>D23/D24</f>
+      <c r="D24" s="119" t="e">
+        <f>D22/D23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E25" s="2" t="e">
-        <f>E23/E24</f>
+      <c r="E24" s="35">
+        <f t="shared" ref="E24:G24" si="16">E22/E23</f>
+        <v>-2.7342106334749503</v>
+      </c>
+      <c r="F24" s="2" t="e">
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F25" s="2" t="e">
-        <f>F23/F24</f>
+      <c r="G24" s="2" t="e">
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G25" s="121" t="e">
-        <f>G23/G24</f>
+      <c r="K24" s="2" t="e">
+        <f t="shared" ref="K24:M24" si="17">K22/K23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H25" s="35" t="e">
-        <f t="shared" ref="H25:J25" si="43">H23/H24</f>
+      <c r="L24" s="2" t="e">
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I25" s="2" t="e">
-        <f t="shared" si="43"/>
+      <c r="M24" s="2" t="e">
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J25" s="2" t="e">
-        <f t="shared" si="43"/>
+      <c r="N24" s="137">
+        <f t="shared" ref="N24:P24" si="18">N22/N23</f>
+        <v>-0.57941851153068291</v>
+      </c>
+      <c r="O24" s="2">
+        <f t="shared" si="18"/>
+        <v>-0.47709276267876011</v>
+      </c>
+      <c r="P24" s="2">
+        <f t="shared" si="18"/>
+        <v>2.4482091902756724</v>
+      </c>
+      <c r="Q24" s="35" t="e">
+        <f t="shared" ref="Q24:T24" si="19">Q22/Q23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N25" s="2" t="e">
-        <f t="shared" ref="N25:T25" si="44">N23/N24</f>
+      <c r="R24" s="2" t="e">
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O25" s="2" t="e">
-        <f t="shared" si="44"/>
+      <c r="S24" s="2" t="e">
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P25" s="2" t="e">
-        <f t="shared" si="44"/>
+      <c r="T24" s="2" t="e">
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q25" s="2" t="e">
-        <f t="shared" si="44"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R25" s="2" t="e">
-        <f t="shared" si="44"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S25" s="2" t="e">
-        <f t="shared" si="44"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T25" s="2" t="e">
-        <f t="shared" si="44"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U25" s="2" t="e">
-        <f t="shared" ref="U25:X25" si="45">U23/U24</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V25" s="2" t="e">
-        <f t="shared" si="45"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W25" s="2" t="e">
-        <f t="shared" si="45"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X25" s="2" t="e">
-        <f t="shared" si="45"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y25" s="35" t="e">
-        <f t="shared" ref="Y25:AA25" si="46">Y23/Y24</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z25" s="2" t="e">
-        <f t="shared" si="46"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA25" s="2" t="e">
-        <f t="shared" si="46"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="26" spans="2:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="124"/>
-      <c r="I26" s="43"/>
-      <c r="N26" s="44"/>
-      <c r="O26" s="44"/>
-      <c r="P26" s="44"/>
-      <c r="Q26" s="44"/>
-      <c r="R26" s="44"/>
-      <c r="S26" s="44"/>
-      <c r="T26" s="44"/>
-      <c r="U26" s="44"/>
-      <c r="V26" s="44"/>
-      <c r="W26" s="44"/>
-      <c r="X26" s="44"/>
-      <c r="Y26" s="119"/>
-      <c r="Z26" s="44"/>
-      <c r="AA26" s="44"/>
-    </row>
-    <row r="27" spans="2:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>30</v>
-      </c>
-      <c r="C27" s="3" t="e">
+    </row>
+    <row r="25" spans="2:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="122"/>
+      <c r="F25" s="43">
+        <v>0.98</v>
+      </c>
+      <c r="G25" s="1">
+        <v>-1.45</v>
+      </c>
+      <c r="K25" s="44"/>
+      <c r="L25" s="44"/>
+      <c r="M25" s="44"/>
+      <c r="N25" s="138"/>
+      <c r="O25" s="44"/>
+      <c r="P25" s="44"/>
+      <c r="Q25" s="117">
+        <v>-0.4</v>
+      </c>
+      <c r="R25" s="44">
+        <v>0.22</v>
+      </c>
+      <c r="S25" s="44"/>
+      <c r="T25" s="44"/>
+    </row>
+    <row r="26" spans="2:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" s="3" t="e">
         <f>1-C11/C6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D27" s="3" t="e">
+      <c r="D26" s="39" t="e">
         <f>1-D11/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E27" s="3" t="e">
+      <c r="E26" s="6">
         <f>1-E11/E6</f>
+        <v>0.37531914893617013</v>
+      </c>
+      <c r="F26" s="39">
+        <f>1-F11/F6</f>
+        <v>1</v>
+      </c>
+      <c r="G26" s="39">
+        <f>1-G11/G6</f>
+        <v>1</v>
+      </c>
+      <c r="K26" s="3">
+        <f>1-K11/K6</f>
+        <v>0.2192982456140351</v>
+      </c>
+      <c r="L26" s="39">
+        <f>1-L11/L6</f>
+        <v>0.48965517241379308</v>
+      </c>
+      <c r="M26" s="3" t="e">
+        <f>1-M11/M6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F27" s="3" t="e">
-        <f>1-F11/F6</f>
+      <c r="N26" s="39">
+        <f>1-N11/N6</f>
+        <v>0.27440633245382584</v>
+      </c>
+      <c r="O26" s="3">
+        <f>1-O11/O6</f>
+        <v>0.46654611211573238</v>
+      </c>
+      <c r="P26" s="3">
+        <f>1-P11/P6</f>
+        <v>0.7136060894386298</v>
+      </c>
+      <c r="Q26" s="6" t="e">
+        <f>1-Q11/Q6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G27" s="39" t="e">
-        <f>1-G11/G6</f>
+      <c r="R26" s="3" t="e">
+        <f>1-R11/R6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H27" s="6" t="e">
-        <f t="shared" ref="H27:J27" si="47">1-H11/H6</f>
+      <c r="S26" s="3" t="e">
+        <f>1-S11/S6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I27" s="39" t="e">
-        <f t="shared" si="47"/>
+      <c r="T26" s="3" t="e">
+        <f>1-T11/T6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J27" s="39" t="e">
-        <f t="shared" si="47"/>
+    </row>
+    <row r="27" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" s="4" t="e">
+        <f>C22/C6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N27" s="3" t="e">
-        <f t="shared" ref="N27:T27" si="48">1-N11/N6</f>
+      <c r="D27" s="4" t="e">
+        <f>D22/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O27" s="3" t="e">
-        <f t="shared" si="48"/>
+      <c r="E27" s="7">
+        <f>E22/E6</f>
+        <v>-5.4859574468085111</v>
+      </c>
+      <c r="F27" s="4">
+        <f>F22/F6</f>
+        <v>1</v>
+      </c>
+      <c r="G27" s="4">
+        <f>G22/G6</f>
+        <v>1</v>
+      </c>
+      <c r="K27" s="4">
+        <f>K22/K6</f>
+        <v>-27.763157894736842</v>
+      </c>
+      <c r="L27" s="4">
+        <f>L22/L6</f>
+        <v>-6.703448275862069</v>
+      </c>
+      <c r="M27" s="4" t="e">
+        <f>M22/M6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P27" s="3" t="e">
-        <f t="shared" si="48"/>
+      <c r="N27" s="139">
+        <f>N22/N6</f>
+        <v>-3.6042216358839059</v>
+      </c>
+      <c r="O27" s="4">
+        <f>O22/O6</f>
+        <v>-2.0542495479204343</v>
+      </c>
+      <c r="P27" s="4">
+        <f>P22/P6</f>
+        <v>5.5604186489058032</v>
+      </c>
+      <c r="Q27" s="7" t="e">
+        <f>Q22/Q6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q27" s="3" t="e">
-        <f t="shared" si="48"/>
+      <c r="R27" s="4" t="e">
+        <f>R22/R6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="R27" s="3" t="e">
-        <f t="shared" si="48"/>
+      <c r="S27" s="4" t="e">
+        <f>S22/S6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="S27" s="3" t="e">
-        <f t="shared" si="48"/>
+      <c r="T27" s="4" t="e">
+        <f>T22/T6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="T27" s="3" t="e">
-        <f t="shared" si="48"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U27" s="3" t="e">
-        <f t="shared" ref="U27:X27" si="49">1-U11/U6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V27" s="3" t="e">
-        <f t="shared" si="49"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W27" s="39" t="e">
-        <f t="shared" si="49"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X27" s="3" t="e">
-        <f t="shared" si="49"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y27" s="6" t="e">
-        <f t="shared" ref="Y27:AA27" si="50">1-Y11/Y6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z27" s="3" t="e">
-        <f t="shared" si="50"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA27" s="3" t="e">
-        <f t="shared" si="50"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="28" spans="2:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>31</v>
-      </c>
-      <c r="C28" s="4" t="e">
-        <f>C23/C6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D28" s="4" t="e">
-        <f>D23/D6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E28" s="4" t="e">
-        <f>E23/E6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F28" s="4" t="e">
-        <f>F23/F6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G28" s="4" t="e">
-        <f>G23/G6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H28" s="7" t="e">
-        <f t="shared" ref="H28:J28" si="51">H23/H6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I28" s="4" t="e">
-        <f t="shared" si="51"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J28" s="4" t="e">
-        <f t="shared" si="51"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N28" s="4" t="e">
-        <f t="shared" ref="N28:T28" si="52">N23/N6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O28" s="4" t="e">
-        <f t="shared" si="52"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P28" s="4" t="e">
-        <f t="shared" si="52"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q28" s="4" t="e">
-        <f t="shared" si="52"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R28" s="4" t="e">
-        <f t="shared" si="52"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S28" s="4" t="e">
-        <f t="shared" si="52"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T28" s="4" t="e">
-        <f t="shared" si="52"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U28" s="4" t="e">
-        <f t="shared" ref="U28:X28" si="53">U23/U6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V28" s="4" t="e">
-        <f t="shared" si="53"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W28" s="4" t="e">
-        <f t="shared" si="53"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X28" s="4" t="e">
-        <f t="shared" si="53"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y28" s="7" t="e">
-        <f t="shared" ref="Y28:AA28" si="54">Y23/Y6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z28" s="4" t="e">
-        <f t="shared" si="54"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA28" s="4" t="e">
-        <f t="shared" si="54"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="29" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>163</v>
-      </c>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3" t="e">
+        <v>133</v>
+      </c>
+      <c r="C28" s="39" t="e">
+        <f>C6/#REF!-1</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D28" s="39" t="e">
         <f>D6/C6-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E29" s="3" t="e">
+      <c r="E28" s="6" t="e">
         <f>E6/D6-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F29" s="39" t="e">
+      <c r="F28" s="39">
         <f>F6/E6-1</f>
+        <v>3.9205106382978725</v>
+      </c>
+      <c r="G28" s="39">
+        <f>G6/F6-1</f>
+        <v>1.9057700290577007</v>
+      </c>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="139"/>
+      <c r="O28" s="143">
+        <f>O6/K6-1</f>
+        <v>3.8508771929824555</v>
+      </c>
+      <c r="P28" s="143">
+        <f>P6/L6-1</f>
+        <v>6.2482758620689651</v>
+      </c>
+      <c r="Q28" s="7" t="e">
+        <f>Q6/M6-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G29" s="39" t="e">
-        <f>G6/F6-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H29" s="6" t="e">
-        <f t="shared" ref="H29:J29" si="55">H6/G6-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I29" s="39" t="e">
-        <f t="shared" si="55"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J29" s="39" t="e">
-        <f t="shared" si="55"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N29" s="4" t="e">
-        <f>N6/#REF!-1</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O29" s="4" t="e">
-        <f>O6/#REF!-1</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P29" s="4" t="e">
-        <f>P6/#REF!-1</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Q29" s="4" t="e">
-        <f>Q6/#REF!-1</f>
-        <v>#REF!</v>
-      </c>
-      <c r="R29" s="4" t="e">
-        <f t="shared" ref="R29:T29" si="56">R6/N6-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S29" s="4" t="e">
-        <f t="shared" si="56"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T29" s="4" t="e">
-        <f t="shared" si="56"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U29" s="4" t="e">
-        <f t="shared" ref="U29" si="57">U6/Q6-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V29" s="4" t="e">
-        <f t="shared" ref="V29" si="58">V6/R6-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W29" s="4" t="e">
-        <f t="shared" ref="W29" si="59">W6/S6-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X29" s="4" t="e">
-        <f t="shared" ref="X29" si="60">X6/T6-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y29" s="7" t="e">
-        <f t="shared" ref="Y29" si="61">Y6/U6-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z29" s="4" t="e">
-        <f t="shared" ref="Z29" si="62">Z6/V6-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA29" s="4" t="e">
-        <f t="shared" ref="AA29" si="63">AA6/W6-1</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="30" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>67</v>
-      </c>
-      <c r="C30" s="4" t="e">
+      <c r="R28" s="4">
+        <f>R6/N6-1</f>
+        <v>-1</v>
+      </c>
+      <c r="S28" s="4">
+        <f>S6/O6-1</f>
+        <v>-1</v>
+      </c>
+      <c r="T28" s="4">
+        <f>T6/P6-1</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>128</v>
+      </c>
+      <c r="C29" s="4" t="e">
         <f>C12/C6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D30" s="4" t="e">
+      <c r="D29" s="4" t="e">
         <f>D12/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E30" s="4" t="e">
+      <c r="E29" s="7">
         <f>E12/E6</f>
+        <v>1.1038297872340423</v>
+      </c>
+      <c r="F29" s="4">
+        <f>F12/F6</f>
+        <v>0</v>
+      </c>
+      <c r="G29" s="4">
+        <f>G12/G6</f>
+        <v>0</v>
+      </c>
+      <c r="K29" s="4">
+        <f>K12/K6</f>
+        <v>2.2105263157894735</v>
+      </c>
+      <c r="L29" s="4">
+        <f>L12/L6</f>
+        <v>2.2068965517241379</v>
+      </c>
+      <c r="M29" s="4" t="e">
+        <f>M12/M6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F30" s="4" t="e">
-        <f>F12/F6</f>
+      <c r="N29" s="139">
+        <f>N12/N6</f>
+        <v>0.93403693931398413</v>
+      </c>
+      <c r="O29" s="4">
+        <f>O12/O6</f>
+        <v>0.72332730560578662</v>
+      </c>
+      <c r="P29" s="4">
+        <f>P12/P6</f>
+        <v>0.4072312083729781</v>
+      </c>
+      <c r="Q29" s="7" t="e">
+        <f>Q12/Q6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G30" s="4" t="e">
-        <f>G12/G6</f>
+      <c r="R29" s="4" t="e">
+        <f>R12/R6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H30" s="7" t="e">
-        <f t="shared" ref="H30:J30" si="64">H12/H6</f>
+      <c r="S29" s="4" t="e">
+        <f>S12/S6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I30" s="4" t="e">
-        <f t="shared" si="64"/>
+      <c r="T29" s="4" t="e">
+        <f>T12/T6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J30" s="4" t="e">
-        <f t="shared" si="64"/>
+    </row>
+    <row r="30" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>164</v>
+      </c>
+      <c r="C30" s="4" t="e">
+        <f>C13/C6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N30" s="4" t="e">
-        <f t="shared" ref="N30:T30" si="65">N12/N6</f>
+      <c r="D30" s="4" t="e">
+        <f>D13/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O30" s="4" t="e">
-        <f t="shared" si="65"/>
+      <c r="E30" s="7">
+        <f>E13/E6</f>
+        <v>2.3642553191489362</v>
+      </c>
+      <c r="F30" s="4">
+        <f>F13/F6</f>
+        <v>0</v>
+      </c>
+      <c r="G30" s="4">
+        <f>G13/G6</f>
+        <v>0</v>
+      </c>
+      <c r="K30" s="4">
+        <f>K13/K6</f>
+        <v>4.5</v>
+      </c>
+      <c r="L30" s="4">
+        <f>L13/L6</f>
+        <v>5.2137931034482756</v>
+      </c>
+      <c r="M30" s="4" t="e">
+        <f>M13/M6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P30" s="4" t="e">
-        <f t="shared" si="65"/>
+      <c r="N30" s="139">
+        <f>N13/N6</f>
+        <v>2.3746701846965701</v>
+      </c>
+      <c r="O30" s="4">
+        <f>O13/O6</f>
+        <v>1.1952983725135624</v>
+      </c>
+      <c r="P30" s="4">
+        <f>P13/P6</f>
+        <v>0.64890580399619413</v>
+      </c>
+      <c r="Q30" s="7" t="e">
+        <f>Q13/Q6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q30" s="4" t="e">
-        <f t="shared" si="65"/>
+      <c r="R30" s="4" t="e">
+        <f>R13/R6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="R30" s="4" t="e">
-        <f t="shared" si="65"/>
+      <c r="S30" s="4" t="e">
+        <f>S13/S6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="S30" s="4" t="e">
-        <f t="shared" si="65"/>
+      <c r="T30" s="4" t="e">
+        <f>T13/T6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="T30" s="4" t="e">
-        <f t="shared" si="65"/>
+    </row>
+    <row r="31" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>126</v>
+      </c>
+      <c r="C31" s="4" t="e">
+        <f>C3/#REF!-1</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D31" s="4" t="e">
+        <f>D3/C3-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U30" s="4" t="e">
-        <f t="shared" ref="U30:X30" si="66">U12/U6</f>
+      <c r="E31" s="7" t="e">
+        <f>E3/D3-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="V30" s="4" t="e">
-        <f t="shared" si="66"/>
+      <c r="F31" s="4">
+        <f>F3/E3-1</f>
+        <v>-1</v>
+      </c>
+      <c r="G31" s="4" t="e">
+        <f>G3/F3-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="W30" s="4" t="e">
-        <f t="shared" si="66"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="139"/>
+      <c r="O31" s="4"/>
+      <c r="P31" s="4"/>
+      <c r="Q31" s="7"/>
+      <c r="R31" s="4"/>
+      <c r="S31" s="4"/>
+      <c r="T31" s="4"/>
+    </row>
+    <row r="32" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>127</v>
+      </c>
+      <c r="C32" s="4" t="e">
+        <f>C4/#REF!-1</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D32" s="4" t="e">
+        <f>D4/C4-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="X30" s="4" t="e">
-        <f t="shared" si="66"/>
+      <c r="E32" s="7" t="e">
+        <f>E4/D4-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Y30" s="7" t="e">
-        <f t="shared" ref="Y30:AA30" si="67">Y12/Y6</f>
+      <c r="F32" s="4" t="e">
+        <f>F4/E4-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Z30" s="4" t="e">
-        <f t="shared" si="67"/>
+      <c r="G32" s="4" t="e">
+        <f>G4/F4-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA30" s="4" t="e">
-        <f t="shared" si="67"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="139"/>
+      <c r="O32" s="4"/>
+      <c r="P32" s="4"/>
+      <c r="Q32" s="7"/>
+      <c r="R32" s="4"/>
+      <c r="S32" s="4"/>
+      <c r="T32" s="4"/>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>132</v>
+      </c>
+      <c r="C33" s="39" t="e">
+        <f>C24/#REF!-1</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="31" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
-        <v>156</v>
-      </c>
-      <c r="C31" s="4" t="e">
-        <f t="shared" ref="C31:F31" si="68">C13/C6</f>
+      <c r="D33" s="39" t="e">
+        <f>D24/C24-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D31" s="4" t="e">
-        <f t="shared" si="68"/>
+      <c r="E33" s="6" t="e">
+        <f>E24/D24-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E31" s="4" t="e">
-        <f t="shared" si="68"/>
+      <c r="F33" s="39" t="e">
+        <f>F24/E24-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F31" s="4" t="e">
-        <f t="shared" si="68"/>
+      <c r="G33" s="39" t="e">
+        <f>G24/F24-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G31" s="4" t="e">
-        <f>G13/G6</f>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="139"/>
+      <c r="O33" s="4">
+        <f>O22/K22-1</f>
+        <v>-0.64107424960505521</v>
+      </c>
+      <c r="P33" s="4">
+        <f>P22/L22-1</f>
+        <v>-7.012345679012344</v>
+      </c>
+      <c r="Q33" s="7" t="e">
+        <f>Q22/M22-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H31" s="7" t="e">
-        <f t="shared" ref="H31:J31" si="69">H13/H6</f>
+      <c r="R33" s="4">
+        <f>R22/N22-1</f>
+        <v>-1</v>
+      </c>
+      <c r="S33" s="4">
+        <f>S22/O22-1</f>
+        <v>-1</v>
+      </c>
+      <c r="T33" s="4">
+        <f>T22/P22-1</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>65</v>
+      </c>
+      <c r="C34" s="47" t="e">
+        <f>C16/C6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I31" s="4" t="e">
-        <f t="shared" si="69"/>
+      <c r="D34" s="47" t="e">
+        <f>D16/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J31" s="4" t="e">
-        <f t="shared" si="69"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N31" s="4" t="e">
-        <f t="shared" ref="N31:T31" si="70">N13/N6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O31" s="4" t="e">
-        <f t="shared" si="70"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P31" s="4" t="e">
-        <f t="shared" si="70"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q31" s="4" t="e">
-        <f t="shared" si="70"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R31" s="4" t="e">
-        <f t="shared" si="70"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S31" s="4" t="e">
-        <f t="shared" si="70"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T31" s="4" t="e">
-        <f t="shared" si="70"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U31" s="4" t="e">
-        <f t="shared" ref="U31:X31" si="71">U13/U6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V31" s="4" t="e">
-        <f t="shared" si="71"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W31" s="4" t="e">
-        <f t="shared" si="71"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X31" s="4" t="e">
-        <f t="shared" si="71"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y31" s="7" t="e">
-        <f t="shared" ref="Y31:AA31" si="72">Y13/Y6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z31" s="4" t="e">
-        <f t="shared" si="72"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA31" s="4" t="e">
-        <f t="shared" si="72"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="32" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>157</v>
-      </c>
-      <c r="C32" s="4" t="e">
-        <f>C15/C6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D32" s="4" t="e">
-        <f>D15/D6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E32" s="4" t="e">
-        <f>E15/E6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F32" s="4" t="e">
-        <f>F15/F6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G32" s="4" t="e">
-        <f>G15/G6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H32" s="7" t="e">
-        <f t="shared" ref="H32:J32" si="73">H15/H6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I32" s="4" t="e">
-        <f t="shared" si="73"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J32" s="4" t="e">
-        <f t="shared" si="73"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N32" s="4" t="e">
-        <f t="shared" ref="N32:T32" si="74">N15/N6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O32" s="4" t="e">
-        <f t="shared" si="74"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P32" s="4" t="e">
-        <f t="shared" si="74"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q32" s="4" t="e">
-        <f t="shared" si="74"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R32" s="4" t="e">
-        <f t="shared" si="74"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S32" s="4" t="e">
-        <f t="shared" si="74"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T32" s="4" t="e">
-        <f t="shared" si="74"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U32" s="4" t="e">
-        <f t="shared" ref="U32:X32" si="75">U15/U6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V32" s="4" t="e">
-        <f t="shared" si="75"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W32" s="4" t="e">
-        <f t="shared" si="75"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X32" s="4" t="e">
-        <f t="shared" si="75"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y32" s="7" t="e">
-        <f t="shared" ref="Y32:AA32" si="76">Y15/Y6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z32" s="4" t="e">
-        <f t="shared" si="76"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA32" s="4" t="e">
-        <f t="shared" si="76"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
-        <v>154</v>
-      </c>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4" t="e">
-        <f t="shared" ref="E33:G34" si="77">E3/D3-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F33" s="4" t="e">
-        <f t="shared" si="77"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G33" s="4" t="e">
-        <f t="shared" si="77"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H33" s="7" t="e">
-        <f t="shared" ref="H33:H34" si="78">H3/G3-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I33" s="4" t="e">
-        <f t="shared" ref="I33:I34" si="79">I3/H3-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J33" s="4" t="e">
-        <f t="shared" ref="J33:J34" si="80">J3/I3-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N33" s="4"/>
-      <c r="O33" s="4"/>
-      <c r="P33" s="4"/>
-      <c r="Q33" s="4"/>
-      <c r="R33" s="4"/>
-      <c r="S33" s="4"/>
-      <c r="T33" s="4"/>
-      <c r="U33" s="4"/>
-      <c r="V33" s="4"/>
-      <c r="W33" s="4"/>
-      <c r="X33" s="4"/>
-      <c r="Y33" s="7"/>
-      <c r="Z33" s="4"/>
-      <c r="AA33" s="4"/>
-    </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>155</v>
-      </c>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4" t="e">
-        <f t="shared" si="77"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F34" s="4" t="e">
-        <f t="shared" si="77"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G34" s="4" t="e">
-        <f t="shared" si="77"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H34" s="7" t="e">
-        <f t="shared" si="78"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I34" s="4" t="e">
-        <f t="shared" si="79"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J34" s="4" t="e">
-        <f t="shared" si="80"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N34" s="4"/>
+      <c r="E34" s="48">
+        <f>E16/E6</f>
+        <v>0.5412765957446809</v>
+      </c>
+      <c r="F34" s="47">
+        <f>F16/F6</f>
+        <v>0</v>
+      </c>
+      <c r="G34" s="47">
+        <f>G16/G6</f>
+        <v>0</v>
+      </c>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="139"/>
       <c r="O34" s="4"/>
       <c r="P34" s="4"/>
-      <c r="Q34" s="4"/>
-      <c r="R34" s="4"/>
-      <c r="S34" s="4"/>
-      <c r="T34" s="4"/>
-      <c r="U34" s="4"/>
-      <c r="V34" s="4"/>
-      <c r="W34" s="4"/>
-      <c r="X34" s="4"/>
-      <c r="Y34" s="7"/>
-      <c r="Z34" s="4"/>
-      <c r="AA34" s="4"/>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>162</v>
-      </c>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3" t="e">
-        <f>-(D23/C23-1)</f>
+        <v>66</v>
+      </c>
+      <c r="C35" s="49" t="e">
+        <f>-C16/C15</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E35" s="3" t="e">
-        <f>-(E23/D23-1)</f>
+      <c r="D35" s="47" t="e">
+        <f>-D16/D15</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F35" s="39" t="e">
-        <f>F25/E25-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G35" s="39" t="e">
-        <f>G25/F25-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H35" s="6" t="e">
-        <f t="shared" ref="H35:J35" si="81">H25/G25-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I35" s="39" t="e">
-        <f t="shared" si="81"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J35" s="39" t="e">
-        <f t="shared" si="81"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N35" s="4" t="e">
-        <f>N23/#REF!-1</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O35" s="4" t="e">
-        <f>O23/#REF!-1</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P35" s="4" t="e">
-        <f>P23/#REF!-1</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Q35" s="4" t="e">
-        <f>Q23/#REF!-1</f>
-        <v>#REF!</v>
-      </c>
-      <c r="R35" s="4" t="e">
-        <f t="shared" ref="R35:T35" si="82">R23/N23-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S35" s="4" t="e">
-        <f>S23/O23-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T35" s="4" t="e">
-        <f t="shared" si="82"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U35" s="4" t="e">
-        <f t="shared" ref="U35" si="83">U23/Q23-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V35" s="4" t="e">
-        <f t="shared" ref="V35" si="84">V23/R23-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W35" s="4" t="e">
-        <f t="shared" ref="W35" si="85">W23/S23-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X35" s="4" t="e">
-        <f t="shared" ref="X35" si="86">X23/T23-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y35" s="7" t="e">
-        <f t="shared" ref="Y35" si="87">Y23/U23-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z35" s="4" t="e">
-        <f t="shared" ref="Z35" si="88">Z23/V23-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA35" s="4" t="e">
-        <f t="shared" ref="AA35" si="89">AA23/W23-1</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="36" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
-        <v>90</v>
-      </c>
-      <c r="C36" s="47" t="e">
-        <f>C17/C6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D36" s="47" t="e">
-        <f>D17/D6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E36" s="47" t="e">
-        <f>E17/E6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F36" s="47" t="e">
-        <f>F17/F6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G36" s="47" t="e">
-        <f>G17/G6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H36" s="48" t="e">
-        <f t="shared" ref="H36:J36" si="90">H17/H6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I36" s="47" t="e">
-        <f t="shared" si="90"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J36" s="47" t="e">
-        <f t="shared" si="90"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N36" s="4"/>
-      <c r="O36" s="4"/>
-      <c r="P36" s="4"/>
-      <c r="Q36" s="4"/>
-      <c r="R36" s="4"/>
-      <c r="S36" s="4"/>
-      <c r="T36" s="4"/>
-      <c r="U36" s="4"/>
-      <c r="V36" s="4"/>
-      <c r="W36" s="4"/>
-      <c r="X36" s="4"/>
-      <c r="Y36" s="7"/>
-      <c r="Z36" s="4"/>
-      <c r="AA36" s="4"/>
-    </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
-        <v>91</v>
-      </c>
-      <c r="C37" s="49" t="e">
-        <f>-C17/C16</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D37" s="49" t="e">
-        <f t="shared" ref="D37:G37" si="91">-D17/D16</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E37" s="49" t="e">
-        <f t="shared" si="91"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F37" s="49" t="e">
-        <f t="shared" si="91"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G37" s="47" t="e">
-        <f t="shared" si="91"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H37" s="48" t="e">
-        <f t="shared" ref="H37:J37" si="92">-H17/H16</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I37" s="47" t="e">
-        <f t="shared" si="92"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J37" s="47" t="e">
-        <f t="shared" si="92"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N37" s="4"/>
-      <c r="O37" s="4"/>
-      <c r="P37" s="4"/>
-      <c r="Q37" s="4"/>
-      <c r="R37" s="4"/>
-      <c r="S37" s="4"/>
-      <c r="T37" s="4"/>
-      <c r="U37" s="4"/>
-      <c r="V37" s="4"/>
-      <c r="W37" s="4"/>
-      <c r="X37" s="4"/>
-      <c r="Y37" s="7"/>
-      <c r="Z37" s="4"/>
-      <c r="AA37" s="4"/>
-    </row>
-    <row r="40" spans="2:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C40" s="11">
-        <f t="shared" ref="C40" si="93">C41+C42-C64-C55</f>
+      <c r="E35" s="48">
+        <f>-E16/E15</f>
+        <v>0.14340473506200677</v>
+      </c>
+      <c r="F35" s="47">
+        <f>-F16/F15</f>
         <v>0</v>
       </c>
-      <c r="D40" s="11">
-        <f t="shared" ref="D40" si="94">D41+D42-D64-D55</f>
+      <c r="G35" s="47">
+        <f>-G16/G15</f>
         <v>0</v>
       </c>
-      <c r="E40" s="11">
-        <f t="shared" ref="E40" si="95">E41+E42-E64-E55</f>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="139"/>
+      <c r="O35" s="4"/>
+      <c r="P35" s="4"/>
+    </row>
+    <row r="38" spans="2:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C38" s="11">
+        <f t="shared" ref="C38:G38" si="20">C39-C55</f>
         <v>0</v>
       </c>
-      <c r="F40" s="11">
-        <f t="shared" ref="F40" si="96">F41+F42-F64-F55</f>
+      <c r="D38" s="11">
+        <f t="shared" si="20"/>
+        <v>109.3</v>
+      </c>
+      <c r="E38" s="11">
+        <f t="shared" si="20"/>
+        <v>2443.5</v>
+      </c>
+      <c r="F38" s="11">
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="G40" s="11">
-        <f t="shared" ref="G40:J40" si="97">G41+G42-G64-G55</f>
+      <c r="G38" s="11">
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="H40" s="14">
-        <f t="shared" si="97"/>
+      <c r="K38" s="11">
+        <f t="shared" ref="K38" si="21">K39-K55</f>
         <v>0</v>
       </c>
-      <c r="I40" s="11">
-        <f t="shared" si="97"/>
+      <c r="L38" s="11">
+        <f t="shared" ref="L38" si="22">L39-L55</f>
         <v>0</v>
       </c>
-      <c r="J40" s="11">
-        <f t="shared" si="97"/>
+      <c r="M38" s="11">
+        <f t="shared" ref="M38" si="23">M39-M55</f>
         <v>0</v>
       </c>
-      <c r="N40" s="11">
-        <f t="shared" ref="N40:X40" si="98">N41+N42-N64-N55</f>
+      <c r="N38" s="11">
+        <f t="shared" ref="N38" si="24">N39-N55</f>
+        <v>2443.5</v>
+      </c>
+      <c r="O38" s="11">
+        <f t="shared" ref="O38" si="25">O39-O55</f>
+        <v>1440.8</v>
+      </c>
+      <c r="P38" s="11">
+        <f t="shared" ref="P38" si="26">P39-P55</f>
+        <v>1671.3</v>
+      </c>
+      <c r="Q38" s="11">
+        <f t="shared" ref="Q38" si="27">Q39-Q55</f>
         <v>0</v>
       </c>
-      <c r="O40" s="11">
-        <f t="shared" si="98"/>
+      <c r="R38" s="11">
+        <f t="shared" ref="R38" si="28">R39-R55</f>
         <v>0</v>
       </c>
-      <c r="P40" s="11">
-        <f t="shared" si="98"/>
+      <c r="S38" s="11">
+        <f t="shared" ref="S38" si="29">S39-S55</f>
         <v>0</v>
       </c>
-      <c r="Q40" s="11">
-        <f t="shared" si="98"/>
+      <c r="T38" s="11">
+        <f t="shared" ref="T38" si="30">T39-T55</f>
         <v>0</v>
       </c>
-      <c r="R40" s="11">
-        <f t="shared" si="98"/>
-        <v>0</v>
-      </c>
-      <c r="S40" s="11">
-        <f t="shared" si="98"/>
-        <v>0</v>
-      </c>
-      <c r="T40" s="11">
-        <f t="shared" si="98"/>
-        <v>0</v>
-      </c>
-      <c r="U40" s="11">
-        <f t="shared" si="98"/>
-        <v>0</v>
-      </c>
-      <c r="V40" s="11">
-        <f t="shared" si="98"/>
-        <v>0</v>
-      </c>
-      <c r="W40" s="11">
-        <f t="shared" si="98"/>
-        <v>0</v>
-      </c>
-      <c r="X40" s="11">
-        <f t="shared" si="98"/>
-        <v>0</v>
-      </c>
-      <c r="Y40" s="14">
-        <f t="shared" ref="Y40:AA40" si="99">Y41+Y42-Y64-Y55</f>
-        <v>0</v>
-      </c>
-      <c r="Z40" s="11">
-        <f t="shared" si="99"/>
-        <v>0</v>
-      </c>
-      <c r="AA40" s="11">
-        <f t="shared" si="99"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>15</v>
+      </c>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10">
+        <v>116.1</v>
+      </c>
+      <c r="E39" s="15">
+        <v>2449.6</v>
+      </c>
+      <c r="K39" s="10"/>
+      <c r="L39" s="10"/>
+      <c r="M39" s="10"/>
+      <c r="N39" s="136">
+        <f>E39</f>
+        <v>2449.6</v>
+      </c>
+      <c r="O39" s="10">
+        <v>1447</v>
+      </c>
+      <c r="P39" s="10">
+        <v>1679.3</v>
+      </c>
+      <c r="Q39" s="15"/>
+      <c r="R39" s="10"/>
+      <c r="S39" s="10"/>
+      <c r="T39" s="10"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E40" s="13">
+        <v>13.1</v>
+      </c>
+      <c r="K40" s="10"/>
+      <c r="L40" s="10"/>
+      <c r="M40" s="10"/>
+      <c r="N40" s="136">
+        <f t="shared" ref="N40:N44" si="31">E40</f>
+        <v>13.1</v>
+      </c>
+      <c r="O40" s="10">
+        <v>24.3</v>
+      </c>
+      <c r="P40" s="10">
+        <v>54.7</v>
+      </c>
+      <c r="Q40" s="15"/>
+      <c r="R40" s="10"/>
+      <c r="S40" s="10"/>
+      <c r="T40" s="10"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
-      <c r="N41" s="10"/>
-      <c r="O41" s="10"/>
-      <c r="P41" s="10"/>
-      <c r="Q41" s="10"/>
+      <c r="D41" s="10">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="E41" s="13">
+        <v>22.9</v>
+      </c>
+      <c r="K41" s="10"/>
+      <c r="L41" s="10"/>
+      <c r="M41" s="10"/>
+      <c r="N41" s="136">
+        <f t="shared" si="31"/>
+        <v>22.9</v>
+      </c>
+      <c r="O41" s="10">
+        <v>22.4</v>
+      </c>
+      <c r="P41" s="10">
+        <v>28.3</v>
+      </c>
+      <c r="Q41" s="15"/>
       <c r="R41" s="10"/>
       <c r="S41" s="10"/>
       <c r="T41" s="10"/>
-      <c r="U41" s="10"/>
-      <c r="V41" s="10"/>
-      <c r="W41" s="10"/>
-      <c r="X41" s="10"/>
-      <c r="Y41" s="15"/>
-      <c r="Z41" s="10"/>
-      <c r="AA41" s="10"/>
-    </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="C42" s="10"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
-      <c r="N42" s="10"/>
-      <c r="O42" s="10"/>
-      <c r="P42" s="10"/>
-      <c r="Q42" s="10"/>
+      <c r="D42" s="10">
+        <v>18.8</v>
+      </c>
+      <c r="E42" s="13">
+        <v>0.6</v>
+      </c>
+      <c r="K42" s="10"/>
+      <c r="L42" s="10"/>
+      <c r="M42" s="10"/>
+      <c r="N42" s="136">
+        <f t="shared" si="31"/>
+        <v>0.6</v>
+      </c>
+      <c r="O42" s="10">
+        <v>80.599999999999994</v>
+      </c>
+      <c r="P42" s="10">
+        <v>74.5</v>
+      </c>
+      <c r="Q42" s="15"/>
       <c r="R42" s="10"/>
       <c r="S42" s="10"/>
       <c r="T42" s="10"/>
-      <c r="U42" s="10"/>
-      <c r="V42" s="10"/>
-      <c r="W42" s="10"/>
-      <c r="X42" s="10"/>
-      <c r="Y42" s="15"/>
-      <c r="Z42" s="10"/>
-      <c r="AA42" s="10"/>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>23</v>
+        <v>150</v>
       </c>
       <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
-      <c r="N43" s="10"/>
-      <c r="O43" s="10"/>
-      <c r="P43" s="10"/>
-      <c r="Q43" s="10"/>
+      <c r="D43" s="10">
+        <v>5.4</v>
+      </c>
+      <c r="E43" s="13">
+        <v>8.1</v>
+      </c>
+      <c r="K43" s="10"/>
+      <c r="L43" s="10"/>
+      <c r="M43" s="10"/>
+      <c r="N43" s="136">
+        <f t="shared" si="31"/>
+        <v>8.1</v>
+      </c>
+      <c r="O43" s="10">
+        <v>84.4</v>
+      </c>
+      <c r="P43" s="10">
+        <v>158.30000000000001</v>
+      </c>
+      <c r="Q43" s="15"/>
       <c r="R43" s="10"/>
       <c r="S43" s="10"/>
       <c r="T43" s="10"/>
-      <c r="U43" s="10"/>
-      <c r="V43" s="10"/>
-      <c r="W43" s="10"/>
-      <c r="X43" s="10"/>
-      <c r="Y43" s="15"/>
-      <c r="Z43" s="10"/>
-      <c r="AA43" s="10"/>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>94</v>
+        <v>151</v>
       </c>
       <c r="C44" s="10"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="10"/>
-      <c r="N44" s="10"/>
-      <c r="O44" s="10"/>
-      <c r="P44" s="10"/>
-      <c r="Q44" s="10"/>
+      <c r="D44" s="10">
+        <f>16.9+3289.5</f>
+        <v>3306.4</v>
+      </c>
+      <c r="E44" s="13">
+        <v>39</v>
+      </c>
+      <c r="K44" s="10"/>
+      <c r="L44" s="10"/>
+      <c r="M44" s="10"/>
+      <c r="N44" s="136">
+        <f t="shared" si="31"/>
+        <v>39</v>
+      </c>
+      <c r="O44" s="10">
+        <v>24.6</v>
+      </c>
+      <c r="P44" s="10">
+        <v>34.5</v>
+      </c>
+      <c r="Q44" s="15"/>
       <c r="R44" s="10"/>
       <c r="S44" s="10"/>
       <c r="T44" s="10"/>
-      <c r="U44" s="10"/>
-      <c r="V44" s="10"/>
-      <c r="W44" s="10"/>
-      <c r="X44" s="10"/>
-      <c r="Y44" s="15"/>
-      <c r="Z44" s="10"/>
-      <c r="AA44" s="10"/>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
-        <v>92</v>
-      </c>
-      <c r="C45" s="10"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
-      <c r="N45" s="10"/>
-      <c r="O45" s="10"/>
-      <c r="P45" s="10"/>
-      <c r="Q45" s="10"/>
-      <c r="R45" s="10"/>
-      <c r="S45" s="10"/>
-      <c r="T45" s="10"/>
-      <c r="U45" s="10"/>
-      <c r="V45" s="10"/>
-      <c r="W45" s="10"/>
-      <c r="X45" s="10"/>
-      <c r="Y45" s="15"/>
-      <c r="Z45" s="10"/>
-      <c r="AA45" s="10"/>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="2:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C45" s="11">
+        <f t="shared" ref="C45:D45" si="32">SUM(C39:C44)</f>
+        <v>0</v>
+      </c>
+      <c r="D45" s="11">
+        <f t="shared" si="32"/>
+        <v>3455.9</v>
+      </c>
+      <c r="E45" s="14">
+        <f t="shared" ref="E45:G45" si="33">SUM(E39:E44)</f>
+        <v>2533.2999999999997</v>
+      </c>
+      <c r="F45" s="11">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="G45" s="11">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="K45" s="11">
+        <f t="shared" ref="K45:M45" si="34">SUM(K39:K44)</f>
+        <v>0</v>
+      </c>
+      <c r="L45" s="11">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="M45" s="11">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="N45" s="134">
+        <f t="shared" ref="N45:P45" si="35">SUM(N39:N44)</f>
+        <v>2533.2999999999997</v>
+      </c>
+      <c r="O45" s="11">
+        <f t="shared" si="35"/>
+        <v>1683.3</v>
+      </c>
+      <c r="P45" s="11">
+        <f t="shared" si="35"/>
+        <v>2029.6</v>
+      </c>
+      <c r="Q45" s="14">
+        <f t="shared" ref="Q45:T45" si="36">SUM(Q39:Q44)</f>
+        <v>0</v>
+      </c>
+      <c r="R45" s="11">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="S45" s="11">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="T45" s="11">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="C46" s="10"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="10"/>
+      <c r="D46" s="10">
+        <v>132.4</v>
+      </c>
+      <c r="E46" s="15">
+        <v>847</v>
+      </c>
       <c r="F46" s="10"/>
       <c r="G46" s="10"/>
-      <c r="N46" s="10"/>
-      <c r="O46" s="10"/>
-      <c r="P46" s="10"/>
-      <c r="Q46" s="10"/>
+      <c r="K46" s="10"/>
+      <c r="L46" s="10"/>
+      <c r="M46" s="10"/>
+      <c r="N46" s="136">
+        <f t="shared" ref="N46:N52" si="37">E46</f>
+        <v>847</v>
+      </c>
+      <c r="O46" s="10">
+        <v>1334.1</v>
+      </c>
+      <c r="P46" s="10">
+        <v>1789.4</v>
+      </c>
+      <c r="Q46" s="15"/>
       <c r="R46" s="10"/>
       <c r="S46" s="10"/>
       <c r="T46" s="10"/>
-      <c r="U46" s="10"/>
-      <c r="V46" s="10"/>
-      <c r="W46" s="10"/>
-      <c r="X46" s="10"/>
-      <c r="Y46" s="15"/>
-      <c r="Z46" s="10"/>
-      <c r="AA46" s="10"/>
-    </row>
-    <row r="47" spans="2:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C47" s="11">
-        <f t="shared" ref="C47:D47" si="100">SUM(C41:C46)</f>
-        <v>0</v>
-      </c>
-      <c r="D47" s="11">
-        <f t="shared" si="100"/>
-        <v>0</v>
-      </c>
-      <c r="E47" s="11">
-        <f>SUM(E41:E46)</f>
-        <v>0</v>
-      </c>
-      <c r="F47" s="11">
-        <f t="shared" ref="F47:G47" si="101">SUM(F41:F46)</f>
-        <v>0</v>
-      </c>
-      <c r="G47" s="11">
-        <f t="shared" si="101"/>
-        <v>0</v>
-      </c>
-      <c r="H47" s="14">
-        <f t="shared" ref="H47:J47" si="102">SUM(H41:H46)</f>
-        <v>0</v>
-      </c>
-      <c r="I47" s="11">
-        <f t="shared" si="102"/>
-        <v>0</v>
-      </c>
-      <c r="J47" s="11">
-        <f t="shared" si="102"/>
-        <v>0</v>
-      </c>
-      <c r="N47" s="11">
-        <f t="shared" ref="N47:T47" si="103">SUM(N41:N46)</f>
-        <v>0</v>
-      </c>
-      <c r="O47" s="11">
-        <f t="shared" si="103"/>
-        <v>0</v>
-      </c>
-      <c r="P47" s="11">
-        <f t="shared" si="103"/>
-        <v>0</v>
-      </c>
-      <c r="Q47" s="11">
-        <f t="shared" si="103"/>
-        <v>0</v>
-      </c>
-      <c r="R47" s="11">
-        <f t="shared" si="103"/>
-        <v>0</v>
-      </c>
-      <c r="S47" s="11">
-        <f t="shared" si="103"/>
-        <v>0</v>
-      </c>
-      <c r="T47" s="11">
-        <f t="shared" si="103"/>
-        <v>0</v>
-      </c>
-      <c r="U47" s="11">
-        <f t="shared" ref="U47:X47" si="104">SUM(U41:U46)</f>
-        <v>0</v>
-      </c>
-      <c r="V47" s="11">
-        <f t="shared" si="104"/>
-        <v>0</v>
-      </c>
-      <c r="W47" s="11">
-        <f t="shared" si="104"/>
-        <v>0</v>
-      </c>
-      <c r="X47" s="11">
-        <f t="shared" si="104"/>
-        <v>0</v>
-      </c>
-      <c r="Y47" s="14">
-        <f t="shared" ref="Y47:AA47" si="105">SUM(Y41:Y46)</f>
-        <v>0</v>
-      </c>
-      <c r="Z47" s="11">
-        <f t="shared" si="105"/>
-        <v>0</v>
-      </c>
-      <c r="AA47" s="11">
-        <f t="shared" si="105"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>63</v>
+      </c>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="E47" s="15">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="K47" s="10"/>
+      <c r="L47" s="10"/>
+      <c r="M47" s="10"/>
+      <c r="N47" s="136">
+        <f t="shared" si="37"/>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="O47" s="10">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="P47" s="10">
+        <v>15.6</v>
+      </c>
+      <c r="Q47" s="15"/>
+      <c r="R47" s="10"/>
+      <c r="S47" s="10"/>
+      <c r="T47" s="10"/>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="C48" s="10"/>
-      <c r="D48" s="10"/>
-      <c r="E48" s="10"/>
+      <c r="D48" s="10">
+        <v>18.7</v>
+      </c>
+      <c r="E48" s="15">
+        <v>45</v>
+      </c>
       <c r="F48" s="10"/>
       <c r="G48" s="10"/>
-      <c r="H48" s="15"/>
-      <c r="I48" s="10"/>
-      <c r="J48" s="10"/>
-      <c r="N48" s="10"/>
-      <c r="O48" s="10"/>
-      <c r="P48" s="10"/>
-      <c r="Q48" s="10"/>
+      <c r="K48" s="10"/>
+      <c r="L48" s="10"/>
+      <c r="M48" s="10"/>
+      <c r="N48" s="136">
+        <f t="shared" si="37"/>
+        <v>45</v>
+      </c>
+      <c r="O48" s="10">
+        <v>250.3</v>
+      </c>
+      <c r="P48" s="10">
+        <v>277.3</v>
+      </c>
+      <c r="Q48" s="15"/>
       <c r="R48" s="10"/>
       <c r="S48" s="10"/>
       <c r="T48" s="10"/>
-      <c r="U48" s="10"/>
-      <c r="V48" s="10"/>
-      <c r="W48" s="10"/>
-      <c r="X48" s="10"/>
-      <c r="Y48" s="15"/>
-      <c r="Z48" s="10"/>
-      <c r="AA48" s="10"/>
-    </row>
-    <row r="49" spans="2:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>79</v>
+        <v>152</v>
       </c>
       <c r="C49" s="10"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="10"/>
+      <c r="D49" s="10">
+        <v>6.4</v>
+      </c>
+      <c r="E49" s="15">
+        <v>6.4</v>
+      </c>
       <c r="F49" s="10"/>
       <c r="G49" s="10"/>
-      <c r="H49" s="15"/>
-      <c r="I49" s="10"/>
-      <c r="J49" s="10"/>
-      <c r="N49" s="10"/>
-      <c r="O49" s="10"/>
-      <c r="P49" s="10"/>
-      <c r="Q49" s="10"/>
+      <c r="K49" s="10"/>
+      <c r="L49" s="10"/>
+      <c r="M49" s="10"/>
+      <c r="N49" s="136">
+        <f t="shared" si="37"/>
+        <v>6.4</v>
+      </c>
+      <c r="O49" s="10">
+        <v>6.4</v>
+      </c>
+      <c r="P49" s="10">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="Q49" s="15"/>
       <c r="R49" s="10"/>
       <c r="S49" s="10"/>
       <c r="T49" s="10"/>
-      <c r="U49" s="10"/>
-      <c r="V49" s="10"/>
-      <c r="W49" s="10"/>
-      <c r="X49" s="10"/>
-      <c r="Y49" s="15"/>
-      <c r="Z49" s="10"/>
-      <c r="AA49" s="10"/>
-    </row>
-    <row r="50" spans="2:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="2:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>82</v>
+        <v>153</v>
       </c>
       <c r="C50" s="10"/>
-      <c r="D50" s="10"/>
-      <c r="E50" s="10"/>
+      <c r="D50" s="10">
+        <v>90.7</v>
+      </c>
+      <c r="E50" s="15">
+        <v>90.7</v>
+      </c>
       <c r="F50" s="10"/>
       <c r="G50" s="10"/>
-      <c r="H50" s="15"/>
-      <c r="I50" s="10"/>
-      <c r="J50" s="10"/>
-      <c r="N50" s="10"/>
-      <c r="O50" s="10"/>
-      <c r="P50" s="10"/>
-      <c r="Q50" s="10"/>
+      <c r="K50" s="10"/>
+      <c r="L50" s="10"/>
+      <c r="M50" s="10"/>
+      <c r="N50" s="136">
+        <f t="shared" si="37"/>
+        <v>90.7</v>
+      </c>
+      <c r="O50" s="10">
+        <v>90.7</v>
+      </c>
+      <c r="P50" s="10">
+        <v>835.1</v>
+      </c>
+      <c r="Q50" s="15"/>
       <c r="R50" s="10"/>
       <c r="S50" s="10"/>
       <c r="T50" s="10"/>
-      <c r="U50" s="10"/>
-      <c r="V50" s="10"/>
-      <c r="W50" s="10"/>
-      <c r="X50" s="10"/>
-      <c r="Y50" s="15"/>
-      <c r="Z50" s="10"/>
-      <c r="AA50" s="10"/>
-    </row>
-    <row r="51" spans="2:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="2:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>88</v>
+        <v>154</v>
       </c>
       <c r="C51" s="10"/>
-      <c r="D51" s="10"/>
-      <c r="E51" s="10"/>
+      <c r="D51" s="10">
+        <v>5.2</v>
+      </c>
+      <c r="E51" s="15">
+        <v>7.8</v>
+      </c>
       <c r="F51" s="10"/>
       <c r="G51" s="10"/>
-      <c r="H51" s="15"/>
-      <c r="I51" s="10"/>
-      <c r="J51" s="10"/>
-      <c r="N51" s="10"/>
-      <c r="O51" s="10"/>
-      <c r="P51" s="10"/>
-      <c r="Q51" s="10"/>
+      <c r="K51" s="10"/>
+      <c r="L51" s="10"/>
+      <c r="M51" s="10"/>
+      <c r="N51" s="136">
+        <f t="shared" si="37"/>
+        <v>7.8</v>
+      </c>
+      <c r="O51" s="10">
+        <v>8.9</v>
+      </c>
+      <c r="P51" s="10">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="Q51" s="15"/>
       <c r="R51" s="10"/>
       <c r="S51" s="10"/>
       <c r="T51" s="10"/>
-      <c r="U51" s="10"/>
-      <c r="V51" s="10"/>
-      <c r="W51" s="10"/>
-      <c r="X51" s="10"/>
-      <c r="Y51" s="15"/>
-      <c r="Z51" s="10"/>
-      <c r="AA51" s="10"/>
-    </row>
-    <row r="52" spans="2:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="2:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>25</v>
+        <v>155</v>
       </c>
       <c r="C52" s="10"/>
-      <c r="D52" s="10"/>
-      <c r="E52" s="10"/>
+      <c r="D52" s="10">
+        <f>11.6+5035.9</f>
+        <v>5047.5</v>
+      </c>
+      <c r="E52" s="15">
+        <v>13.5</v>
+      </c>
       <c r="F52" s="10"/>
       <c r="G52" s="10"/>
-      <c r="H52" s="15"/>
-      <c r="I52" s="10"/>
-      <c r="J52" s="10"/>
-      <c r="N52" s="10"/>
-      <c r="O52" s="10"/>
-      <c r="P52" s="10"/>
-      <c r="Q52" s="10"/>
+      <c r="K52" s="10"/>
+      <c r="L52" s="10"/>
+      <c r="M52" s="10"/>
+      <c r="N52" s="136">
+        <f t="shared" si="37"/>
+        <v>13.5</v>
+      </c>
+      <c r="O52" s="10">
+        <v>45.4</v>
+      </c>
+      <c r="P52" s="10">
+        <v>108.5</v>
+      </c>
+      <c r="Q52" s="15"/>
       <c r="R52" s="10"/>
       <c r="S52" s="10"/>
       <c r="T52" s="10"/>
-      <c r="U52" s="10"/>
-      <c r="V52" s="10"/>
-      <c r="W52" s="10"/>
-      <c r="X52" s="10"/>
-      <c r="Y52" s="15"/>
-      <c r="Z52" s="10"/>
-      <c r="AA52" s="10"/>
-    </row>
-    <row r="53" spans="2:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
-        <v>83</v>
-      </c>
-      <c r="C53" s="10"/>
-      <c r="D53" s="10"/>
-      <c r="E53" s="10"/>
-      <c r="F53" s="10"/>
-      <c r="G53" s="10"/>
-      <c r="H53" s="15"/>
-      <c r="I53" s="10"/>
-      <c r="J53" s="10"/>
-      <c r="N53" s="10"/>
-      <c r="O53" s="10"/>
-      <c r="P53" s="10"/>
-      <c r="Q53" s="10"/>
-      <c r="R53" s="10"/>
-      <c r="S53" s="10"/>
-      <c r="T53" s="10"/>
-      <c r="U53" s="10"/>
-      <c r="V53" s="10"/>
-      <c r="W53" s="10"/>
-      <c r="X53" s="10"/>
-      <c r="Y53" s="15"/>
-      <c r="Z53" s="10"/>
-      <c r="AA53" s="10"/>
-    </row>
-    <row r="54" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B54" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C54" s="11">
-        <f>SUM(C47:C53)</f>
+    </row>
+    <row r="53" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B53" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C53" s="11">
+        <f>SUM(C45:C52)</f>
         <v>0</v>
       </c>
-      <c r="D54" s="11">
-        <f>SUM(D47:D53)</f>
+      <c r="D53" s="11">
+        <f>SUM(D45:D52)</f>
+        <v>8761.4</v>
+      </c>
+      <c r="E53" s="14">
+        <f>SUM(E45:E52)</f>
+        <v>3548.6</v>
+      </c>
+      <c r="F53" s="11">
+        <f>SUM(F45:F52)</f>
         <v>0</v>
       </c>
-      <c r="E54" s="11">
-        <f>SUM(E47:E53)</f>
+      <c r="G53" s="11">
+        <f>SUM(G45:G52)</f>
         <v>0</v>
       </c>
-      <c r="F54" s="11">
-        <f>SUM(F47:F53)</f>
+      <c r="K53" s="11">
+        <f>SUM(K45:K52)</f>
         <v>0</v>
       </c>
-      <c r="G54" s="11">
-        <f>SUM(G47:G53)</f>
+      <c r="L53" s="11">
+        <f>SUM(L45:L52)</f>
         <v>0</v>
       </c>
-      <c r="H54" s="14">
-        <f t="shared" ref="H54:J54" si="106">SUM(H47:H53)</f>
+      <c r="M53" s="11">
+        <f>SUM(M45:M52)</f>
         <v>0</v>
       </c>
-      <c r="I54" s="11">
-        <f t="shared" si="106"/>
+      <c r="N53" s="134">
+        <f>SUM(N45:N52)</f>
+        <v>3548.6</v>
+      </c>
+      <c r="O53" s="11">
+        <f>SUM(O45:O52)</f>
+        <v>3436.5</v>
+      </c>
+      <c r="P53" s="11">
+        <f>SUM(P45:P52)</f>
+        <v>5096.6000000000004</v>
+      </c>
+      <c r="Q53" s="14">
+        <f>SUM(Q45:Q52)</f>
         <v>0</v>
       </c>
-      <c r="J54" s="11">
-        <f t="shared" si="106"/>
+      <c r="R53" s="11">
+        <f>SUM(R45:R52)</f>
         <v>0</v>
       </c>
-      <c r="N54" s="11">
-        <f t="shared" ref="N54:T54" si="107">SUM(N47:N53)</f>
+      <c r="S53" s="11">
+        <f>SUM(S45:S52)</f>
         <v>0</v>
       </c>
-      <c r="O54" s="11">
-        <f t="shared" si="107"/>
+      <c r="T53" s="11">
+        <f>SUM(T45:T52)</f>
         <v>0</v>
       </c>
-      <c r="P54" s="11">
-        <f t="shared" si="107"/>
-        <v>0</v>
-      </c>
-      <c r="Q54" s="11">
-        <f t="shared" si="107"/>
-        <v>0</v>
-      </c>
-      <c r="R54" s="11">
-        <f t="shared" si="107"/>
-        <v>0</v>
-      </c>
-      <c r="S54" s="11">
-        <f t="shared" si="107"/>
-        <v>0</v>
-      </c>
-      <c r="T54" s="11">
-        <f t="shared" si="107"/>
-        <v>0</v>
-      </c>
-      <c r="U54" s="11">
-        <f t="shared" ref="U54:X54" si="108">SUM(U47:U53)</f>
-        <v>0</v>
-      </c>
-      <c r="V54" s="11">
-        <f t="shared" si="108"/>
-        <v>0</v>
-      </c>
-      <c r="W54" s="11">
-        <f t="shared" si="108"/>
-        <v>0</v>
-      </c>
-      <c r="X54" s="11">
-        <f t="shared" si="108"/>
-        <v>0</v>
-      </c>
-      <c r="Y54" s="14">
-        <f t="shared" ref="Y54:AA54" si="109">SUM(Y47:Y53)</f>
-        <v>0</v>
-      </c>
-      <c r="Z54" s="11">
-        <f t="shared" si="109"/>
-        <v>0</v>
-      </c>
-      <c r="AA54" s="11">
-        <f t="shared" si="109"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="2:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>20</v>
+      </c>
+      <c r="C54" s="10"/>
+      <c r="D54" s="10">
+        <v>57.2</v>
+      </c>
+      <c r="E54" s="15">
+        <v>235.5</v>
+      </c>
+      <c r="F54" s="10"/>
+      <c r="G54" s="10"/>
+      <c r="K54" s="10"/>
+      <c r="L54" s="10"/>
+      <c r="M54" s="10"/>
+      <c r="N54" s="136">
+        <f t="shared" ref="N54:N57" si="38">E54</f>
+        <v>235.5</v>
+      </c>
+      <c r="O54" s="10">
+        <v>61.4</v>
+      </c>
+      <c r="P54" s="10">
+        <v>103.6</v>
+      </c>
+      <c r="Q54" s="15"/>
+      <c r="R54" s="10"/>
+      <c r="S54" s="10"/>
+      <c r="T54" s="10"/>
+    </row>
+    <row r="55" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>89</v>
+        <v>156</v>
       </c>
       <c r="C55" s="10"/>
-      <c r="D55" s="10"/>
-      <c r="E55" s="10"/>
+      <c r="D55" s="10">
+        <v>6.8</v>
+      </c>
+      <c r="E55" s="15">
+        <v>6.1</v>
+      </c>
       <c r="F55" s="10"/>
       <c r="G55" s="10"/>
-      <c r="H55" s="15"/>
-      <c r="I55" s="10"/>
-      <c r="J55" s="10"/>
-      <c r="N55" s="10"/>
-      <c r="O55" s="10"/>
-      <c r="P55" s="10"/>
-      <c r="Q55" s="10"/>
+      <c r="K55" s="10"/>
+      <c r="L55" s="10"/>
+      <c r="M55" s="10"/>
+      <c r="N55" s="136">
+        <f t="shared" si="38"/>
+        <v>6.1</v>
+      </c>
+      <c r="O55" s="10">
+        <v>6.2</v>
+      </c>
+      <c r="P55" s="10">
+        <v>8</v>
+      </c>
+      <c r="Q55" s="15"/>
       <c r="R55" s="10"/>
       <c r="S55" s="10"/>
       <c r="T55" s="10"/>
-      <c r="U55" s="10"/>
-      <c r="V55" s="10"/>
-      <c r="W55" s="10"/>
-      <c r="X55" s="10"/>
-      <c r="Y55" s="15"/>
-      <c r="Z55" s="10"/>
-      <c r="AA55" s="10"/>
-    </row>
-    <row r="56" spans="2:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>29</v>
+        <v>157</v>
       </c>
       <c r="C56" s="10"/>
-      <c r="D56" s="10"/>
-      <c r="E56" s="10"/>
+      <c r="D56" s="10">
+        <v>8.1</v>
+      </c>
+      <c r="E56" s="15">
+        <v>5.9</v>
+      </c>
       <c r="F56" s="10"/>
       <c r="G56" s="10"/>
-      <c r="H56" s="15"/>
-      <c r="I56" s="10"/>
-      <c r="J56" s="10"/>
-      <c r="N56" s="10"/>
-      <c r="O56" s="10"/>
-      <c r="P56" s="10"/>
-      <c r="Q56" s="10"/>
+      <c r="K56" s="10"/>
+      <c r="L56" s="10"/>
+      <c r="M56" s="10"/>
+      <c r="N56" s="136">
+        <f t="shared" si="38"/>
+        <v>5.9</v>
+      </c>
+      <c r="O56" s="10">
+        <v>6.9</v>
+      </c>
+      <c r="P56" s="10">
+        <v>7.2</v>
+      </c>
+      <c r="Q56" s="15"/>
       <c r="R56" s="10"/>
       <c r="S56" s="10"/>
       <c r="T56" s="10"/>
-      <c r="U56" s="10"/>
-      <c r="V56" s="10"/>
-      <c r="W56" s="10"/>
-      <c r="X56" s="10"/>
-      <c r="Y56" s="15"/>
-      <c r="Z56" s="10"/>
-      <c r="AA56" s="10"/>
-    </row>
-    <row r="57" spans="2:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>86</v>
+        <v>158</v>
       </c>
       <c r="C57" s="10"/>
-      <c r="D57" s="10"/>
-      <c r="E57" s="10"/>
+      <c r="D57" s="10">
+        <f>6.9+3791</f>
+        <v>3797.9</v>
+      </c>
+      <c r="E57" s="15">
+        <v>16.5</v>
+      </c>
       <c r="F57" s="10"/>
       <c r="G57" s="10"/>
-      <c r="H57" s="15"/>
-      <c r="I57" s="10"/>
-      <c r="J57" s="10"/>
-      <c r="N57" s="10"/>
-      <c r="O57" s="10"/>
-      <c r="P57" s="10"/>
-      <c r="Q57" s="10"/>
+      <c r="K57" s="10"/>
+      <c r="L57" s="10"/>
+      <c r="M57" s="10"/>
+      <c r="N57" s="136">
+        <f t="shared" si="38"/>
+        <v>16.5</v>
+      </c>
+      <c r="O57" s="10">
+        <v>19</v>
+      </c>
+      <c r="P57" s="10">
+        <v>19.3</v>
+      </c>
+      <c r="Q57" s="15"/>
       <c r="R57" s="10"/>
       <c r="S57" s="10"/>
       <c r="T57" s="10"/>
-      <c r="U57" s="10"/>
-      <c r="V57" s="10"/>
-      <c r="W57" s="10"/>
-      <c r="X57" s="10"/>
-      <c r="Y57" s="15"/>
-      <c r="Z57" s="10"/>
-      <c r="AA57" s="10"/>
-    </row>
-    <row r="58" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B58" t="s">
-        <v>17</v>
-      </c>
-      <c r="C58" s="10"/>
-      <c r="D58" s="10"/>
-      <c r="E58" s="10"/>
-      <c r="F58" s="10"/>
-      <c r="G58" s="10"/>
-      <c r="H58" s="15"/>
-      <c r="I58" s="10"/>
-      <c r="J58" s="10"/>
-      <c r="N58" s="10"/>
-      <c r="O58" s="10"/>
-      <c r="P58" s="10"/>
-      <c r="Q58" s="10"/>
-      <c r="R58" s="10"/>
-      <c r="S58" s="10"/>
-      <c r="T58" s="10"/>
-      <c r="U58" s="10"/>
-      <c r="V58" s="10"/>
-      <c r="W58" s="10"/>
-      <c r="X58" s="10"/>
-      <c r="Y58" s="15"/>
-      <c r="Z58" s="10"/>
-      <c r="AA58" s="10"/>
-    </row>
-    <row r="59" spans="2:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="2:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C58" s="11">
+        <f>SUM(C54:C57)</f>
+        <v>0</v>
+      </c>
+      <c r="D58" s="11">
+        <f>SUM(D54:D57)</f>
+        <v>3870</v>
+      </c>
+      <c r="E58" s="14">
+        <f>SUM(E54:E57)</f>
+        <v>264</v>
+      </c>
+      <c r="F58" s="11">
+        <f>SUM(F54:F57)</f>
+        <v>0</v>
+      </c>
+      <c r="G58" s="11">
+        <f>SUM(G54:G57)</f>
+        <v>0</v>
+      </c>
+      <c r="K58" s="11">
+        <f>SUM(K54:K57)</f>
+        <v>0</v>
+      </c>
+      <c r="L58" s="11">
+        <f>SUM(L54:L57)</f>
+        <v>0</v>
+      </c>
+      <c r="M58" s="11">
+        <f>SUM(M54:M57)</f>
+        <v>0</v>
+      </c>
+      <c r="N58" s="134">
+        <f>SUM(N54:N57)</f>
+        <v>264</v>
+      </c>
+      <c r="O58" s="11">
+        <f>SUM(O54:O57)</f>
+        <v>93.5</v>
+      </c>
+      <c r="P58" s="11">
+        <f>SUM(P54:P57)</f>
+        <v>138.1</v>
+      </c>
+      <c r="Q58" s="14">
+        <f>SUM(Q54:Q57)</f>
+        <v>0</v>
+      </c>
+      <c r="R58" s="11">
+        <f>SUM(R54:R57)</f>
+        <v>0</v>
+      </c>
+      <c r="S58" s="11">
+        <f>SUM(S54:S57)</f>
+        <v>0</v>
+      </c>
+      <c r="T58" s="11">
+        <f>SUM(T54:T57)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>93</v>
+        <v>49</v>
       </c>
       <c r="C59" s="10"/>
-      <c r="D59" s="10"/>
-      <c r="E59" s="10"/>
+      <c r="D59" s="10">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="E59" s="15">
+        <v>30.3</v>
+      </c>
       <c r="F59" s="10"/>
       <c r="G59" s="10"/>
-      <c r="H59" s="15"/>
-      <c r="I59" s="10"/>
-      <c r="J59" s="10"/>
-      <c r="N59" s="10"/>
-      <c r="O59" s="10"/>
-      <c r="P59" s="10"/>
-      <c r="Q59" s="10"/>
+      <c r="K59" s="10"/>
+      <c r="L59" s="10"/>
+      <c r="M59" s="10"/>
+      <c r="N59" s="136">
+        <f t="shared" ref="N59:N60" si="39">E59</f>
+        <v>30.3</v>
+      </c>
+      <c r="O59" s="10">
+        <v>181.6</v>
+      </c>
+      <c r="P59" s="10">
+        <v>204.5</v>
+      </c>
+      <c r="Q59" s="15"/>
       <c r="R59" s="10"/>
       <c r="S59" s="10"/>
       <c r="T59" s="10"/>
-      <c r="U59" s="10"/>
-      <c r="V59" s="10"/>
-      <c r="W59" s="10"/>
-      <c r="X59" s="10"/>
-      <c r="Y59" s="15"/>
-      <c r="Z59" s="10"/>
-      <c r="AA59" s="10"/>
-    </row>
-    <row r="60" spans="2:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C60" s="11">
-        <f>SUM(C55:C59)</f>
+    </row>
+    <row r="60" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>159</v>
+      </c>
+      <c r="C60" s="10"/>
+      <c r="D60" s="10">
+        <f>0.2+1580.9</f>
+        <v>1581.1000000000001</v>
+      </c>
+      <c r="E60" s="15">
+        <v>0.6</v>
+      </c>
+      <c r="F60" s="10"/>
+      <c r="G60" s="10"/>
+      <c r="K60" s="10"/>
+      <c r="L60" s="10"/>
+      <c r="M60" s="10"/>
+      <c r="N60" s="136">
+        <f t="shared" si="39"/>
+        <v>0.6</v>
+      </c>
+      <c r="O60" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="P60" s="10">
+        <f>978.2+0.3</f>
+        <v>978.5</v>
+      </c>
+      <c r="Q60" s="15"/>
+      <c r="R60" s="10"/>
+      <c r="S60" s="10"/>
+      <c r="T60" s="10"/>
+    </row>
+    <row r="61" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B61" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C61" s="11">
+        <f>SUM(C58:C60)</f>
         <v>0</v>
       </c>
-      <c r="D60" s="11">
-        <f>SUM(D55:D59)</f>
+      <c r="D61" s="11">
+        <f>SUM(D58:D60)</f>
+        <v>5460.8</v>
+      </c>
+      <c r="E61" s="14">
+        <f>SUM(E58:E60)</f>
+        <v>294.90000000000003</v>
+      </c>
+      <c r="F61" s="11">
+        <f>SUM(F58:F60)</f>
         <v>0</v>
       </c>
-      <c r="E60" s="11">
-        <f>SUM(E55:E59)</f>
+      <c r="G61" s="11">
+        <f>SUM(G58:G60)</f>
         <v>0</v>
       </c>
-      <c r="F60" s="11">
-        <f>SUM(F55:F59)</f>
+      <c r="K61" s="11">
+        <f>SUM(K58:K60)</f>
         <v>0</v>
       </c>
-      <c r="G60" s="11">
-        <f>SUM(G55:G59)</f>
+      <c r="L61" s="11">
+        <f>SUM(L58:L60)</f>
         <v>0</v>
       </c>
-      <c r="H60" s="14">
-        <f t="shared" ref="H60:J60" si="110">SUM(H55:H59)</f>
+      <c r="M61" s="11">
+        <f>SUM(M58:M60)</f>
         <v>0</v>
       </c>
-      <c r="I60" s="11">
-        <f t="shared" si="110"/>
+      <c r="N61" s="134">
+        <f>SUM(N58:N60)</f>
+        <v>294.90000000000003</v>
+      </c>
+      <c r="O61" s="11">
+        <f>SUM(O58:O60)</f>
+        <v>275.20000000000005</v>
+      </c>
+      <c r="P61" s="11">
+        <f>SUM(P58:P60)</f>
+        <v>1321.1</v>
+      </c>
+      <c r="Q61" s="14">
+        <f>SUM(Q58:Q60)</f>
         <v>0</v>
       </c>
-      <c r="J60" s="11">
-        <f t="shared" si="110"/>
+      <c r="R61" s="11">
+        <f>SUM(R58:R60)</f>
         <v>0</v>
       </c>
-      <c r="N60" s="11">
-        <f t="shared" ref="N60:T60" si="111">SUM(N55:N59)</f>
+      <c r="S61" s="11">
+        <f>SUM(S58:S60)</f>
         <v>0</v>
       </c>
-      <c r="O60" s="11">
-        <f t="shared" si="111"/>
+      <c r="T61" s="11">
+        <f>SUM(T58:T60)</f>
         <v>0</v>
       </c>
-      <c r="P60" s="11">
-        <f t="shared" si="111"/>
+    </row>
+    <row r="62" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>64</v>
+      </c>
+      <c r="C62" s="10">
+        <f>C53-C61</f>
         <v>0</v>
       </c>
-      <c r="Q60" s="11">
-        <f t="shared" si="111"/>
+      <c r="D62" s="10">
+        <f>D53-D61</f>
+        <v>3300.5999999999995</v>
+      </c>
+      <c r="E62" s="15">
+        <f>E53-E61</f>
+        <v>3253.7</v>
+      </c>
+      <c r="F62" s="10">
+        <f>F53-F61</f>
         <v>0</v>
       </c>
-      <c r="R60" s="11">
-        <f t="shared" si="111"/>
+      <c r="G62" s="10">
+        <f>G53-G61</f>
         <v>0</v>
       </c>
-      <c r="S60" s="11">
-        <f t="shared" si="111"/>
+      <c r="K62" s="10">
+        <f>K53-K61</f>
         <v>0</v>
       </c>
-      <c r="T60" s="11">
-        <f t="shared" si="111"/>
+      <c r="L62" s="10">
+        <f>L53-L61</f>
         <v>0</v>
       </c>
-      <c r="U60" s="11">
-        <f t="shared" ref="U60:X60" si="112">SUM(U55:U59)</f>
+      <c r="M62" s="10">
+        <f>M53-M61</f>
         <v>0</v>
       </c>
-      <c r="V60" s="11">
-        <f t="shared" si="112"/>
+      <c r="N62" s="136">
+        <f>N53-N61</f>
+        <v>3253.7</v>
+      </c>
+      <c r="O62" s="10">
+        <f>O53-O61</f>
+        <v>3161.3</v>
+      </c>
+      <c r="P62" s="10">
+        <f>P53-P61</f>
+        <v>3775.5000000000005</v>
+      </c>
+      <c r="Q62" s="15">
+        <f>Q53-Q61</f>
         <v>0</v>
       </c>
-      <c r="W60" s="11">
-        <f t="shared" si="112"/>
+      <c r="R62" s="10">
+        <f>R53-R61</f>
         <v>0</v>
       </c>
-      <c r="X60" s="11">
-        <f t="shared" si="112"/>
+      <c r="S62" s="10">
+        <f>S53-S61</f>
         <v>0</v>
       </c>
-      <c r="Y60" s="14">
-        <f t="shared" ref="Y60:AA60" si="113">SUM(Y55:Y59)</f>
+      <c r="T62" s="10">
+        <f>T53-T61</f>
         <v>0</v>
       </c>
-      <c r="Z60" s="11">
-        <f t="shared" si="113"/>
-        <v>0</v>
-      </c>
-      <c r="AA60" s="11">
-        <f t="shared" si="113"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B61" t="s">
-        <v>84</v>
-      </c>
-      <c r="C61" s="10"/>
-      <c r="D61" s="10"/>
-      <c r="E61" s="10"/>
-      <c r="F61" s="10"/>
-      <c r="G61" s="10"/>
-      <c r="H61" s="15"/>
-      <c r="I61" s="10"/>
-      <c r="J61" s="10"/>
-      <c r="N61" s="10"/>
-      <c r="O61" s="10"/>
-      <c r="P61" s="10"/>
-      <c r="Q61" s="10"/>
-      <c r="R61" s="10"/>
-      <c r="S61" s="10"/>
-      <c r="T61" s="10"/>
-      <c r="U61" s="10"/>
-      <c r="V61" s="10"/>
-      <c r="W61" s="10"/>
-      <c r="X61" s="10"/>
-      <c r="Y61" s="15"/>
-      <c r="Z61" s="10"/>
-      <c r="AA61" s="10"/>
-    </row>
-    <row r="62" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B62" t="s">
-        <v>63</v>
-      </c>
-      <c r="C62" s="10"/>
-      <c r="D62" s="10"/>
-      <c r="E62" s="10"/>
-      <c r="F62" s="10"/>
-      <c r="G62" s="10"/>
-      <c r="H62" s="15"/>
-      <c r="I62" s="10"/>
-      <c r="J62" s="10"/>
-      <c r="N62" s="10"/>
-      <c r="O62" s="10"/>
-      <c r="P62" s="10"/>
-      <c r="Q62" s="10"/>
-      <c r="R62" s="10"/>
-      <c r="S62" s="10"/>
-      <c r="T62" s="10"/>
-      <c r="U62" s="10"/>
-      <c r="V62" s="10"/>
-      <c r="W62" s="10"/>
-      <c r="X62" s="10"/>
-      <c r="Y62" s="15"/>
-      <c r="Z62" s="10"/>
-      <c r="AA62" s="10"/>
-    </row>
-    <row r="63" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B63" t="s">
-        <v>26</v>
-      </c>
-      <c r="C63" s="10"/>
-      <c r="D63" s="10"/>
-      <c r="E63" s="10"/>
-      <c r="F63" s="10"/>
-      <c r="G63" s="10"/>
-      <c r="H63" s="15"/>
-      <c r="I63" s="10"/>
-      <c r="J63" s="10"/>
-      <c r="N63" s="10"/>
-      <c r="O63" s="10"/>
-      <c r="P63" s="10"/>
-      <c r="Q63" s="10"/>
-      <c r="R63" s="10"/>
-      <c r="S63" s="10"/>
-      <c r="T63" s="10"/>
-      <c r="U63" s="10"/>
-      <c r="V63" s="10"/>
-      <c r="W63" s="10"/>
-      <c r="X63" s="10"/>
-      <c r="Y63" s="15"/>
-      <c r="Z63" s="10"/>
-      <c r="AA63" s="10"/>
-    </row>
-    <row r="64" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B64" t="s">
-        <v>85</v>
-      </c>
-      <c r="C64" s="10"/>
-      <c r="D64" s="10"/>
-      <c r="E64" s="10"/>
-      <c r="F64" s="10"/>
-      <c r="G64" s="10"/>
-      <c r="H64" s="15"/>
-      <c r="I64" s="10"/>
-      <c r="J64" s="10"/>
-      <c r="N64" s="10"/>
-      <c r="O64" s="10"/>
-      <c r="P64" s="10"/>
-      <c r="Q64" s="10"/>
-      <c r="R64" s="10"/>
-      <c r="S64" s="10"/>
-      <c r="T64" s="10"/>
-      <c r="U64" s="10"/>
-      <c r="V64" s="10"/>
-      <c r="W64" s="10"/>
-      <c r="X64" s="10"/>
-      <c r="Y64" s="15"/>
-      <c r="Z64" s="10"/>
-      <c r="AA64" s="10"/>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B65" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C65" s="11">
-        <f>SUM(C60:C64)</f>
-        <v>0</v>
-      </c>
-      <c r="D65" s="11">
-        <f>SUM(D60:D64)</f>
-        <v>0</v>
-      </c>
-      <c r="E65" s="11">
-        <f>SUM(E60:E64)</f>
-        <v>0</v>
-      </c>
-      <c r="F65" s="11">
-        <f>SUM(F60:F64)</f>
-        <v>0</v>
-      </c>
-      <c r="G65" s="11">
-        <f>SUM(G60:G64)</f>
-        <v>0</v>
-      </c>
-      <c r="H65" s="14">
-        <f t="shared" ref="H65:J65" si="114">SUM(H60:H64)</f>
-        <v>0</v>
-      </c>
-      <c r="I65" s="11">
-        <f t="shared" si="114"/>
-        <v>0</v>
-      </c>
-      <c r="J65" s="11">
-        <f t="shared" si="114"/>
-        <v>0</v>
-      </c>
-      <c r="N65" s="11">
-        <f t="shared" ref="N65:T65" si="115">SUM(N60:N64)</f>
-        <v>0</v>
-      </c>
-      <c r="O65" s="11">
-        <f t="shared" si="115"/>
-        <v>0</v>
-      </c>
-      <c r="P65" s="11">
-        <f t="shared" si="115"/>
-        <v>0</v>
-      </c>
-      <c r="Q65" s="11">
-        <f t="shared" si="115"/>
-        <v>0</v>
-      </c>
-      <c r="R65" s="11">
-        <f t="shared" si="115"/>
-        <v>0</v>
-      </c>
-      <c r="S65" s="11">
-        <f t="shared" si="115"/>
-        <v>0</v>
-      </c>
-      <c r="T65" s="11">
-        <f t="shared" si="115"/>
-        <v>0</v>
-      </c>
-      <c r="U65" s="11">
-        <f t="shared" ref="U65:X65" si="116">SUM(U60:U64)</f>
-        <v>0</v>
-      </c>
-      <c r="V65" s="11">
-        <f t="shared" si="116"/>
-        <v>0</v>
-      </c>
-      <c r="W65" s="11">
-        <f t="shared" si="116"/>
-        <v>0</v>
-      </c>
-      <c r="X65" s="11">
-        <f t="shared" si="116"/>
-        <v>0</v>
-      </c>
-      <c r="Y65" s="14">
-        <f t="shared" ref="Y65:AA65" si="117">SUM(Y60:Y64)</f>
-        <v>0</v>
-      </c>
-      <c r="Z65" s="11">
-        <f t="shared" si="117"/>
-        <v>0</v>
-      </c>
-      <c r="AA65" s="11">
-        <f t="shared" si="117"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B66" t="s">
-        <v>87</v>
-      </c>
-      <c r="C66" s="10">
-        <f t="shared" ref="C66:E66" si="118">C54-C65</f>
-        <v>0</v>
-      </c>
-      <c r="D66" s="10">
-        <f t="shared" si="118"/>
-        <v>0</v>
-      </c>
-      <c r="E66" s="10">
-        <f t="shared" si="118"/>
-        <v>0</v>
-      </c>
-      <c r="F66" s="10">
-        <f>F54-F65</f>
-        <v>0</v>
-      </c>
-      <c r="G66" s="10">
-        <f>G54-G65</f>
-        <v>0</v>
-      </c>
-      <c r="H66" s="15">
-        <f t="shared" ref="H66:J66" si="119">H54-H65</f>
-        <v>0</v>
-      </c>
-      <c r="I66" s="10">
-        <f t="shared" si="119"/>
-        <v>0</v>
-      </c>
-      <c r="J66" s="10">
-        <f t="shared" si="119"/>
-        <v>0</v>
-      </c>
-      <c r="N66" s="10">
-        <f t="shared" ref="N66:T66" si="120">N54-N65</f>
-        <v>0</v>
-      </c>
-      <c r="O66" s="10">
-        <f t="shared" si="120"/>
-        <v>0</v>
-      </c>
-      <c r="P66" s="10">
-        <f t="shared" si="120"/>
-        <v>0</v>
-      </c>
-      <c r="Q66" s="10">
-        <f t="shared" si="120"/>
-        <v>0</v>
-      </c>
-      <c r="R66" s="10">
-        <f t="shared" si="120"/>
-        <v>0</v>
-      </c>
-      <c r="S66" s="10">
-        <f t="shared" si="120"/>
-        <v>0</v>
-      </c>
-      <c r="T66" s="10">
-        <f t="shared" si="120"/>
-        <v>0</v>
-      </c>
-      <c r="U66" s="10">
-        <f t="shared" ref="U66:X66" si="121">U54-U65</f>
-        <v>0</v>
-      </c>
-      <c r="V66" s="10">
-        <f t="shared" si="121"/>
-        <v>0</v>
-      </c>
-      <c r="W66" s="10">
-        <f t="shared" si="121"/>
-        <v>0</v>
-      </c>
-      <c r="X66" s="10">
-        <f t="shared" si="121"/>
-        <v>0</v>
-      </c>
-      <c r="Y66" s="15">
-        <f t="shared" ref="Y66:AA66" si="122">Y54-Y65</f>
-        <v>0</v>
-      </c>
-      <c r="Z66" s="10">
-        <f t="shared" si="122"/>
-        <v>0</v>
-      </c>
-      <c r="AA66" s="10">
-        <f t="shared" si="122"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="2:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C68" s="50"/>
-      <c r="D68" s="50"/>
-      <c r="E68" s="50"/>
-      <c r="F68" s="50"/>
-      <c r="G68" s="122"/>
-      <c r="H68" s="16"/>
-      <c r="Y68" s="16"/>
-    </row>
-    <row r="86" spans="8:25" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H86" s="41"/>
-      <c r="Y86" s="41"/>
-    </row>
-    <row r="87" spans="8:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H87" s="16"/>
-      <c r="Y87" s="16"/>
+    </row>
+    <row r="64" spans="2:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C64" s="50"/>
+      <c r="D64" s="120"/>
+      <c r="E64" s="16"/>
+      <c r="N64" s="140"/>
+      <c r="Q64" s="16"/>
+    </row>
+    <row r="82" spans="5:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E82" s="41"/>
+      <c r="N82" s="141"/>
+      <c r="Q82" s="41"/>
+    </row>
+    <row r="83" spans="5:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E83" s="16"/>
+      <c r="N83" s="140"/>
+      <c r="Q83" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -19664,9 +18268,6 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="C60" formula="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -19684,43 +18285,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B1" s="120">
+      <c r="B1" s="118">
         <v>45413</v>
       </c>
-      <c r="C1" s="120">
+      <c r="C1" s="118">
         <v>45444</v>
       </c>
-      <c r="D1" s="120">
+      <c r="D1" s="118">
         <v>45474</v>
       </c>
-      <c r="E1" s="120">
+      <c r="E1" s="118">
         <v>45505</v>
       </c>
-      <c r="F1" s="120">
+      <c r="F1" s="118">
         <v>45536</v>
       </c>
-      <c r="G1" s="120">
+      <c r="G1" s="118">
         <v>45566</v>
       </c>
-      <c r="H1" s="120">
+      <c r="H1" s="118">
         <v>45597</v>
       </c>
-      <c r="I1" s="120">
+      <c r="I1" s="118">
         <v>45627</v>
       </c>
-      <c r="J1" s="120">
+      <c r="J1" s="118">
         <v>45658</v>
       </c>
-      <c r="K1" s="120">
+      <c r="K1" s="118">
         <v>45689</v>
       </c>
-      <c r="L1" s="120">
+      <c r="L1" s="118">
         <v>45717</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>164</v>
+        <v>134</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -19734,7 +18335,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>165</v>
+        <v>135</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -19748,7 +18349,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>166</v>
+        <v>136</v>
       </c>
       <c r="I4">
         <v>3</v>
@@ -19762,7 +18363,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>167</v>
+        <v>137</v>
       </c>
       <c r="I5">
         <v>3</v>
@@ -19776,7 +18377,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>168</v>
+        <v>138</v>
       </c>
       <c r="I6">
         <v>2</v>
@@ -19790,12 +18391,12 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>172</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>169</v>
+        <v>139</v>
       </c>
       <c r="I10">
         <v>80</v>
@@ -19809,7 +18410,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="I11">
         <v>90</v>
@@ -19823,7 +18424,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>171</v>
+        <v>141</v>
       </c>
       <c r="I12">
         <v>40</v>
@@ -19842,30 +18443,6 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E48E03BE-2423-4BDB-9A98-002F9CED8953}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="X56" sqref="X56"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{58C3B527-2D5B-414E-8D16-78915C434B11}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D37F5735-5460-414D-B5FC-C83DFBD00ECA}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -19876,6 +18453,30 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E48E03BE-2423-4BDB-9A98-002F9CED8953}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="V34" sqref="V34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{58C3B527-2D5B-414E-8D16-78915C434B11}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -19901,26 +18502,26 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
         <v>36</v>
       </c>
-      <c r="B1" t="s">
-        <v>49</v>
-      </c>
       <c r="C1" s="17" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B2" s="12"/>
       <c r="C2" s="18"/>
       <c r="E2" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="F2" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="M2" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -19930,7 +18531,7 @@
         <v>45328</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="M3" s="12"/>
     </row>
@@ -19941,7 +18542,7 @@
         <v>45302</v>
       </c>
       <c r="F4" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="M4" s="12"/>
     </row>
@@ -28236,60 +26837,60 @@
   <sheetData>
     <row r="1" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="H1" s="134" t="s">
-        <v>109</v>
-      </c>
-      <c r="I1" s="135"/>
-      <c r="J1" s="135"/>
-      <c r="K1" s="135"/>
-      <c r="L1" s="135"/>
-      <c r="M1" s="136"/>
+        <v>80</v>
+      </c>
+      <c r="H1" s="123" t="s">
+        <v>81</v>
+      </c>
+      <c r="I1" s="124"/>
+      <c r="J1" s="124"/>
+      <c r="K1" s="124"/>
+      <c r="L1" s="124"/>
+      <c r="M1" s="125"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D2" t="e">
         <f>C2/C3-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H2" s="56"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="58"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="56"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D3" t="e">
         <f t="shared" ref="D3:D66" si="0">C3/C4-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H3" s="59" t="s">
-        <v>110</v>
-      </c>
-      <c r="I3" s="60" t="s">
-        <v>111</v>
-      </c>
-      <c r="J3" s="61" t="s">
-        <v>112</v>
-      </c>
-      <c r="K3" s="62" t="s">
-        <v>113</v>
-      </c>
-      <c r="L3" s="62" t="s">
-        <v>114</v>
-      </c>
-      <c r="M3" s="63" t="s">
-        <v>115</v>
+      <c r="H3" s="57" t="s">
+        <v>82</v>
+      </c>
+      <c r="I3" s="58" t="s">
+        <v>83</v>
+      </c>
+      <c r="J3" s="59" t="s">
+        <v>84</v>
+      </c>
+      <c r="K3" s="60" t="s">
+        <v>85</v>
+      </c>
+      <c r="L3" s="60" t="s">
+        <v>86</v>
+      </c>
+      <c r="M3" s="61" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -28297,27 +26898,27 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H4" s="64" t="e">
+      <c r="H4" s="62" t="e">
         <f>$I$19-3*$I$23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I4" s="65" t="e">
+      <c r="I4" s="63" t="e">
         <f>H4</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J4" s="66">
+      <c r="J4" s="64">
         <f>COUNTIF(D:D,"&lt;="&amp;H4)</f>
         <v>67</v>
       </c>
-      <c r="K4" s="66" t="e">
+      <c r="K4" s="64" t="e">
         <f>"Less than "&amp;TEXT(H4,"0,00%")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L4" s="67" t="e">
+      <c r="L4" s="65" t="e">
         <f>J4/$I$31</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M4" s="68" t="e">
+      <c r="M4" s="66" t="e">
         <f>L4</f>
         <v>#DIV/0!</v>
       </c>
@@ -28327,27 +26928,27 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H5" s="69" t="e">
+      <c r="H5" s="67" t="e">
         <f>$I$19-2.4*$I$23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I5" s="70" t="e">
+      <c r="I5" s="68" t="e">
         <f>H5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J5" s="71">
+      <c r="J5" s="69">
         <f>COUNTIFS(D:D,"&lt;="&amp;H5,D:D,"&gt;"&amp;H4)</f>
         <v>67</v>
       </c>
-      <c r="K5" s="72" t="e">
+      <c r="K5" s="70" t="e">
         <f t="shared" ref="K5:K14" si="1">TEXT(H4,"0,00%")&amp;" to "&amp;TEXT(H5,"0,00%")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L5" s="73" t="e">
+      <c r="L5" s="71" t="e">
         <f>J5/$I$31</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M5" s="74" t="e">
+      <c r="M5" s="72" t="e">
         <f>M4+L5</f>
         <v>#DIV/0!</v>
       </c>
@@ -28357,27 +26958,27 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H6" s="69" t="e">
+      <c r="H6" s="67" t="e">
         <f>$I$19-1.8*$I$23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I6" s="70" t="e">
+      <c r="I6" s="68" t="e">
         <f t="shared" ref="I6:I14" si="2">H6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J6" s="71">
+      <c r="J6" s="69">
         <f t="shared" ref="J6:J14" si="3">COUNTIFS(D:D,"&lt;="&amp;H6,D:D,"&gt;"&amp;H5)</f>
         <v>67</v>
       </c>
-      <c r="K6" s="72" t="e">
+      <c r="K6" s="70" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L6" s="73" t="e">
+      <c r="L6" s="71" t="e">
         <f t="shared" ref="L6:L15" si="4">J6/$I$31</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M6" s="74" t="e">
+      <c r="M6" s="72" t="e">
         <f t="shared" ref="M6:M15" si="5">M5+L6</f>
         <v>#DIV/0!</v>
       </c>
@@ -28387,27 +26988,27 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H7" s="69" t="e">
+      <c r="H7" s="67" t="e">
         <f>$I$19-1.2*$I$23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I7" s="70" t="e">
+      <c r="I7" s="68" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J7" s="71">
+      <c r="J7" s="69">
         <f t="shared" si="3"/>
         <v>67</v>
       </c>
-      <c r="K7" s="72" t="e">
+      <c r="K7" s="70" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L7" s="73" t="e">
+      <c r="L7" s="71" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M7" s="74" t="e">
+      <c r="M7" s="72" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
@@ -28417,27 +27018,27 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H8" s="69" t="e">
+      <c r="H8" s="67" t="e">
         <f>$I$19-0.6*$I$23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I8" s="70" t="e">
+      <c r="I8" s="68" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J8" s="71">
+      <c r="J8" s="69">
         <f t="shared" si="3"/>
         <v>67</v>
       </c>
-      <c r="K8" s="72" t="e">
+      <c r="K8" s="70" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L8" s="73" t="e">
+      <c r="L8" s="71" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M8" s="74" t="e">
+      <c r="M8" s="72" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
@@ -28447,27 +27048,27 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H9" s="69" t="e">
+      <c r="H9" s="67" t="e">
         <f>$I$19</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I9" s="70" t="e">
+      <c r="I9" s="68" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J9" s="71">
+      <c r="J9" s="69">
         <f t="shared" si="3"/>
         <v>67</v>
       </c>
-      <c r="K9" s="72" t="e">
+      <c r="K9" s="70" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L9" s="73" t="e">
+      <c r="L9" s="71" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M9" s="74" t="e">
+      <c r="M9" s="72" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
@@ -28477,27 +27078,27 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H10" s="69" t="e">
+      <c r="H10" s="67" t="e">
         <f>$I$19+0.6*$I$23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I10" s="70" t="e">
+      <c r="I10" s="68" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J10" s="71">
+      <c r="J10" s="69">
         <f t="shared" si="3"/>
         <v>67</v>
       </c>
-      <c r="K10" s="72" t="e">
+      <c r="K10" s="70" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L10" s="73" t="e">
+      <c r="L10" s="71" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M10" s="74" t="e">
+      <c r="M10" s="72" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
@@ -28507,27 +27108,27 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H11" s="69" t="e">
+      <c r="H11" s="67" t="e">
         <f>$I$19+1.2*$I$23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I11" s="70" t="e">
+      <c r="I11" s="68" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J11" s="71">
+      <c r="J11" s="69">
         <f t="shared" si="3"/>
         <v>67</v>
       </c>
-      <c r="K11" s="72" t="e">
+      <c r="K11" s="70" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L11" s="73" t="e">
+      <c r="L11" s="71" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M11" s="74" t="e">
+      <c r="M11" s="72" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
@@ -28537,27 +27138,27 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H12" s="69" t="e">
+      <c r="H12" s="67" t="e">
         <f>$I$19+1.8*$I$23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I12" s="70" t="e">
+      <c r="I12" s="68" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J12" s="71">
+      <c r="J12" s="69">
         <f t="shared" si="3"/>
         <v>67</v>
       </c>
-      <c r="K12" s="72" t="e">
+      <c r="K12" s="70" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L12" s="73" t="e">
+      <c r="L12" s="71" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M12" s="74" t="e">
+      <c r="M12" s="72" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
@@ -28567,27 +27168,27 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H13" s="69" t="e">
+      <c r="H13" s="67" t="e">
         <f>$I$19+2.4*$I$23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I13" s="70" t="e">
+      <c r="I13" s="68" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J13" s="71">
+      <c r="J13" s="69">
         <f t="shared" si="3"/>
         <v>67</v>
       </c>
-      <c r="K13" s="72" t="e">
+      <c r="K13" s="70" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L13" s="73" t="e">
+      <c r="L13" s="71" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M13" s="74" t="e">
+      <c r="M13" s="72" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
@@ -28597,27 +27198,27 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H14" s="69" t="e">
+      <c r="H14" s="67" t="e">
         <f>$I$19+3*$I$23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I14" s="70" t="e">
+      <c r="I14" s="68" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J14" s="71">
+      <c r="J14" s="69">
         <f t="shared" si="3"/>
         <v>67</v>
       </c>
-      <c r="K14" s="72" t="e">
+      <c r="K14" s="70" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L14" s="73" t="e">
+      <c r="L14" s="71" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M14" s="74" t="e">
+      <c r="M14" s="72" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
@@ -28627,23 +27228,23 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H15" s="75"/>
-      <c r="I15" s="76" t="s">
-        <v>116</v>
-      </c>
-      <c r="J15" s="76">
+      <c r="H15" s="73"/>
+      <c r="I15" s="74" t="s">
+        <v>88</v>
+      </c>
+      <c r="J15" s="74">
         <f>COUNTIF(D:D,"&gt;"&amp;H14)</f>
         <v>67</v>
       </c>
-      <c r="K15" s="76" t="e">
+      <c r="K15" s="74" t="e">
         <f>"Greater than "&amp;TEXT(H14,"0,00%")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L15" s="77" t="e">
+      <c r="L15" s="75" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M15" s="77" t="e">
+      <c r="M15" s="75" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
@@ -28653,350 +27254,350 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H16" s="78"/>
-      <c r="M16" s="79"/>
+      <c r="H16" s="76"/>
+      <c r="M16" s="77"/>
     </row>
     <row r="17" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D17" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H17" s="137" t="s">
-        <v>147</v>
-      </c>
-      <c r="I17" s="138"/>
-      <c r="M17" s="79"/>
+      <c r="H17" s="126" t="s">
+        <v>119</v>
+      </c>
+      <c r="I17" s="127"/>
+      <c r="M17" s="77"/>
     </row>
     <row r="18" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D18" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H18" s="139"/>
-      <c r="I18" s="140"/>
-      <c r="M18" s="79"/>
+      <c r="H18" s="128"/>
+      <c r="I18" s="129"/>
+      <c r="M18" s="77"/>
     </row>
     <row r="19" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D19" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H19" s="80" t="s">
-        <v>117</v>
-      </c>
-      <c r="I19" s="116" t="e">
+      <c r="H19" s="78" t="s">
+        <v>89</v>
+      </c>
+      <c r="I19" s="114" t="e">
         <f>AVERAGE(D:D)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M19" s="79"/>
+      <c r="M19" s="77"/>
     </row>
     <row r="20" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H20" s="80" t="s">
-        <v>118</v>
-      </c>
-      <c r="I20" s="116" t="e">
+      <c r="H20" s="78" t="s">
+        <v>90</v>
+      </c>
+      <c r="I20" s="114" t="e">
         <f>_xlfn.STDEV.S(D:D)/SQRT(COUNT(D:D))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M20" s="79"/>
+      <c r="M20" s="77"/>
     </row>
     <row r="21" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D21" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H21" s="80" t="s">
-        <v>119</v>
-      </c>
-      <c r="I21" s="116" t="e">
+      <c r="H21" s="78" t="s">
+        <v>91</v>
+      </c>
+      <c r="I21" s="114" t="e">
         <f>MEDIAN(D:D)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M21" s="79"/>
+      <c r="M21" s="77"/>
     </row>
     <row r="22" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D22" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H22" s="80" t="s">
-        <v>120</v>
-      </c>
-      <c r="I22" s="116" t="e">
+      <c r="H22" s="78" t="s">
+        <v>92</v>
+      </c>
+      <c r="I22" s="114" t="e">
         <f>MODE(D:D)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M22" s="79"/>
+      <c r="M22" s="77"/>
     </row>
     <row r="23" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D23" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H23" s="80" t="s">
-        <v>121</v>
-      </c>
-      <c r="I23" s="116" t="e">
+      <c r="H23" s="78" t="s">
+        <v>93</v>
+      </c>
+      <c r="I23" s="114" t="e">
         <f>_xlfn.STDEV.S(D:D)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M23" s="79"/>
+      <c r="M23" s="77"/>
     </row>
     <row r="24" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D24" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H24" s="80" t="s">
-        <v>122</v>
-      </c>
-      <c r="I24" s="116" t="e">
+      <c r="H24" s="78" t="s">
+        <v>94</v>
+      </c>
+      <c r="I24" s="114" t="e">
         <f>_xlfn.VAR.S(D:D)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M24" s="79"/>
+      <c r="M24" s="77"/>
     </row>
     <row r="25" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D25" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H25" s="80" t="s">
-        <v>123</v>
-      </c>
-      <c r="I25" s="117" t="e">
+      <c r="H25" s="78" t="s">
+        <v>95</v>
+      </c>
+      <c r="I25" s="115" t="e">
         <f>KURT(D:D)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M25" s="79"/>
+      <c r="M25" s="77"/>
     </row>
     <row r="26" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D26" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H26" s="80" t="s">
-        <v>124</v>
-      </c>
-      <c r="I26" s="117" t="e">
+      <c r="H26" s="78" t="s">
+        <v>96</v>
+      </c>
+      <c r="I26" s="115" t="e">
         <f>SKEW(D:D)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M26" s="79"/>
+      <c r="M26" s="77"/>
     </row>
     <row r="27" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D27" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H27" s="80" t="s">
-        <v>113</v>
-      </c>
-      <c r="I27" s="116" t="e">
+      <c r="H27" s="78" t="s">
+        <v>85</v>
+      </c>
+      <c r="I27" s="114" t="e">
         <f>I29-I28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M27" s="79"/>
+      <c r="M27" s="77"/>
     </row>
     <row r="28" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D28" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H28" s="80" t="s">
-        <v>125</v>
-      </c>
-      <c r="I28" s="116" t="e">
+      <c r="H28" s="78" t="s">
+        <v>97</v>
+      </c>
+      <c r="I28" s="114" t="e">
         <f>MIN(D:D)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M28" s="79"/>
+      <c r="M28" s="77"/>
     </row>
     <row r="29" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D29" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H29" s="80" t="s">
-        <v>126</v>
-      </c>
-      <c r="I29" s="116" t="e">
+      <c r="H29" s="78" t="s">
+        <v>98</v>
+      </c>
+      <c r="I29" s="114" t="e">
         <f>MAX(D:D)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M29" s="79"/>
+      <c r="M29" s="77"/>
     </row>
     <row r="30" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D30" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H30" s="80" t="s">
-        <v>127</v>
-      </c>
-      <c r="I30" s="117" t="e">
+      <c r="H30" s="78" t="s">
+        <v>99</v>
+      </c>
+      <c r="I30" s="115" t="e">
         <f>SUM(D:D)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M30" s="79"/>
+      <c r="M30" s="77"/>
     </row>
     <row r="31" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D31" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H31" s="81" t="s">
-        <v>128</v>
-      </c>
-      <c r="I31" s="58">
+      <c r="H31" s="79" t="s">
+        <v>100</v>
+      </c>
+      <c r="I31" s="56">
         <f>COUNT(D:D)</f>
         <v>0</v>
       </c>
-      <c r="M31" s="79"/>
+      <c r="M31" s="77"/>
     </row>
     <row r="32" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D32" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H32" s="83"/>
-      <c r="M32" s="79"/>
+      <c r="H32" s="81"/>
+      <c r="M32" s="77"/>
     </row>
     <row r="33" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D33" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H33" s="84"/>
-      <c r="I33" s="85" t="s">
-        <v>129</v>
-      </c>
-      <c r="J33" s="85" t="s">
-        <v>128</v>
-      </c>
-      <c r="K33" s="85" t="s">
-        <v>130</v>
-      </c>
-      <c r="L33" s="86" t="s">
-        <v>131</v>
-      </c>
-      <c r="M33" s="79"/>
+      <c r="H33" s="82"/>
+      <c r="I33" s="83" t="s">
+        <v>101</v>
+      </c>
+      <c r="J33" s="83" t="s">
+        <v>100</v>
+      </c>
+      <c r="K33" s="83" t="s">
+        <v>102</v>
+      </c>
+      <c r="L33" s="84" t="s">
+        <v>103</v>
+      </c>
+      <c r="M33" s="77"/>
     </row>
     <row r="34" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D34" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H34" s="87" t="s">
-        <v>132</v>
-      </c>
-      <c r="I34" s="73" t="e">
+      <c r="H34" s="85" t="s">
+        <v>104</v>
+      </c>
+      <c r="I34" s="71" t="e">
         <f>AVERAGEIF(D:D,"&gt;0")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J34" s="71">
+      <c r="J34" s="69">
         <f>COUNTIF(D:D,"&gt;0")</f>
         <v>0</v>
       </c>
-      <c r="K34" s="73" t="e">
+      <c r="K34" s="71" t="e">
         <f>J34/$I$31</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L34" s="74" t="e">
+      <c r="L34" s="72" t="e">
         <f>K34*I34</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M34" s="79"/>
+      <c r="M34" s="77"/>
     </row>
     <row r="35" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D35" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H35" s="87" t="s">
-        <v>133</v>
-      </c>
-      <c r="I35" s="73" t="e">
+      <c r="H35" s="85" t="s">
+        <v>105</v>
+      </c>
+      <c r="I35" s="71" t="e">
         <f>AVERAGEIF(D:D,"&lt;0")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J35" s="71">
+      <c r="J35" s="69">
         <f>COUNTIF(D:D,"&lt;0")</f>
         <v>0</v>
       </c>
-      <c r="K35" s="73" t="e">
+      <c r="K35" s="71" t="e">
         <f>J35/$I$31</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L35" s="74" t="e">
+      <c r="L35" s="72" t="e">
         <f t="shared" ref="L35:L36" si="6">K35*I35</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M35" s="79"/>
+      <c r="M35" s="77"/>
     </row>
     <row r="36" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D36" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H36" s="88" t="s">
-        <v>134</v>
-      </c>
-      <c r="I36" s="76">
+      <c r="H36" s="86" t="s">
+        <v>106</v>
+      </c>
+      <c r="I36" s="74">
         <v>0</v>
       </c>
-      <c r="J36" s="76">
+      <c r="J36" s="74">
         <f>COUNTIF(D:D,"0")</f>
         <v>0</v>
       </c>
-      <c r="K36" s="89" t="e">
+      <c r="K36" s="87" t="e">
         <f>J36/$I$31</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L36" s="77" t="e">
+      <c r="L36" s="75" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M36" s="79"/>
+      <c r="M36" s="77"/>
     </row>
     <row r="37" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D37" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H37" s="83"/>
-      <c r="I37" s="90"/>
-      <c r="J37" s="90"/>
-      <c r="K37" s="90"/>
-      <c r="L37" s="90"/>
-      <c r="M37" s="79"/>
+      <c r="H37" s="81"/>
+      <c r="I37" s="88"/>
+      <c r="J37" s="88"/>
+      <c r="K37" s="88"/>
+      <c r="L37" s="88"/>
+      <c r="M37" s="77"/>
     </row>
     <row r="38" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D38" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H38" s="64" t="s">
-        <v>135</v>
-      </c>
-      <c r="I38" s="85" t="s">
-        <v>136</v>
-      </c>
-      <c r="J38" s="85" t="s">
-        <v>137</v>
-      </c>
-      <c r="K38" s="85" t="s">
-        <v>138</v>
-      </c>
-      <c r="L38" s="85" t="s">
-        <v>139</v>
-      </c>
-      <c r="M38" s="86" t="s">
-        <v>140</v>
+      <c r="H38" s="62" t="s">
+        <v>107</v>
+      </c>
+      <c r="I38" s="83" t="s">
+        <v>108</v>
+      </c>
+      <c r="J38" s="83" t="s">
+        <v>109</v>
+      </c>
+      <c r="K38" s="83" t="s">
+        <v>110</v>
+      </c>
+      <c r="L38" s="83" t="s">
+        <v>111</v>
+      </c>
+      <c r="M38" s="84" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="39" spans="4:13" x14ac:dyDescent="0.25">
@@ -29004,26 +27605,26 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H39" s="91">
+      <c r="H39" s="89">
         <v>1</v>
       </c>
-      <c r="I39" s="73" t="e">
+      <c r="I39" s="71" t="e">
         <f>$I$19+($H39*$I$23)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J39" s="73" t="e">
+      <c r="J39" s="71" t="e">
         <f>$I$19-($H39*$I$23)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K39" s="71">
+      <c r="K39" s="69">
         <f>COUNTIFS(D:D,"&lt;"&amp;I39,D:D,"&gt;"&amp;J39)</f>
         <v>67</v>
       </c>
-      <c r="L39" s="73" t="e">
+      <c r="L39" s="71" t="e">
         <f>K39/$I$31</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M39" s="74">
+      <c r="M39" s="72">
         <v>0.68269999999999997</v>
       </c>
     </row>
@@ -29032,26 +27633,26 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H40" s="91">
+      <c r="H40" s="89">
         <v>2</v>
       </c>
-      <c r="I40" s="73" t="e">
+      <c r="I40" s="71" t="e">
         <f>$I$19+($H40*$I$23)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J40" s="73" t="e">
+      <c r="J40" s="71" t="e">
         <f>$I$19-($H40*$I$23)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K40" s="71">
+      <c r="K40" s="69">
         <f>COUNTIFS(D:D,"&lt;"&amp;I40,D:D,"&gt;"&amp;J40)</f>
         <v>67</v>
       </c>
-      <c r="L40" s="73" t="e">
+      <c r="L40" s="71" t="e">
         <f>K40/$I$31</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M40" s="74">
+      <c r="M40" s="72">
         <v>0.95450000000000002</v>
       </c>
     </row>
@@ -29060,26 +27661,26 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H41" s="91">
+      <c r="H41" s="89">
         <v>3</v>
       </c>
-      <c r="I41" s="73" t="e">
+      <c r="I41" s="71" t="e">
         <f>$I$19+($H41*$I$23)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J41" s="73" t="e">
+      <c r="J41" s="71" t="e">
         <f>$I$19-($H41*$I$23)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K41" s="71">
+      <c r="K41" s="69">
         <f>COUNTIFS(D:D,"&lt;"&amp;I41,D:D,"&gt;"&amp;J41)</f>
         <v>67</v>
       </c>
-      <c r="L41" s="73" t="e">
+      <c r="L41" s="71" t="e">
         <f>K41/$I$31</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M41" s="92">
+      <c r="M41" s="90">
         <v>0.99729999999999996</v>
       </c>
     </row>
@@ -29088,46 +27689,46 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H42" s="69"/>
-      <c r="M42" s="92"/>
+      <c r="H42" s="67"/>
+      <c r="M42" s="90"/>
     </row>
     <row r="43" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D43" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H43" s="141" t="s">
-        <v>141</v>
-      </c>
-      <c r="I43" s="142"/>
-      <c r="J43" s="142"/>
-      <c r="K43" s="142"/>
-      <c r="L43" s="142"/>
-      <c r="M43" s="143"/>
+      <c r="H43" s="130" t="s">
+        <v>113</v>
+      </c>
+      <c r="I43" s="131"/>
+      <c r="J43" s="131"/>
+      <c r="K43" s="131"/>
+      <c r="L43" s="131"/>
+      <c r="M43" s="132"/>
     </row>
     <row r="44" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D44" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H44" s="93">
+      <c r="H44" s="91">
         <v>0.01</v>
       </c>
-      <c r="I44" s="94" t="e">
+      <c r="I44" s="92" t="e">
         <f t="shared" ref="I44:I58" si="7">_xlfn.PERCENTILE.INC(D:D,H44)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J44" s="95">
+      <c r="J44" s="93">
         <v>0.2</v>
       </c>
-      <c r="K44" s="94" t="e">
+      <c r="K44" s="92" t="e">
         <f t="shared" ref="K44:K56" si="8">_xlfn.PERCENTILE.INC(D:D,J44)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L44" s="95">
+      <c r="L44" s="93">
         <v>0.85</v>
       </c>
-      <c r="M44" s="96" t="e">
+      <c r="M44" s="94" t="e">
         <f t="shared" ref="M44:M58" si="9">_xlfn.PERCENTILE.INC(D:D,L44)</f>
         <v>#DIV/0!</v>
       </c>
@@ -29137,24 +27738,24 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H45" s="97">
+      <c r="H45" s="95">
         <v>0.02</v>
       </c>
-      <c r="I45" s="98" t="e">
+      <c r="I45" s="96" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J45" s="99">
+      <c r="J45" s="97">
         <v>0.25</v>
       </c>
-      <c r="K45" s="98" t="e">
+      <c r="K45" s="96" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L45" s="99">
+      <c r="L45" s="97">
         <v>0.86</v>
       </c>
-      <c r="M45" s="100" t="e">
+      <c r="M45" s="98" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
@@ -29164,24 +27765,24 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H46" s="97">
+      <c r="H46" s="95">
         <v>0.03</v>
       </c>
-      <c r="I46" s="98" t="e">
+      <c r="I46" s="96" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J46" s="99">
+      <c r="J46" s="97">
         <v>0.3</v>
       </c>
-      <c r="K46" s="98" t="e">
+      <c r="K46" s="96" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L46" s="99">
+      <c r="L46" s="97">
         <v>0.87</v>
       </c>
-      <c r="M46" s="100" t="e">
+      <c r="M46" s="98" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
@@ -29191,24 +27792,24 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H47" s="97">
+      <c r="H47" s="95">
         <v>0.04</v>
       </c>
-      <c r="I47" s="98" t="e">
+      <c r="I47" s="96" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J47" s="99">
+      <c r="J47" s="97">
         <v>0.35</v>
       </c>
-      <c r="K47" s="98" t="e">
+      <c r="K47" s="96" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L47" s="99">
+      <c r="L47" s="97">
         <v>0.88</v>
       </c>
-      <c r="M47" s="100" t="e">
+      <c r="M47" s="98" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
@@ -29218,24 +27819,24 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H48" s="97">
+      <c r="H48" s="95">
         <v>0.05</v>
       </c>
-      <c r="I48" s="98" t="e">
+      <c r="I48" s="96" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J48" s="99">
+      <c r="J48" s="97">
         <v>0.4</v>
       </c>
-      <c r="K48" s="98" t="e">
+      <c r="K48" s="96" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L48" s="99">
+      <c r="L48" s="97">
         <v>0.89</v>
       </c>
-      <c r="M48" s="100" t="e">
+      <c r="M48" s="98" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
@@ -29245,24 +27846,24 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H49" s="97">
+      <c r="H49" s="95">
         <v>0.06</v>
       </c>
-      <c r="I49" s="98" t="e">
+      <c r="I49" s="96" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J49" s="99">
+      <c r="J49" s="97">
         <v>0.45</v>
       </c>
-      <c r="K49" s="98" t="e">
+      <c r="K49" s="96" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L49" s="99">
+      <c r="L49" s="97">
         <v>0.9</v>
       </c>
-      <c r="M49" s="100" t="e">
+      <c r="M49" s="98" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
@@ -29272,24 +27873,24 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H50" s="97">
+      <c r="H50" s="95">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="I50" s="98" t="e">
+      <c r="I50" s="96" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J50" s="99">
+      <c r="J50" s="97">
         <v>0.5</v>
       </c>
-      <c r="K50" s="98" t="e">
+      <c r="K50" s="96" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L50" s="99">
+      <c r="L50" s="97">
         <v>0.91</v>
       </c>
-      <c r="M50" s="100" t="e">
+      <c r="M50" s="98" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
@@ -29299,24 +27900,24 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H51" s="97">
+      <c r="H51" s="95">
         <v>0.08</v>
       </c>
-      <c r="I51" s="98" t="e">
+      <c r="I51" s="96" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J51" s="99">
+      <c r="J51" s="97">
         <v>0.55000000000000004</v>
       </c>
-      <c r="K51" s="98" t="e">
+      <c r="K51" s="96" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L51" s="99">
+      <c r="L51" s="97">
         <v>0.92</v>
       </c>
-      <c r="M51" s="100" t="e">
+      <c r="M51" s="98" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
@@ -29326,24 +27927,24 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H52" s="97">
+      <c r="H52" s="95">
         <v>0.09</v>
       </c>
-      <c r="I52" s="98" t="e">
+      <c r="I52" s="96" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J52" s="99">
+      <c r="J52" s="97">
         <v>0.6</v>
       </c>
-      <c r="K52" s="98" t="e">
+      <c r="K52" s="96" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L52" s="99">
+      <c r="L52" s="97">
         <v>0.93</v>
       </c>
-      <c r="M52" s="100" t="e">
+      <c r="M52" s="98" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
@@ -29353,24 +27954,24 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H53" s="97">
+      <c r="H53" s="95">
         <v>0.1</v>
       </c>
-      <c r="I53" s="98" t="e">
+      <c r="I53" s="96" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J53" s="99">
+      <c r="J53" s="97">
         <v>0.65</v>
       </c>
-      <c r="K53" s="98" t="e">
+      <c r="K53" s="96" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L53" s="99">
+      <c r="L53" s="97">
         <v>0.94</v>
       </c>
-      <c r="M53" s="100" t="e">
+      <c r="M53" s="98" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
@@ -29380,24 +27981,24 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H54" s="97">
+      <c r="H54" s="95">
         <v>0.11</v>
       </c>
-      <c r="I54" s="98" t="e">
+      <c r="I54" s="96" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J54" s="99">
+      <c r="J54" s="97">
         <v>0.7</v>
       </c>
-      <c r="K54" s="98" t="e">
+      <c r="K54" s="96" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L54" s="99">
+      <c r="L54" s="97">
         <v>0.95</v>
       </c>
-      <c r="M54" s="100" t="e">
+      <c r="M54" s="98" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
@@ -29407,24 +28008,24 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H55" s="97">
+      <c r="H55" s="95">
         <v>0.12</v>
       </c>
-      <c r="I55" s="98" t="e">
+      <c r="I55" s="96" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J55" s="99">
+      <c r="J55" s="97">
         <v>0.75</v>
       </c>
-      <c r="K55" s="98" t="e">
+      <c r="K55" s="96" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L55" s="99">
+      <c r="L55" s="97">
         <v>0.96</v>
       </c>
-      <c r="M55" s="100" t="e">
+      <c r="M55" s="98" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
@@ -29434,24 +28035,24 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H56" s="97">
+      <c r="H56" s="95">
         <v>0.13</v>
       </c>
-      <c r="I56" s="98" t="e">
+      <c r="I56" s="96" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J56" s="99">
+      <c r="J56" s="97">
         <v>0.8</v>
       </c>
-      <c r="K56" s="98" t="e">
+      <c r="K56" s="96" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L56" s="99">
+      <c r="L56" s="97">
         <v>0.97</v>
       </c>
-      <c r="M56" s="100" t="e">
+      <c r="M56" s="98" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
@@ -29461,19 +28062,19 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H57" s="97">
+      <c r="H57" s="95">
         <v>0.14000000000000001</v>
       </c>
-      <c r="I57" s="98" t="e">
+      <c r="I57" s="96" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J57" s="99"/>
-      <c r="K57" s="98"/>
-      <c r="L57" s="99">
+      <c r="J57" s="97"/>
+      <c r="K57" s="96"/>
+      <c r="L57" s="97">
         <v>0.98</v>
       </c>
-      <c r="M57" s="100" t="e">
+      <c r="M57" s="98" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
@@ -29483,19 +28084,19 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H58" s="101">
+      <c r="H58" s="99">
         <v>0.15</v>
       </c>
-      <c r="I58" s="102" t="e">
+      <c r="I58" s="100" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J58" s="103"/>
-      <c r="K58" s="82"/>
-      <c r="L58" s="104">
+      <c r="J58" s="101"/>
+      <c r="K58" s="80"/>
+      <c r="L58" s="102">
         <v>0.99</v>
       </c>
-      <c r="M58" s="105" t="e">
+      <c r="M58" s="103" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
@@ -29511,47 +28112,47 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H60" s="106" t="s">
-        <v>142</v>
-      </c>
-      <c r="I60" s="107"/>
+      <c r="H60" s="104" t="s">
+        <v>114</v>
+      </c>
+      <c r="I60" s="105"/>
     </row>
     <row r="61" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D61" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H61" s="108" t="s">
-        <v>143</v>
-      </c>
-      <c r="I61" s="109"/>
+      <c r="H61" s="106" t="s">
+        <v>115</v>
+      </c>
+      <c r="I61" s="107"/>
     </row>
     <row r="62" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D62" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H62" s="110"/>
+      <c r="H62" s="108"/>
     </row>
     <row r="63" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D63" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H63" s="106" t="s">
-        <v>144</v>
-      </c>
-      <c r="I63" s="111"/>
+      <c r="H63" s="104" t="s">
+        <v>116</v>
+      </c>
+      <c r="I63" s="109"/>
     </row>
     <row r="64" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D64" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H64" s="112" t="s">
-        <v>145</v>
-      </c>
-      <c r="I64" s="113">
+      <c r="H64" s="110" t="s">
+        <v>117</v>
+      </c>
+      <c r="I64" s="111">
         <f>I63*(1-I60)</f>
         <v>0</v>
       </c>
@@ -29561,10 +28162,10 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H65" s="108" t="s">
-        <v>146</v>
-      </c>
-      <c r="I65" s="114">
+      <c r="H65" s="106" t="s">
+        <v>118</v>
+      </c>
+      <c r="I65" s="112">
         <f>I63*(1+I61)</f>
         <v>0</v>
       </c>

--- a/Business - Technology Services/NBIS.xlsx
+++ b/Business - Technology Services/NBIS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Documents\models\Business - Technology Services\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D104CB63-95EE-4334-BB8D-738B0DE800C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CDE5261-2C03-433A-A0AB-ED1DBB6C1CF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14805" yWindow="45" windowWidth="13995" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-60" yWindow="45" windowWidth="15120" windowHeight="15345" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -22,16 +22,16 @@
     <sheet name="DoR" sheetId="5" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Model!$B$24</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Model!$B$25</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Model!$K$24:$P$24</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Model!$K$25:$P$25</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Model!$B$25</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Model!$B$26</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Model!$K$25:$P$25</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Model!$K$26:$P$26</definedName>
     <definedName name="_xlchart.v1.4" hidden="1">Model!$K$2:$P$2</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Model!$B$6</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Model!$B$7</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Model!$B$7</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Model!$B$8</definedName>
     <definedName name="_xlchart.v1.7" hidden="1">Model!$K$2:$P$2</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Model!$K$6:$P$6</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Model!$K$7:$P$7</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Model!$K$7:$P$7</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Model!$K$8:$P$8</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -318,8 +318,26 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={385F5228-6293-419F-9618-A5E2E750BE4D}</author>
+  </authors>
+  <commentList>
+    <comment ref="Q24" authorId="0" shapeId="0" xr:uid="{385F5228-6293-419F-9618-A5E2E750BE4D}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Press Release IR Website</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="198">
   <si>
     <t>Price</t>
   </si>
@@ -681,15 +699,6 @@
     <t>Descriptive Statistics</t>
   </si>
   <si>
-    <t>Prod1</t>
-  </si>
-  <si>
-    <t>Prod2</t>
-  </si>
-  <si>
-    <t>Prod3</t>
-  </si>
-  <si>
     <t>COGS Prod1</t>
   </si>
   <si>
@@ -885,6 +894,48 @@
   </si>
   <si>
     <t>Chief Business Office</t>
+  </si>
+  <si>
+    <t>Nebius</t>
+  </si>
+  <si>
+    <t>Avride</t>
+  </si>
+  <si>
+    <t>Eliminations</t>
+  </si>
+  <si>
+    <t>TripleTen</t>
+  </si>
+  <si>
+    <t>Nebius: AI cloud Platform</t>
+  </si>
+  <si>
+    <t>Avride: autonomous driving technology</t>
+  </si>
+  <si>
+    <t>TripleTen: a leading edtech player in the US, re-skilling people for careers in tech</t>
+  </si>
+  <si>
+    <t>Debt</t>
+  </si>
+  <si>
+    <t>Paul Tudor Jones</t>
+  </si>
+  <si>
+    <t>Orbis Allan Gray Ltd</t>
+  </si>
+  <si>
+    <t>Fred Alger Management</t>
+  </si>
+  <si>
+    <t>Jericho Capital Asset Management</t>
+  </si>
+  <si>
+    <t>Accel Leaders 4 Associates L.P.</t>
+  </si>
+  <si>
+    <t>Altshuler Shaman Ltd</t>
   </si>
 </sst>
 </file>
@@ -1634,7 +1685,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="146">
+  <cellXfs count="142">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1784,6 +1835,13 @@
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1818,18 +1876,9 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3870,7 +3919,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Model!$B$6</c:f>
+              <c:f>Model!$B$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3902,6 +3951,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-774F-42CD-9DBF-F154A2ECCF92}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -3918,6 +3972,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-774F-42CD-9DBF-F154A2ECCF92}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -4002,7 +4061,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$K$6:$P$6</c:f>
+              <c:f>Model!$K$7:$P$7</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="6"/>
@@ -4013,7 +4072,7 @@
                   <c:v>14.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>32.1</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>37.9</c:v>
@@ -4054,7 +4113,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Model!$B$28</c:f>
+              <c:f>Model!$B$29</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4131,7 +4190,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Model!$K$28:$P$28</c:f>
+              <c:f>Model!$K$29:$P$29</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="6"/>
@@ -4483,7 +4542,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Model!$B$6</c:f>
+              <c:f>Model!$B$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4515,6 +4574,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-D216-4F77-B63C-1D86057DBAF3}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -4531,6 +4595,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-D216-4F77-B63C-1D86057DBAF3}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -4609,7 +4678,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$C$6:$G$6</c:f>
+              <c:f>Model!$C$7:$G$7</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="5"/>
@@ -4657,7 +4726,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Model!$B$28</c:f>
+              <c:f>Model!$B$29</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4744,7 +4813,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Model!$C$28:$G$28</c:f>
+              <c:f>Model!$C$29:$G$29</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="5"/>
@@ -5105,7 +5174,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Model!$B$24</c:f>
+              <c:f>Model!$B$25</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5207,7 +5276,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$K$24:$P$24</c:f>
+              <c:f>Model!$K$25:$P$25</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
@@ -5259,7 +5328,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Model!$B$33</c:f>
+              <c:f>Model!$B$34</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5336,7 +5405,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Model!$K$33:$P$33</c:f>
+              <c:f>Model!$K$34:$P$34</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="6"/>
@@ -5688,7 +5757,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Model!$B$24</c:f>
+              <c:f>Model!$B$25</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5785,7 +5854,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$C$24:$G$24</c:f>
+              <c:f>Model!$C$25:$G$25</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
@@ -5834,7 +5903,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Model!$B$33</c:f>
+              <c:f>Model!$B$34</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5909,7 +5978,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Model!$C$33:$G$33</c:f>
+              <c:f>Model!$C$34:$G$34</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="5"/>
@@ -6285,7 +6354,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Model!$B$29</c:f>
+              <c:f>Model!$B$30</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6404,7 +6473,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$K$29:$P$29</c:f>
+              <c:f>Model!$K$30:$P$30</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="6"/>
@@ -6415,7 +6484,7 @@
                   <c:v>2.2068965517241379</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.97819314641744537</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.93403693931398413</c:v>
@@ -6441,7 +6510,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Model!$B$30</c:f>
+              <c:f>Model!$B$31</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6560,7 +6629,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$K$30:$P$30</c:f>
+              <c:f>Model!$K$31:$P$31</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="6"/>
@@ -6571,7 +6640,7 @@
                   <c:v>5.2137931034482756</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1.4922118380062304</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>2.3746701846965701</c:v>
@@ -6886,7 +6955,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Model!$B$29</c:f>
+              <c:f>Model!$B$30</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7002,7 +7071,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$C$29:$G$29</c:f>
+              <c:f>Model!$C$30:$G$30</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="5"/>
@@ -7036,7 +7105,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Model!$B$30</c:f>
+              <c:f>Model!$B$31</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7152,7 +7221,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$C$30:$F$30</c:f>
+              <c:f>Model!$C$31:$F$31</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="4"/>
@@ -15090,6 +15159,12 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Simon Burghardt" id="{EE8F5543-BAB6-482B-ACD5-FD99FAF4743A}" userId="89957cfae585bdc7" providerId="Windows Live"/>
+</personList>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -15351,12 +15426,20 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="Q24" dT="2025-12-09T23:44:54.68" personId="{EE8F5543-BAB6-482B-ACD5-FD99FAF4743A}" id="{385F5228-6293-419F-9618-A5E2E750BE4D}">
+    <text>Press Release IR Website</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:N43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15411,15 +15494,19 @@
       <c r="C3" s="20">
         <v>45967</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="28"/>
+      <c r="E3" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="F3" s="141">
+        <v>9.6299999999999997E-2</v>
+      </c>
       <c r="I3" s="10"/>
       <c r="J3" s="38"/>
       <c r="L3" s="5" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="M3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="N3" s="37"/>
     </row>
@@ -15428,30 +15515,38 @@
       <c r="C4" s="21">
         <v>0.81111111111111112</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="28"/>
+      <c r="E4" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="F4" s="141">
+        <v>5.8700000000000002E-2</v>
+      </c>
       <c r="I4" s="10"/>
       <c r="J4" s="38"/>
       <c r="L4" s="5" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="M4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="N4" s="13"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5" s="5"/>
       <c r="C5" s="13"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="28"/>
+      <c r="E5" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="F5" s="28">
+        <v>4.6399999999999997</v>
+      </c>
       <c r="I5" s="10"/>
       <c r="J5" s="38"/>
       <c r="L5" s="5" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="M5" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="N5" s="13"/>
     </row>
@@ -15460,17 +15555,21 @@
         <v>0</v>
       </c>
       <c r="C6" s="16">
-        <v>110.69</v>
-      </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="28"/>
+        <v>96.41</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="F6" s="28">
+        <v>2.11</v>
+      </c>
       <c r="I6" s="10"/>
       <c r="J6" s="38"/>
       <c r="L6" s="5" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="M6" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="N6" s="13"/>
     </row>
@@ -15479,18 +15578,22 @@
         <v>1</v>
       </c>
       <c r="C7" s="15">
-        <f>Model!P23</f>
+        <f>Model!P24</f>
         <v>238.70509200000001</v>
       </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="28"/>
+      <c r="E7" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="F7" s="28">
+        <v>2.1</v>
+      </c>
       <c r="I7" s="10"/>
       <c r="J7" s="38"/>
       <c r="L7" s="5" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="M7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="N7" s="13"/>
     </row>
@@ -15500,17 +15603,21 @@
       </c>
       <c r="C8" s="15">
         <f>C6*C7</f>
-        <v>26422.266633480001</v>
-      </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="28"/>
+        <v>23013.557919719999</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="F8" s="28">
+        <v>1.92</v>
+      </c>
       <c r="I8" s="10"/>
       <c r="J8" s="38"/>
       <c r="L8" s="5" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="M8" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="N8" s="13"/>
     </row>
@@ -15519,7 +15626,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="15">
-        <f>Model!P39</f>
+        <f>Model!P40</f>
         <v>1679.3</v>
       </c>
       <c r="E9" s="5"/>
@@ -15527,10 +15634,10 @@
       <c r="I9" s="10"/>
       <c r="J9" s="38"/>
       <c r="L9" s="5" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="M9" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="N9" s="13"/>
     </row>
@@ -15539,7 +15646,7 @@
         <v>4</v>
       </c>
       <c r="C10" s="15">
-        <f>Model!P55</f>
+        <f>Model!P56</f>
         <v>8</v>
       </c>
       <c r="E10" s="5"/>
@@ -15547,10 +15654,10 @@
       <c r="I10" s="10"/>
       <c r="J10" s="38"/>
       <c r="L10" s="5" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="M10" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="N10" s="13"/>
     </row>
@@ -15567,10 +15674,10 @@
       <c r="I11" s="10"/>
       <c r="J11" s="38"/>
       <c r="L11" s="5" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="M11" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="N11" s="13"/>
     </row>
@@ -15580,16 +15687,16 @@
       </c>
       <c r="C12" s="15">
         <f>C8-C9+C10</f>
-        <v>24750.966633480002</v>
+        <v>21342.257919719999</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="28"/>
       <c r="J12" s="13"/>
       <c r="L12" s="5" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="M12" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="N12" s="13"/>
     </row>
@@ -15598,8 +15705,8 @@
         <v>33</v>
       </c>
       <c r="C13" s="36">
-        <f>C6/Model!E24</f>
-        <v>-40.483347787775358</v>
+        <f>C6/Model!E25</f>
+        <v>-35.260633844244488</v>
       </c>
       <c r="E13" s="5"/>
       <c r="J13" s="13"/>
@@ -15611,8 +15718,8 @@
         <v>31</v>
       </c>
       <c r="C14" s="36">
-        <f>Main!C6/Model!F25</f>
-        <v>112.94897959183673</v>
+        <f>Main!C6/Model!F26</f>
+        <v>98.377551020408163</v>
       </c>
       <c r="E14" s="22"/>
       <c r="F14" s="29"/>
@@ -15629,8 +15736,8 @@
         <v>32</v>
       </c>
       <c r="C15" s="36">
-        <f>C6/Model!G25</f>
-        <v>-76.337931034482764</v>
+        <f>C6/Model!G26</f>
+        <v>-66.489655172413791</v>
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
@@ -15646,17 +15753,17 @@
         <v>30</v>
       </c>
       <c r="C17" s="6">
-        <f>Model!G25/Model!F25-1</f>
+        <f>Model!G26/Model!F26-1</f>
         <v>-2.4795918367346941</v>
       </c>
       <c r="E17" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="L17" s="144" t="s">
-        <v>166</v>
-      </c>
-      <c r="M17" s="144"/>
-      <c r="N17" s="144"/>
+      <c r="L17" s="124" t="s">
+        <v>163</v>
+      </c>
+      <c r="M17" s="124"/>
+      <c r="N17" s="124"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
@@ -15664,14 +15771,14 @@
       </c>
       <c r="C18" s="46">
         <f>C14/(C16*100)</f>
-        <v>1.1294897959183674</v>
+        <v>0.9837755102040816</v>
       </c>
       <c r="E18" t="s">
-        <v>165</v>
-      </c>
-      <c r="L18" s="145"/>
-      <c r="M18" s="145"/>
-      <c r="N18" s="145"/>
+        <v>162</v>
+      </c>
+      <c r="L18" s="125"/>
+      <c r="M18" s="125"/>
+      <c r="N18" s="125"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
@@ -15679,164 +15786,173 @@
       </c>
       <c r="C19" s="46">
         <f>C15/(C17*100)</f>
-        <v>0.30786490705264652</v>
-      </c>
-      <c r="L19" s="145"/>
-      <c r="M19" s="145"/>
-      <c r="N19" s="145"/>
+        <v>0.2681475805307223</v>
+      </c>
+      <c r="L19" s="125"/>
+      <c r="M19" s="125"/>
+      <c r="N19" s="125"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
         <v>68</v>
       </c>
       <c r="C20" s="6">
-        <f>Model!F6/Model!E6-1</f>
+        <f>Model!F7/Model!E7-1</f>
         <v>3.9205106382978725</v>
       </c>
-      <c r="L20" s="145"/>
-      <c r="M20" s="145"/>
-      <c r="N20" s="145"/>
+      <c r="L20" s="125"/>
+      <c r="M20" s="125"/>
+      <c r="N20" s="125"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
         <v>69</v>
       </c>
       <c r="C21" s="6">
-        <f>Model!G6/Model!F6-1</f>
+        <f>Model!G7/Model!F7-1</f>
         <v>1.9057700290577007</v>
       </c>
-      <c r="L21" s="145"/>
-      <c r="M21" s="145"/>
-      <c r="N21" s="145"/>
+      <c r="L21" s="125"/>
+      <c r="M21" s="125"/>
+      <c r="N21" s="125"/>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
         <v>57</v>
       </c>
       <c r="C22" s="15">
-        <f>Model!C12+Model!C10</f>
+        <f>Model!C13+Model!C11</f>
         <v>0</v>
       </c>
-      <c r="L22" s="145"/>
-      <c r="M22" s="145"/>
-      <c r="N22" s="145"/>
+      <c r="L22" s="125"/>
+      <c r="M22" s="125"/>
+      <c r="N22" s="125"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C23" s="15">
-        <f>Model!C12</f>
+        <f>Model!C13</f>
         <v>0</v>
       </c>
-      <c r="L23" s="145"/>
-      <c r="M23" s="145"/>
-      <c r="N23" s="145"/>
+      <c r="L23" s="125"/>
+      <c r="M23" s="125"/>
+      <c r="N23" s="125"/>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C24" s="7">
-        <f>Model!C16</f>
+        <f>Model!C17</f>
         <v>0</v>
       </c>
-      <c r="L24" s="145"/>
-      <c r="M24" s="145"/>
-      <c r="N24" s="145"/>
+      <c r="L24" s="125"/>
+      <c r="M24" s="125"/>
+      <c r="N24" s="125"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
         <v>22</v>
       </c>
       <c r="C25" s="7">
-        <f>Model!C17</f>
+        <f>Model!C18</f>
         <v>0</v>
       </c>
-      <c r="L25" s="145"/>
-      <c r="M25" s="145"/>
-      <c r="N25" s="145"/>
+      <c r="L25" s="125"/>
+      <c r="M25" s="125"/>
+      <c r="N25" s="125"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
         <v>58</v>
       </c>
       <c r="C26" s="36"/>
-      <c r="L26" s="145"/>
-      <c r="M26" s="145"/>
-      <c r="N26" s="145"/>
+      <c r="L26" s="125"/>
+      <c r="M26" s="125"/>
+      <c r="N26" s="125"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
         <v>70</v>
       </c>
       <c r="C27" s="113">
-        <f>Model!E55/Model!E62</f>
+        <f>Model!E56/Model!E64</f>
         <v>1.8747887020930019E-3</v>
       </c>
       <c r="E27" t="s">
         <v>59</v>
       </c>
-      <c r="L27" s="145"/>
-      <c r="M27" s="145"/>
-      <c r="N27" s="145"/>
+      <c r="L27" s="125"/>
+      <c r="M27" s="125"/>
+      <c r="N27" s="125"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
         <v>71</v>
       </c>
       <c r="C28" s="36" t="e">
-        <f>C22/-Model!C10</f>
+        <f>C22/-Model!C11</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L28" s="145"/>
-      <c r="M28" s="145"/>
-      <c r="N28" s="145"/>
+      <c r="E28" t="s">
+        <v>188</v>
+      </c>
+      <c r="L28" s="125"/>
+      <c r="M28" s="125"/>
+      <c r="N28" s="125"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
         <v>72</v>
       </c>
       <c r="C29" s="36">
-        <f>Model!E45/Model!E58</f>
+        <f>Model!E46/Model!E59</f>
         <v>9.5958333333333314</v>
       </c>
-      <c r="L29" s="145"/>
-      <c r="M29" s="145"/>
-      <c r="N29" s="145"/>
+      <c r="E29" t="s">
+        <v>189</v>
+      </c>
+      <c r="L29" s="125"/>
+      <c r="M29" s="125"/>
+      <c r="N29" s="125"/>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="5" t="s">
         <v>73</v>
       </c>
       <c r="C30" s="36">
-        <f>(Model!E39+Model!E40)/Model!E58</f>
+        <f>(Model!E40+Model!E41)/Model!E59</f>
         <v>9.3284090909090907</v>
       </c>
-      <c r="L30" s="145"/>
-      <c r="M30" s="145"/>
-      <c r="N30" s="145"/>
+      <c r="E30" t="s">
+        <v>190</v>
+      </c>
+      <c r="L30" s="125"/>
+      <c r="M30" s="125"/>
+      <c r="N30" s="125"/>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="5" t="s">
         <v>74</v>
       </c>
       <c r="C31" s="6">
-        <f>(Model!E45-Model!E58)/Model!E53</f>
+        <f>(Model!E46-Model!E59)/Model!E54</f>
         <v>0.63949163050216984</v>
       </c>
-      <c r="L31" s="145"/>
-      <c r="M31" s="145"/>
-      <c r="N31" s="145"/>
+      <c r="L31" s="125"/>
+      <c r="M31" s="125"/>
+      <c r="N31" s="125"/>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
         <v>75</v>
       </c>
       <c r="C32" s="36"/>
-      <c r="L32" s="145"/>
-      <c r="M32" s="145"/>
-      <c r="N32" s="145"/>
+      <c r="L32" s="125"/>
+      <c r="M32" s="125"/>
+      <c r="N32" s="125"/>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
@@ -15861,6 +15977,9 @@
         <v>79</v>
       </c>
       <c r="C36" s="23"/>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E37" s="10"/>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E41" s="51"/>
@@ -15893,14 +16012,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7345E9-1C5F-45F5-BD7C-66FA029FFFF4}">
-  <dimension ref="A1:T83"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7345E9-1C5F-45F5-BD7C-66FA029FFFF4}">
+  <dimension ref="A1:T85"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="L6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="R20" sqref="R20"/>
+      <selection pane="bottomRight" activeCell="O31" sqref="O31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15908,7 +16027,6 @@
     <col min="1" max="1" width="4.7109375" customWidth="1"/>
     <col min="2" max="2" width="27.28515625" customWidth="1"/>
     <col min="5" max="5" width="11.42578125" style="13"/>
-    <col min="14" max="14" width="11.42578125" style="133"/>
     <col min="17" max="17" width="11.42578125" style="13"/>
   </cols>
   <sheetData>
@@ -15931,7 +16049,7 @@
         <v>54</v>
       </c>
       <c r="G2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="K2" t="s">
         <v>50</v>
@@ -15940,33 +16058,33 @@
         <v>53</v>
       </c>
       <c r="M2" t="s">
-        <v>130</v>
-      </c>
-      <c r="N2" s="133" t="s">
-        <v>131</v>
+        <v>127</v>
+      </c>
+      <c r="N2" t="s">
+        <v>128</v>
       </c>
       <c r="O2" t="s">
+        <v>141</v>
+      </c>
+      <c r="P2" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q2" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="R2" t="s">
         <v>144</v>
       </c>
-      <c r="P2" t="s">
+      <c r="S2" t="s">
         <v>145</v>
       </c>
-      <c r="Q2" s="13" t="s">
+      <c r="T2" t="s">
         <v>146</v>
-      </c>
-      <c r="R2" s="142" t="s">
-        <v>147</v>
-      </c>
-      <c r="S2" s="142" t="s">
-        <v>148</v>
-      </c>
-      <c r="T2" s="142" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B3" s="9" t="s">
-        <v>120</v>
+        <v>184</v>
       </c>
       <c r="E3" s="13">
         <v>117.5</v>
@@ -15977,7 +16095,10 @@
       <c r="L3">
         <v>14.5</v>
       </c>
-      <c r="N3" s="133">
+      <c r="M3">
+        <v>27.1</v>
+      </c>
+      <c r="N3">
         <v>37.9</v>
       </c>
       <c r="O3">
@@ -15986,157 +16107,177 @@
       <c r="P3">
         <v>105.1</v>
       </c>
+      <c r="Q3" s="13">
+        <v>131.1</v>
+      </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B4" s="9" t="s">
-        <v>121</v>
+        <v>185</v>
+      </c>
+      <c r="M4">
+        <v>0.1</v>
+      </c>
+      <c r="P4" s="136"/>
+      <c r="Q4" s="13">
+        <v>0.2</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B5" s="9" t="s">
-        <v>122</v>
+        <v>187</v>
       </c>
       <c r="C5" s="45"/>
       <c r="D5" s="45"/>
-    </row>
-    <row r="6" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
+      <c r="M5">
+        <v>6.3</v>
+      </c>
+      <c r="P5" s="136"/>
+      <c r="Q5" s="13">
+        <v>16.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B6" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="M6">
+        <v>-1.4</v>
+      </c>
+      <c r="P6" s="136"/>
+      <c r="Q6" s="13">
+        <v>-1.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C7" s="11">
         <f>SUM(C3:C5)</f>
         <v>0</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D7" s="11">
         <f>SUM(D3:D5)</f>
         <v>0</v>
       </c>
-      <c r="E6" s="14">
-        <f t="shared" ref="E6" si="0">SUM(E3:E5)</f>
+      <c r="E7" s="14">
+        <f t="shared" ref="E7" si="0">SUM(E3:E5)</f>
         <v>117.5</v>
       </c>
-      <c r="F6" s="11">
-        <f>F7</f>
+      <c r="F7" s="11">
+        <f>F8</f>
         <v>578.16</v>
       </c>
-      <c r="G6" s="11">
-        <f>G7</f>
+      <c r="G7" s="11">
+        <f>G8</f>
         <v>1680</v>
       </c>
-      <c r="K6" s="11">
-        <f t="shared" ref="K6:M6" si="1">SUM(K3:K5)</f>
+      <c r="K7" s="11">
+        <f t="shared" ref="K7:L7" si="1">SUM(K3:K5)</f>
         <v>11.4</v>
       </c>
-      <c r="L6" s="11">
+      <c r="L7" s="11">
         <f t="shared" si="1"/>
         <v>14.5</v>
       </c>
-      <c r="M6" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N6" s="134">
-        <f t="shared" ref="N6:T6" si="2">SUM(N3:N5)</f>
+      <c r="M7" s="11">
+        <f>SUM(M3:M6)</f>
+        <v>32.1</v>
+      </c>
+      <c r="N7" s="11">
+        <f t="shared" ref="N7:T7" si="2">SUM(N3:N5)</f>
         <v>37.9</v>
       </c>
-      <c r="O6" s="11">
+      <c r="O7" s="11">
         <f t="shared" si="2"/>
         <v>55.3</v>
       </c>
-      <c r="P6" s="11">
+      <c r="P7" s="137">
         <f t="shared" si="2"/>
         <v>105.1</v>
       </c>
-      <c r="Q6" s="11">
+      <c r="Q7" s="14">
+        <f>SUM(Q3:Q6)</f>
+        <v>146.09999999999997</v>
+      </c>
+      <c r="R7" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R6" s="11">
+      <c r="S7" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="S6" s="11">
+      <c r="T7" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T6" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B7" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="116"/>
-      <c r="F7" s="42">
-        <v>578.16</v>
-      </c>
-      <c r="G7" s="121">
-        <v>1680</v>
-      </c>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="135"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="13">
-        <v>155.72</v>
-      </c>
-      <c r="R7">
-        <v>265.95</v>
-      </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B8" s="9" t="s">
-        <v>123</v>
+        <v>52</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
-      <c r="E8" s="116">
-        <v>73.400000000000006</v>
-      </c>
-      <c r="F8" s="42"/>
-      <c r="G8" s="121"/>
-      <c r="K8" s="40">
-        <v>8.9</v>
-      </c>
-      <c r="L8" s="40">
-        <v>7.4</v>
-      </c>
+      <c r="E8" s="116"/>
+      <c r="F8" s="42">
+        <v>578.16</v>
+      </c>
+      <c r="G8" s="121">
+        <v>1680</v>
+      </c>
+      <c r="K8" s="40"/>
+      <c r="L8" s="40"/>
       <c r="M8" s="40"/>
-      <c r="N8" s="135">
-        <v>27.5</v>
-      </c>
-      <c r="O8" s="40">
-        <v>29.5</v>
-      </c>
-      <c r="P8" s="40">
-        <v>30.1</v>
+      <c r="N8" s="40"/>
+      <c r="O8" s="40"/>
+      <c r="P8" s="138"/>
+      <c r="Q8" s="13">
+        <v>155.72</v>
+      </c>
+      <c r="R8">
+        <v>265.95</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B9" s="9" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
-      <c r="E9" s="116"/>
+      <c r="E9" s="116">
+        <v>73.400000000000006</v>
+      </c>
       <c r="F9" s="42"/>
       <c r="G9" s="121"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
-      <c r="N9" s="135"/>
-      <c r="O9" s="40"/>
-      <c r="P9" s="40"/>
+      <c r="K9" s="40">
+        <v>8.9</v>
+      </c>
+      <c r="L9" s="40">
+        <v>7.4</v>
+      </c>
+      <c r="M9" s="40">
+        <v>9.9</v>
+      </c>
+      <c r="N9" s="40">
+        <v>27.5</v>
+      </c>
+      <c r="O9" s="40">
+        <v>29.5</v>
+      </c>
+      <c r="P9" s="138">
+        <v>30.1</v>
+      </c>
+      <c r="Q9" s="13">
+        <v>42.9</v>
+      </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B10" s="9" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
@@ -16146,1007 +16287,1022 @@
       <c r="K10" s="40"/>
       <c r="L10" s="40"/>
       <c r="M10" s="40"/>
-      <c r="N10" s="135"/>
+      <c r="N10" s="40"/>
       <c r="O10" s="40"/>
-      <c r="P10" s="40"/>
-    </row>
-    <row r="11" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
+      <c r="P10" s="138"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B11" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="116"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="121"/>
+      <c r="K11" s="40"/>
+      <c r="L11" s="40"/>
+      <c r="M11" s="40"/>
+      <c r="N11" s="40"/>
+      <c r="O11" s="40"/>
+      <c r="P11" s="138"/>
+    </row>
+    <row r="12" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="11">
-        <f t="shared" ref="C11:G11" si="3">SUM(C8:C10)</f>
+      <c r="C12" s="11">
+        <f t="shared" ref="C12:G12" si="3">SUM(C9:C11)</f>
         <v>0</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D12" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E12" s="14">
         <f t="shared" si="3"/>
         <v>73.400000000000006</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F12" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G11" s="11">
+      <c r="G12" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K11" s="11">
-        <f t="shared" ref="K11:M11" si="4">SUM(K8:K10)</f>
+      <c r="K12" s="11">
+        <f t="shared" ref="K12:M12" si="4">SUM(K9:K11)</f>
         <v>8.9</v>
       </c>
-      <c r="L11" s="11">
+      <c r="L12" s="11">
         <f t="shared" si="4"/>
         <v>7.4</v>
       </c>
-      <c r="M11" s="11">
+      <c r="M12" s="11">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="N11" s="134">
-        <f t="shared" ref="N11:T11" si="5">SUM(N8:N10)</f>
+        <v>9.9</v>
+      </c>
+      <c r="N12" s="11">
+        <f t="shared" ref="N12:T12" si="5">SUM(N9:N11)</f>
         <v>27.5</v>
       </c>
-      <c r="O11" s="11">
+      <c r="O12" s="11">
         <f t="shared" si="5"/>
         <v>29.5</v>
       </c>
-      <c r="P11" s="11">
+      <c r="P12" s="137">
         <f t="shared" si="5"/>
         <v>30.1</v>
       </c>
-      <c r="Q11" s="14">
+      <c r="Q12" s="14">
+        <f t="shared" si="5"/>
+        <v>42.9</v>
+      </c>
+      <c r="R12" s="11">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R11" s="11">
+      <c r="S12" s="11">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="S11" s="11">
+      <c r="T12" s="11">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="T11" s="11">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>160</v>
-      </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="116">
-        <v>129.69999999999999</v>
-      </c>
-      <c r="F12" s="40"/>
-      <c r="K12" s="10">
-        <v>25.2</v>
-      </c>
-      <c r="L12" s="10">
-        <v>32</v>
-      </c>
-      <c r="M12" s="10"/>
-      <c r="N12" s="136">
-        <v>35.4</v>
-      </c>
-      <c r="O12" s="10">
-        <v>40</v>
-      </c>
-      <c r="P12" s="10">
-        <v>42.8</v>
-      </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
       <c r="E13" s="116">
-        <v>277.8</v>
+        <v>129.69999999999999</v>
       </c>
       <c r="F13" s="40"/>
       <c r="K13" s="10">
-        <v>51.3</v>
+        <v>25.2</v>
       </c>
       <c r="L13" s="10">
-        <v>75.599999999999994</v>
-      </c>
-      <c r="M13" s="10"/>
-      <c r="N13" s="136">
-        <v>90</v>
+        <v>32</v>
+      </c>
+      <c r="M13" s="10">
+        <v>31.4</v>
+      </c>
+      <c r="N13" s="10">
+        <v>35.4</v>
       </c>
       <c r="O13" s="10">
-        <v>66.099999999999994</v>
-      </c>
-      <c r="P13" s="10">
-        <v>68.2</v>
+        <v>40</v>
+      </c>
+      <c r="P13" s="139">
+        <v>42.8</v>
+      </c>
+      <c r="Q13" s="13">
+        <v>44.9</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>14</v>
+        <v>158</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
-      <c r="E14" s="15">
+      <c r="E14" s="116">
+        <v>277.8</v>
+      </c>
+      <c r="F14" s="40"/>
+      <c r="K14" s="10">
+        <v>51.3</v>
+      </c>
+      <c r="L14" s="10">
+        <v>75.599999999999994</v>
+      </c>
+      <c r="M14" s="10">
+        <v>47.9</v>
+      </c>
+      <c r="N14" s="10">
+        <v>90</v>
+      </c>
+      <c r="O14" s="10">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="P14" s="139">
+        <v>68.2</v>
+      </c>
+      <c r="Q14" s="13">
+        <v>89.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="15">
         <v>80.099999999999994</v>
       </c>
-      <c r="F14" s="10"/>
-      <c r="K14" s="10">
+      <c r="F15" s="10"/>
+      <c r="K15" s="10">
         <v>8.9</v>
       </c>
-      <c r="L14" s="10">
+      <c r="L15" s="10">
         <v>11.4</v>
       </c>
-      <c r="M14" s="10"/>
-      <c r="N14" s="136">
+      <c r="M15" s="10">
+        <v>23.5</v>
+      </c>
+      <c r="N15" s="10">
         <v>36.200000000000003</v>
       </c>
-      <c r="O14" s="10">
+      <c r="O15" s="10">
         <v>49.2</v>
       </c>
-      <c r="P14" s="10">
+      <c r="P15" s="139">
         <v>75.2</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="1" t="s">
+      <c r="Q15" s="13">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="11">
-        <f>C6-SUM(C11:C14)</f>
+      <c r="C16" s="11">
+        <f>C7-SUM(C12:C15)</f>
         <v>0</v>
       </c>
-      <c r="D15" s="11">
-        <f>D6-SUM(D11:D14)</f>
+      <c r="D16" s="11">
+        <f>D7-SUM(D12:D15)</f>
         <v>0</v>
       </c>
-      <c r="E15" s="14">
-        <f>E6-SUM(E11:E14)</f>
+      <c r="E16" s="14">
+        <f>E7-SUM(E12:E15)</f>
         <v>-443.5</v>
       </c>
-      <c r="F15" s="11">
-        <f>F6-SUM(F11:F14)</f>
+      <c r="F16" s="11">
+        <f>F7-SUM(F12:F15)</f>
         <v>578.16</v>
       </c>
-      <c r="G15" s="11">
-        <f>G6-SUM(G11:G14)</f>
+      <c r="G16" s="11">
+        <f>G7-SUM(G12:G15)</f>
         <v>1680</v>
       </c>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11">
-        <f>K6-SUM(K11:K14)</f>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11">
+        <f t="shared" ref="K16:T16" si="6">K7-SUM(K12:K15)</f>
         <v>-82.9</v>
       </c>
-      <c r="L15" s="11">
-        <f>L6-SUM(L11:L14)</f>
+      <c r="L16" s="11">
+        <f t="shared" si="6"/>
         <v>-111.9</v>
       </c>
-      <c r="M15" s="11">
-        <f>M6-SUM(M11:M14)</f>
+      <c r="M16" s="11">
+        <f t="shared" si="6"/>
+        <v>-80.599999999999994</v>
+      </c>
+      <c r="N16" s="11">
+        <f t="shared" si="6"/>
+        <v>-151.20000000000002</v>
+      </c>
+      <c r="O16" s="11">
+        <f t="shared" si="6"/>
+        <v>-129.5</v>
+      </c>
+      <c r="P16" s="11">
+        <f t="shared" si="6"/>
+        <v>-111.20000000000002</v>
+      </c>
+      <c r="Q16" s="14">
+        <f t="shared" si="6"/>
+        <v>-130.20000000000005</v>
+      </c>
+      <c r="R16" s="11">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="N15" s="134">
-        <f>N6-SUM(N11:N14)</f>
-        <v>-151.20000000000002</v>
-      </c>
-      <c r="O15" s="11">
-        <f>O6-SUM(O11:O14)</f>
-        <v>-129.5</v>
-      </c>
-      <c r="P15" s="11">
-        <f>P6-SUM(P11:P14)</f>
-        <v>-111.20000000000002</v>
-      </c>
-      <c r="Q15" s="14">
-        <f>Q6-SUM(Q11:Q14)</f>
+      <c r="S16" s="11">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R15" s="11">
-        <f>R6-SUM(R11:R14)</f>
+      <c r="T16" s="11">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="S15" s="11">
-        <f>S6-SUM(S11:S14)</f>
-        <v>0</v>
-      </c>
-      <c r="T15" s="11">
-        <f>T6-SUM(T11:T14)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>162</v>
-      </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="15">
-        <v>63.6</v>
-      </c>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="K16" s="10">
-        <v>0.4</v>
-      </c>
-      <c r="L16" s="10">
-        <v>12.7</v>
-      </c>
-      <c r="M16" s="10"/>
-      <c r="N16" s="136">
-        <v>21.9</v>
-      </c>
-      <c r="O16" s="10">
-        <v>8.6</v>
-      </c>
-      <c r="P16" s="10">
-        <f>3.6-4.8</f>
-        <v>-1.1999999999999997</v>
-      </c>
-      <c r="Q16" s="15"/>
-      <c r="R16" s="10"/>
-      <c r="S16" s="10"/>
-      <c r="T16" s="10"/>
     </row>
     <row r="17" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>48</v>
+        <v>159</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
       <c r="E17" s="15">
-        <v>0.4</v>
+        <v>63.6</v>
       </c>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
       <c r="K17" s="10">
-        <v>0</v>
-      </c>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="136"/>
+        <v>0.4</v>
+      </c>
+      <c r="L17" s="10">
+        <v>12.7</v>
+      </c>
+      <c r="M17" s="10">
+        <v>28.6</v>
+      </c>
+      <c r="N17" s="10">
+        <v>21.9</v>
+      </c>
       <c r="O17" s="10">
-        <v>0.1</v>
+        <v>8.6</v>
       </c>
       <c r="P17" s="10">
-        <v>597.4</v>
-      </c>
-      <c r="Q17" s="15"/>
+        <f>3.6-4.8</f>
+        <v>-1.1999999999999997</v>
+      </c>
+      <c r="Q17" s="15">
+        <f>6.2-14.7</f>
+        <v>-8.5</v>
+      </c>
       <c r="R17" s="10"/>
       <c r="S17" s="10"/>
       <c r="T17" s="10"/>
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
       <c r="E18" s="15">
-        <v>-17.3</v>
+        <v>0.4</v>
       </c>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
       <c r="K18" s="10">
-        <v>-1</v>
-      </c>
-      <c r="L18" s="10">
-        <v>-14.8</v>
-      </c>
-      <c r="M18" s="10"/>
-      <c r="N18" s="136">
-        <v>-8.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10">
+        <v>0.4</v>
+      </c>
+      <c r="N18" s="10"/>
       <c r="O18" s="10">
-        <v>8.1</v>
+        <v>0.1</v>
       </c>
       <c r="P18" s="10">
-        <f>-6.3+24.6</f>
-        <v>18.3</v>
-      </c>
-      <c r="Q18" s="15"/>
+        <v>597.4</v>
+      </c>
+      <c r="Q18" s="15">
+        <v>-7.5</v>
+      </c>
       <c r="R18" s="10"/>
       <c r="S18" s="10"/>
       <c r="T18" s="10"/>
     </row>
-    <row r="19" spans="2:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C19" s="11">
-        <f t="shared" ref="C19:D19" si="6">C15+SUM(C16:C18)</f>
+    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="15">
+        <v>-17.3</v>
+      </c>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="K19" s="10">
+        <v>-1</v>
+      </c>
+      <c r="L19" s="10">
+        <v>-14.8</v>
+      </c>
+      <c r="M19" s="10">
+        <v>7</v>
+      </c>
+      <c r="N19" s="10">
+        <v>-8.4</v>
+      </c>
+      <c r="O19" s="10">
+        <v>8.1</v>
+      </c>
+      <c r="P19" s="10">
+        <f>-6.3+24.6</f>
+        <v>18.3</v>
+      </c>
+      <c r="Q19" s="15">
+        <v>26.3</v>
+      </c>
+      <c r="R19" s="10"/>
+      <c r="S19" s="10"/>
+      <c r="T19" s="10"/>
+    </row>
+    <row r="20" spans="2:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C20" s="11">
+        <f t="shared" ref="C20:D20" si="7">C16+SUM(C17:C19)</f>
         <v>0</v>
       </c>
-      <c r="D19" s="11">
-        <f t="shared" si="6"/>
+      <c r="D20" s="11">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E19" s="14">
-        <f t="shared" ref="E19:G19" si="7">E15+SUM(E16:E18)</f>
+      <c r="E20" s="14">
+        <f t="shared" ref="E20:G20" si="8">E16+SUM(E17:E19)</f>
         <v>-396.8</v>
       </c>
-      <c r="F19" s="11">
-        <f t="shared" si="7"/>
+      <c r="F20" s="11">
+        <f t="shared" si="8"/>
         <v>578.16</v>
       </c>
-      <c r="G19" s="11">
-        <f t="shared" si="7"/>
+      <c r="G20" s="11">
+        <f t="shared" si="8"/>
         <v>1680</v>
       </c>
-      <c r="K19" s="11">
-        <f t="shared" ref="K19:M19" si="8">K15+SUM(K16:K18)</f>
+      <c r="K20" s="11">
+        <f t="shared" ref="K20:M20" si="9">K16+SUM(K17:K19)</f>
         <v>-83.5</v>
       </c>
-      <c r="L19" s="11">
-        <f t="shared" si="8"/>
+      <c r="L20" s="11">
+        <f t="shared" si="9"/>
         <v>-114</v>
       </c>
-      <c r="M19" s="11">
-        <f t="shared" si="8"/>
+      <c r="M20" s="11">
+        <f t="shared" si="9"/>
+        <v>-44.599999999999994</v>
+      </c>
+      <c r="N20" s="11">
+        <f t="shared" ref="N20:P20" si="10">N16+SUM(N17:N19)</f>
+        <v>-137.70000000000002</v>
+      </c>
+      <c r="O20" s="11">
+        <f t="shared" si="10"/>
+        <v>-112.7</v>
+      </c>
+      <c r="P20" s="11">
+        <f t="shared" si="10"/>
+        <v>503.29999999999984</v>
+      </c>
+      <c r="Q20" s="14">
+        <f t="shared" ref="Q20:T20" si="11">Q16+SUM(Q17:Q19)</f>
+        <v>-119.90000000000005</v>
+      </c>
+      <c r="R20" s="11">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N19" s="134">
-        <f t="shared" ref="N19:P19" si="9">N15+SUM(N16:N18)</f>
-        <v>-137.70000000000002</v>
-      </c>
-      <c r="O19" s="11">
-        <f t="shared" si="9"/>
-        <v>-112.7</v>
-      </c>
-      <c r="P19" s="11">
-        <f t="shared" si="9"/>
-        <v>503.29999999999984</v>
-      </c>
-      <c r="Q19" s="14">
-        <f t="shared" ref="Q19:T19" si="10">Q15+SUM(Q16:Q18)</f>
+      <c r="S20" s="11">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="R19" s="11">
-        <f t="shared" si="10"/>
+      <c r="T20" s="11">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="S19" s="11">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="T19" s="11">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="15">
-        <v>-0.1</v>
-      </c>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="K20" s="10">
-        <v>-3</v>
-      </c>
-      <c r="L20" s="10">
-        <v>2.6</v>
-      </c>
-      <c r="M20" s="10"/>
-      <c r="N20" s="136">
-        <v>-1.1000000000000001</v>
-      </c>
-      <c r="O20" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="P20" s="10">
-        <v>0.8</v>
-      </c>
-      <c r="Q20" s="15"/>
-      <c r="R20" s="10"/>
-      <c r="S20" s="10"/>
-      <c r="T20" s="10"/>
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>163</v>
+        <v>10</v>
       </c>
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
       <c r="E21" s="15">
-        <f>-465.2-59+772.1</f>
-        <v>247.89999999999998</v>
+        <v>-0.1</v>
       </c>
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
       <c r="K21" s="10">
-        <v>236</v>
+        <v>-3</v>
       </c>
       <c r="L21" s="10">
-        <v>-19.399999999999999</v>
-      </c>
-      <c r="M21" s="10"/>
-      <c r="N21" s="136"/>
-      <c r="O21" s="10"/>
+        <v>2.6</v>
+      </c>
+      <c r="M21" s="10">
+        <v>-1</v>
+      </c>
+      <c r="N21" s="10">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="O21" s="10">
+        <v>0.9</v>
+      </c>
       <c r="P21" s="10">
-        <v>-81.900000000000006</v>
-      </c>
-      <c r="Q21" s="15"/>
+        <v>0.8</v>
+      </c>
+      <c r="Q21" s="15">
+        <v>-0.3</v>
+      </c>
       <c r="R21" s="10"/>
       <c r="S21" s="10"/>
       <c r="T21" s="10"/>
     </row>
-    <row r="22" spans="2:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="1" t="s">
+    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>160</v>
+      </c>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="15">
+        <f>-465.2-59+772.1</f>
+        <v>247.89999999999998</v>
+      </c>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="K22" s="10">
+        <v>236</v>
+      </c>
+      <c r="L22" s="10">
+        <v>-19.399999999999999</v>
+      </c>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10">
+        <v>-81.900000000000006</v>
+      </c>
+      <c r="Q22" s="15"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="10"/>
+      <c r="T22" s="10"/>
+    </row>
+    <row r="23" spans="2:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="11">
-        <f t="shared" ref="C22:D22" si="11">C19-SUM(C20:C21)</f>
+      <c r="C23" s="11">
+        <f t="shared" ref="C23:D23" si="12">C20-SUM(C21:C22)</f>
         <v>0</v>
       </c>
-      <c r="D22" s="11">
-        <f t="shared" si="11"/>
+      <c r="D23" s="11">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="E22" s="14">
-        <f t="shared" ref="E22:G22" si="12">E19-SUM(E20:E21)</f>
+      <c r="E23" s="14">
+        <f t="shared" ref="E23:G23" si="13">E20-SUM(E21:E22)</f>
         <v>-644.6</v>
       </c>
-      <c r="F22" s="11">
-        <f t="shared" si="12"/>
+      <c r="F23" s="11">
+        <f t="shared" si="13"/>
         <v>578.16</v>
       </c>
-      <c r="G22" s="11">
-        <f t="shared" si="12"/>
+      <c r="G23" s="11">
+        <f t="shared" si="13"/>
         <v>1680</v>
       </c>
-      <c r="K22" s="11">
-        <f t="shared" ref="K22:M22" si="13">K19-SUM(K20:K21)</f>
+      <c r="K23" s="11">
+        <f t="shared" ref="K23:M23" si="14">K20-SUM(K21:K22)</f>
         <v>-316.5</v>
       </c>
-      <c r="L22" s="11">
-        <f t="shared" si="13"/>
+      <c r="L23" s="11">
+        <f t="shared" si="14"/>
         <v>-97.2</v>
       </c>
-      <c r="M22" s="11">
-        <f t="shared" si="13"/>
+      <c r="M23" s="11">
+        <f t="shared" si="14"/>
+        <v>-43.599999999999994</v>
+      </c>
+      <c r="N23" s="11">
+        <f t="shared" ref="N23:P23" si="15">N20-SUM(N21:N22)</f>
+        <v>-136.60000000000002</v>
+      </c>
+      <c r="O23" s="11">
+        <f t="shared" si="15"/>
+        <v>-113.60000000000001</v>
+      </c>
+      <c r="P23" s="11">
+        <f t="shared" si="15"/>
+        <v>584.39999999999986</v>
+      </c>
+      <c r="Q23" s="14">
+        <f t="shared" ref="Q23:T23" si="16">Q20-SUM(Q21:Q22)</f>
+        <v>-119.60000000000005</v>
+      </c>
+      <c r="R23" s="11">
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="N22" s="134">
-        <f t="shared" ref="N22:P22" si="14">N19-SUM(N20:N21)</f>
-        <v>-136.60000000000002</v>
-      </c>
-      <c r="O22" s="11">
-        <f t="shared" si="14"/>
-        <v>-113.60000000000001</v>
-      </c>
-      <c r="P22" s="11">
-        <f t="shared" si="14"/>
-        <v>584.39999999999986</v>
-      </c>
-      <c r="Q22" s="14">
-        <f t="shared" ref="Q22:T22" si="15">Q19-SUM(Q20:Q21)</f>
+      <c r="S23" s="11">
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="R22" s="11">
-        <f t="shared" si="15"/>
+      <c r="T23" s="11">
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="S22" s="11">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="T22" s="11">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
+    </row>
+    <row r="24" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="15">
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="15">
         <v>235.75360000000001</v>
       </c>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="136">
-        <f>E23</f>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10">
+        <f>E24</f>
         <v>235.75360000000001</v>
       </c>
-      <c r="O23" s="10">
+      <c r="O24" s="10">
         <v>238.10883100000001</v>
       </c>
-      <c r="P23" s="10">
+      <c r="P24" s="10">
         <v>238.70509200000001</v>
       </c>
-      <c r="Q23" s="15"/>
-      <c r="R23" s="10"/>
-      <c r="S23" s="10"/>
-      <c r="T23" s="10"/>
-    </row>
-    <row r="24" spans="2:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="1" t="s">
+      <c r="Q24" s="15">
+        <v>251.807222</v>
+      </c>
+      <c r="R24" s="10"/>
+      <c r="S24" s="10"/>
+      <c r="T24" s="10"/>
+    </row>
+    <row r="25" spans="2:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C24" s="2" t="e">
-        <f>C22/C23</f>
+      <c r="C25" s="2" t="e">
+        <f>C23/C24</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D24" s="119" t="e">
-        <f>D22/D23</f>
+      <c r="D25" s="119" t="e">
+        <f>D23/D24</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E24" s="35">
-        <f t="shared" ref="E24:G24" si="16">E22/E23</f>
+      <c r="E25" s="35">
+        <f t="shared" ref="E25:G25" si="17">E23/E24</f>
         <v>-2.7342106334749503</v>
       </c>
-      <c r="F24" s="2" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G24" s="2" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K24" s="2" t="e">
-        <f t="shared" ref="K24:M24" si="17">K22/K23</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L24" s="2" t="e">
+      <c r="F25" s="2" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M24" s="2" t="e">
+      <c r="G25" s="2" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N24" s="137">
-        <f t="shared" ref="N24:P24" si="18">N22/N23</f>
+      <c r="K25" s="2" t="e">
+        <f t="shared" ref="K25:M25" si="18">K23/K24</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L25" s="2" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M25" s="2" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N25" s="2">
+        <f t="shared" ref="N25:P25" si="19">N23/N24</f>
         <v>-0.57941851153068291</v>
       </c>
-      <c r="O24" s="2">
-        <f t="shared" si="18"/>
+      <c r="O25" s="2">
+        <f t="shared" si="19"/>
         <v>-0.47709276267876011</v>
       </c>
-      <c r="P24" s="2">
-        <f t="shared" si="18"/>
+      <c r="P25" s="2">
+        <f t="shared" si="19"/>
         <v>2.4482091902756724</v>
       </c>
-      <c r="Q24" s="35" t="e">
-        <f t="shared" ref="Q24:T24" si="19">Q22/Q23</f>
+      <c r="Q25" s="35">
+        <f>Q23/Q24</f>
+        <v>-0.47496652022156877</v>
+      </c>
+      <c r="R25" s="2" t="e">
+        <f t="shared" ref="Q25:T25" si="20">R23/R24</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="R24" s="2" t="e">
-        <f t="shared" si="19"/>
+      <c r="S25" s="2" t="e">
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S24" s="2" t="e">
-        <f t="shared" si="19"/>
+      <c r="T25" s="2" t="e">
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T24" s="2" t="e">
-        <f t="shared" si="19"/>
+    </row>
+    <row r="26" spans="2:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="122"/>
+      <c r="F26" s="43">
+        <v>0.98</v>
+      </c>
+      <c r="G26" s="1">
+        <v>-1.45</v>
+      </c>
+      <c r="K26" s="44"/>
+      <c r="L26" s="44"/>
+      <c r="M26" s="44"/>
+      <c r="N26" s="44"/>
+      <c r="O26" s="44"/>
+      <c r="P26" s="44"/>
+      <c r="Q26" s="117">
+        <v>-0.4</v>
+      </c>
+      <c r="R26" s="44">
+        <v>0.22</v>
+      </c>
+      <c r="S26" s="44"/>
+      <c r="T26" s="44"/>
+    </row>
+    <row r="27" spans="2:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" s="3" t="e">
+        <f>1-C12/C7</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="25" spans="2:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="122"/>
-      <c r="F25" s="43">
-        <v>0.98</v>
-      </c>
-      <c r="G25" s="1">
-        <v>-1.45</v>
-      </c>
-      <c r="K25" s="44"/>
-      <c r="L25" s="44"/>
-      <c r="M25" s="44"/>
-      <c r="N25" s="138"/>
-      <c r="O25" s="44"/>
-      <c r="P25" s="44"/>
-      <c r="Q25" s="117">
-        <v>-0.4</v>
-      </c>
-      <c r="R25" s="44">
-        <v>0.22</v>
-      </c>
-      <c r="S25" s="44"/>
-      <c r="T25" s="44"/>
-    </row>
-    <row r="26" spans="2:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>21</v>
-      </c>
-      <c r="C26" s="3" t="e">
-        <f>1-C11/C6</f>
+      <c r="D27" s="39" t="e">
+        <f>1-D12/D7</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D26" s="39" t="e">
-        <f>1-D11/D6</f>
+      <c r="E27" s="6">
+        <f>1-E12/E7</f>
+        <v>0.37531914893617013</v>
+      </c>
+      <c r="F27" s="39">
+        <f>1-F12/F7</f>
+        <v>1</v>
+      </c>
+      <c r="G27" s="39">
+        <f>1-G12/G7</f>
+        <v>1</v>
+      </c>
+      <c r="K27" s="3">
+        <f t="shared" ref="K27:T27" si="21">1-K12/K7</f>
+        <v>0.2192982456140351</v>
+      </c>
+      <c r="L27" s="39">
+        <f t="shared" si="21"/>
+        <v>0.48965517241379308</v>
+      </c>
+      <c r="M27" s="3">
+        <f t="shared" si="21"/>
+        <v>0.69158878504672905</v>
+      </c>
+      <c r="N27" s="39">
+        <f t="shared" si="21"/>
+        <v>0.27440633245382584</v>
+      </c>
+      <c r="O27" s="3">
+        <f t="shared" si="21"/>
+        <v>0.46654611211573238</v>
+      </c>
+      <c r="P27" s="3">
+        <f t="shared" si="21"/>
+        <v>0.7136060894386298</v>
+      </c>
+      <c r="Q27" s="6">
+        <f>1-Q12/Q7</f>
+        <v>0.70636550308008206</v>
+      </c>
+      <c r="R27" s="3" t="e">
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E26" s="6">
-        <f>1-E11/E6</f>
-        <v>0.37531914893617013</v>
-      </c>
-      <c r="F26" s="39">
-        <f>1-F11/F6</f>
-        <v>1</v>
-      </c>
-      <c r="G26" s="39">
-        <f>1-G11/G6</f>
-        <v>1</v>
-      </c>
-      <c r="K26" s="3">
-        <f>1-K11/K6</f>
-        <v>0.2192982456140351</v>
-      </c>
-      <c r="L26" s="39">
-        <f>1-L11/L6</f>
-        <v>0.48965517241379308</v>
-      </c>
-      <c r="M26" s="3" t="e">
-        <f>1-M11/M6</f>
+      <c r="S27" s="3" t="e">
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N26" s="39">
-        <f>1-N11/N6</f>
-        <v>0.27440633245382584</v>
-      </c>
-      <c r="O26" s="3">
-        <f>1-O11/O6</f>
-        <v>0.46654611211573238</v>
-      </c>
-      <c r="P26" s="3">
-        <f>1-P11/P6</f>
-        <v>0.7136060894386298</v>
-      </c>
-      <c r="Q26" s="6" t="e">
-        <f>1-Q11/Q6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R26" s="3" t="e">
-        <f>1-R11/R6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S26" s="3" t="e">
-        <f>1-S11/S6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T26" s="3" t="e">
-        <f>1-T11/T6</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="27" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>22</v>
-      </c>
-      <c r="C27" s="4" t="e">
-        <f>C22/C6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D27" s="4" t="e">
-        <f>D22/D6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E27" s="7">
-        <f>E22/E6</f>
-        <v>-5.4859574468085111</v>
-      </c>
-      <c r="F27" s="4">
-        <f>F22/F6</f>
-        <v>1</v>
-      </c>
-      <c r="G27" s="4">
-        <f>G22/G6</f>
-        <v>1</v>
-      </c>
-      <c r="K27" s="4">
-        <f>K22/K6</f>
-        <v>-27.763157894736842</v>
-      </c>
-      <c r="L27" s="4">
-        <f>L22/L6</f>
-        <v>-6.703448275862069</v>
-      </c>
-      <c r="M27" s="4" t="e">
-        <f>M22/M6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N27" s="139">
-        <f>N22/N6</f>
-        <v>-3.6042216358839059</v>
-      </c>
-      <c r="O27" s="4">
-        <f>O22/O6</f>
-        <v>-2.0542495479204343</v>
-      </c>
-      <c r="P27" s="4">
-        <f>P22/P6</f>
-        <v>5.5604186489058032</v>
-      </c>
-      <c r="Q27" s="7" t="e">
-        <f>Q22/Q6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R27" s="4" t="e">
-        <f>R22/R6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S27" s="4" t="e">
-        <f>S22/S6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T27" s="4" t="e">
-        <f>T22/T6</f>
+      <c r="T27" s="3" t="e">
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="28" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>133</v>
-      </c>
-      <c r="C28" s="39" t="e">
-        <f>C6/#REF!-1</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D28" s="39" t="e">
-        <f>D6/C6-1</f>
+        <v>22</v>
+      </c>
+      <c r="C28" s="4" t="e">
+        <f>C23/C7</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E28" s="6" t="e">
-        <f>E6/D6-1</f>
+      <c r="D28" s="4" t="e">
+        <f>D23/D7</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F28" s="39">
-        <f>F6/E6-1</f>
-        <v>3.9205106382978725</v>
-      </c>
-      <c r="G28" s="39">
-        <f>G6/F6-1</f>
-        <v>1.9057700290577007</v>
-      </c>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
-      <c r="N28" s="139"/>
-      <c r="O28" s="143">
-        <f>O6/K6-1</f>
-        <v>3.8508771929824555</v>
-      </c>
-      <c r="P28" s="143">
-        <f>P6/L6-1</f>
-        <v>6.2482758620689651</v>
-      </c>
-      <c r="Q28" s="7" t="e">
-        <f>Q6/M6-1</f>
+      <c r="E28" s="7">
+        <f>E23/E7</f>
+        <v>-5.4859574468085111</v>
+      </c>
+      <c r="F28" s="4">
+        <f>F23/F7</f>
+        <v>1</v>
+      </c>
+      <c r="G28" s="4">
+        <f>G23/G7</f>
+        <v>1</v>
+      </c>
+      <c r="K28" s="4">
+        <f t="shared" ref="K28:T28" si="22">K23/K7</f>
+        <v>-27.763157894736842</v>
+      </c>
+      <c r="L28" s="4">
+        <f t="shared" si="22"/>
+        <v>-6.703448275862069</v>
+      </c>
+      <c r="M28" s="4">
+        <f t="shared" si="22"/>
+        <v>-1.3582554517133953</v>
+      </c>
+      <c r="N28" s="4">
+        <f t="shared" si="22"/>
+        <v>-3.6042216358839059</v>
+      </c>
+      <c r="O28" s="4">
+        <f t="shared" si="22"/>
+        <v>-2.0542495479204343</v>
+      </c>
+      <c r="P28" s="4">
+        <f t="shared" si="22"/>
+        <v>5.5604186489058032</v>
+      </c>
+      <c r="Q28" s="7">
+        <f>Q23/Q7</f>
+        <v>-0.81861738535249884</v>
+      </c>
+      <c r="R28" s="4" t="e">
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R28" s="4">
-        <f>R6/N6-1</f>
-        <v>-1</v>
-      </c>
-      <c r="S28" s="4">
-        <f>S6/O6-1</f>
-        <v>-1</v>
-      </c>
-      <c r="T28" s="4">
-        <f>T6/P6-1</f>
-        <v>-1</v>
+      <c r="S28" s="4" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T28" s="4" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="29" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>128</v>
-      </c>
-      <c r="C29" s="4" t="e">
-        <f>C12/C6</f>
+        <v>130</v>
+      </c>
+      <c r="C29" s="39" t="e">
+        <f>C7/#REF!-1</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D29" s="39" t="e">
+        <f>D7/C7-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D29" s="4" t="e">
-        <f>D12/D6</f>
+      <c r="E29" s="6" t="e">
+        <f>E7/D7-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E29" s="7">
-        <f>E12/E6</f>
-        <v>1.1038297872340423</v>
-      </c>
-      <c r="F29" s="4">
-        <f>F12/F6</f>
-        <v>0</v>
-      </c>
-      <c r="G29" s="4">
-        <f>G12/G6</f>
-        <v>0</v>
-      </c>
-      <c r="K29" s="4">
-        <f>K12/K6</f>
-        <v>2.2105263157894735</v>
-      </c>
-      <c r="L29" s="4">
-        <f>L12/L6</f>
-        <v>2.2068965517241379</v>
-      </c>
-      <c r="M29" s="4" t="e">
-        <f>M12/M6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N29" s="139">
-        <f>N12/N6</f>
-        <v>0.93403693931398413</v>
-      </c>
-      <c r="O29" s="4">
-        <f>O12/O6</f>
-        <v>0.72332730560578662</v>
-      </c>
-      <c r="P29" s="4">
-        <f>P12/P6</f>
-        <v>0.4072312083729781</v>
-      </c>
-      <c r="Q29" s="7" t="e">
-        <f>Q12/Q6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R29" s="4" t="e">
-        <f>R12/R6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S29" s="4" t="e">
-        <f>S12/S6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T29" s="4" t="e">
-        <f>T12/T6</f>
-        <v>#DIV/0!</v>
+      <c r="F29" s="39">
+        <f>F7/E7-1</f>
+        <v>3.9205106382978725</v>
+      </c>
+      <c r="G29" s="39">
+        <f>G7/F7-1</f>
+        <v>1.9057700290577007</v>
+      </c>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="123">
+        <f t="shared" ref="O29:T29" si="23">O7/K7-1</f>
+        <v>3.8508771929824555</v>
+      </c>
+      <c r="P29" s="123">
+        <f t="shared" si="23"/>
+        <v>6.2482758620689651</v>
+      </c>
+      <c r="Q29" s="140">
+        <f t="shared" si="23"/>
+        <v>3.5514018691588776</v>
+      </c>
+      <c r="R29" s="4">
+        <f t="shared" si="23"/>
+        <v>-1</v>
+      </c>
+      <c r="S29" s="4">
+        <f t="shared" si="23"/>
+        <v>-1</v>
+      </c>
+      <c r="T29" s="4">
+        <f t="shared" si="23"/>
+        <v>-1</v>
       </c>
     </row>
     <row r="30" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>164</v>
+        <v>125</v>
       </c>
       <c r="C30" s="4" t="e">
-        <f>C13/C6</f>
+        <f>C13/C7</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D30" s="4" t="e">
-        <f>D13/D6</f>
+        <f>D13/D7</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E30" s="7">
-        <f>E13/E6</f>
-        <v>2.3642553191489362</v>
+        <f>E13/E7</f>
+        <v>1.1038297872340423</v>
       </c>
       <c r="F30" s="4">
-        <f>F13/F6</f>
+        <f>F13/F7</f>
         <v>0</v>
       </c>
       <c r="G30" s="4">
-        <f>G13/G6</f>
+        <f>G13/G7</f>
         <v>0</v>
       </c>
       <c r="K30" s="4">
-        <f>K13/K6</f>
-        <v>4.5</v>
+        <f t="shared" ref="K30:T30" si="24">K13/K7</f>
+        <v>2.2105263157894735</v>
       </c>
       <c r="L30" s="4">
-        <f>L13/L6</f>
-        <v>5.2137931034482756</v>
-      </c>
-      <c r="M30" s="4" t="e">
-        <f>M13/M6</f>
+        <f t="shared" si="24"/>
+        <v>2.2068965517241379</v>
+      </c>
+      <c r="M30" s="4">
+        <f t="shared" si="24"/>
+        <v>0.97819314641744537</v>
+      </c>
+      <c r="N30" s="4">
+        <f t="shared" si="24"/>
+        <v>0.93403693931398413</v>
+      </c>
+      <c r="O30" s="4">
+        <f t="shared" si="24"/>
+        <v>0.72332730560578662</v>
+      </c>
+      <c r="P30" s="4">
+        <f t="shared" si="24"/>
+        <v>0.4072312083729781</v>
+      </c>
+      <c r="Q30" s="7">
+        <f t="shared" si="24"/>
+        <v>0.30732375085557845</v>
+      </c>
+      <c r="R30" s="4" t="e">
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N30" s="139">
-        <f>N13/N6</f>
-        <v>2.3746701846965701</v>
-      </c>
-      <c r="O30" s="4">
-        <f>O13/O6</f>
-        <v>1.1952983725135624</v>
-      </c>
-      <c r="P30" s="4">
-        <f>P13/P6</f>
-        <v>0.64890580399619413</v>
-      </c>
-      <c r="Q30" s="7" t="e">
-        <f>Q13/Q6</f>
+      <c r="S30" s="4" t="e">
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R30" s="4" t="e">
-        <f>R13/R6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S30" s="4" t="e">
-        <f>S13/S6</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="T30" s="4" t="e">
-        <f>T13/T6</f>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="31" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>126</v>
+        <v>161</v>
       </c>
       <c r="C31" s="4" t="e">
+        <f>C14/C7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D31" s="4" t="e">
+        <f>D14/D7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E31" s="7">
+        <f>E14/E7</f>
+        <v>2.3642553191489362</v>
+      </c>
+      <c r="F31" s="4">
+        <f>F14/F7</f>
+        <v>0</v>
+      </c>
+      <c r="G31" s="4">
+        <f>G14/G7</f>
+        <v>0</v>
+      </c>
+      <c r="K31" s="4">
+        <f t="shared" ref="K31:T31" si="25">K14/K7</f>
+        <v>4.5</v>
+      </c>
+      <c r="L31" s="4">
+        <f t="shared" si="25"/>
+        <v>5.2137931034482756</v>
+      </c>
+      <c r="M31" s="4">
+        <f t="shared" si="25"/>
+        <v>1.4922118380062304</v>
+      </c>
+      <c r="N31" s="4">
+        <f t="shared" si="25"/>
+        <v>2.3746701846965701</v>
+      </c>
+      <c r="O31" s="4">
+        <f t="shared" si="25"/>
+        <v>1.1952983725135624</v>
+      </c>
+      <c r="P31" s="4">
+        <f t="shared" si="25"/>
+        <v>0.64890580399619413</v>
+      </c>
+      <c r="Q31" s="7">
+        <f t="shared" si="25"/>
+        <v>0.61259411362080785</v>
+      </c>
+      <c r="R31" s="4" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S31" s="4" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T31" s="4" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="32" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>123</v>
+      </c>
+      <c r="C32" s="4" t="e">
         <f>C3/#REF!-1</f>
         <v>#REF!</v>
       </c>
-      <c r="D31" s="4" t="e">
+      <c r="D32" s="4" t="e">
         <f>D3/C3-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E31" s="7" t="e">
+      <c r="E32" s="7" t="e">
         <f>E3/D3-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F31" s="4">
+      <c r="F32" s="4">
         <f>F3/E3-1</f>
         <v>-1</v>
       </c>
-      <c r="G31" s="4" t="e">
+      <c r="G32" s="4" t="e">
         <f>G3/F3-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K31" s="4"/>
-      <c r="L31" s="4"/>
-      <c r="M31" s="4"/>
-      <c r="N31" s="139"/>
-      <c r="O31" s="4"/>
-      <c r="P31" s="4"/>
-      <c r="Q31" s="7"/>
-      <c r="R31" s="4"/>
-      <c r="S31" s="4"/>
-      <c r="T31" s="4"/>
-    </row>
-    <row r="32" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>127</v>
-      </c>
-      <c r="C32" s="4" t="e">
-        <f>C4/#REF!-1</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D32" s="4" t="e">
-        <f>D4/C4-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E32" s="7" t="e">
-        <f>E4/D4-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F32" s="4" t="e">
-        <f>F4/E4-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G32" s="4" t="e">
-        <f>G4/F4-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K32" s="4"/>
       <c r="L32" s="4"/>
       <c r="M32" s="4"/>
-      <c r="N32" s="139"/>
+      <c r="N32" s="4"/>
       <c r="O32" s="4"/>
       <c r="P32" s="4"/>
       <c r="Q32" s="7"/>
@@ -17156,1110 +17312,1202 @@
     </row>
     <row r="33" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>132</v>
-      </c>
-      <c r="C33" s="39" t="e">
-        <f>C24/#REF!-1</f>
+        <v>124</v>
+      </c>
+      <c r="C33" s="4" t="e">
+        <f>C4/#REF!-1</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D33" s="4" t="e">
+        <f>D4/C4-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D33" s="39" t="e">
-        <f>D24/C24-1</f>
+      <c r="E33" s="7" t="e">
+        <f>E4/D4-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E33" s="6" t="e">
-        <f>E24/D24-1</f>
+      <c r="F33" s="4" t="e">
+        <f>F4/E4-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F33" s="39" t="e">
-        <f>F24/E24-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G33" s="39" t="e">
-        <f>G24/F24-1</f>
+      <c r="G33" s="4" t="e">
+        <f>G4/F4-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K33" s="4"/>
       <c r="L33" s="4"/>
       <c r="M33" s="4"/>
-      <c r="N33" s="139"/>
-      <c r="O33" s="4">
-        <f>O22/K22-1</f>
-        <v>-0.64107424960505521</v>
-      </c>
-      <c r="P33" s="4">
-        <f>P22/L22-1</f>
-        <v>-7.012345679012344</v>
-      </c>
-      <c r="Q33" s="7" t="e">
-        <f>Q22/M22-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R33" s="4">
-        <f>R22/N22-1</f>
-        <v>-1</v>
-      </c>
-      <c r="S33" s="4">
-        <f>S22/O22-1</f>
-        <v>-1</v>
-      </c>
-      <c r="T33" s="4">
-        <f>T22/P22-1</f>
-        <v>-1</v>
-      </c>
+      <c r="N33" s="4"/>
+      <c r="O33" s="4"/>
+      <c r="P33" s="4"/>
+      <c r="Q33" s="7"/>
+      <c r="R33" s="4"/>
+      <c r="S33" s="4"/>
+      <c r="T33" s="4"/>
     </row>
     <row r="34" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>65</v>
-      </c>
-      <c r="C34" s="47" t="e">
-        <f>C16/C6</f>
+        <v>129</v>
+      </c>
+      <c r="C34" s="39" t="e">
+        <f>C25/#REF!-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D34" s="47" t="e">
-        <f>D16/D6</f>
+      <c r="D34" s="39" t="e">
+        <f>D25/C25-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E34" s="48">
-        <f>E16/E6</f>
-        <v>0.5412765957446809</v>
-      </c>
-      <c r="F34" s="47">
-        <f>F16/F6</f>
-        <v>0</v>
-      </c>
-      <c r="G34" s="47">
-        <f>G16/G6</f>
-        <v>0</v>
+      <c r="E34" s="6" t="e">
+        <f>E25/D25-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F34" s="39" t="e">
+        <f>F25/E25-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G34" s="39" t="e">
+        <f>G25/F25-1</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="K34" s="4"/>
       <c r="L34" s="4"/>
       <c r="M34" s="4"/>
-      <c r="N34" s="139"/>
-      <c r="O34" s="4"/>
-      <c r="P34" s="4"/>
+      <c r="N34" s="4"/>
+      <c r="O34" s="4">
+        <f t="shared" ref="O34:T34" si="26">O23/K23-1</f>
+        <v>-0.64107424960505521</v>
+      </c>
+      <c r="P34" s="4">
+        <f t="shared" si="26"/>
+        <v>-7.012345679012344</v>
+      </c>
+      <c r="Q34" s="7">
+        <f t="shared" si="26"/>
+        <v>1.7431192660550474</v>
+      </c>
+      <c r="R34" s="4">
+        <f t="shared" si="26"/>
+        <v>-1</v>
+      </c>
+      <c r="S34" s="4">
+        <f t="shared" si="26"/>
+        <v>-1</v>
+      </c>
+      <c r="T34" s="4">
+        <f t="shared" si="26"/>
+        <v>-1</v>
+      </c>
     </row>
     <row r="35" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>66</v>
-      </c>
-      <c r="C35" s="49" t="e">
-        <f>-C16/C15</f>
+        <v>65</v>
+      </c>
+      <c r="C35" s="47" t="e">
+        <f>C17/C7</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D35" s="47" t="e">
-        <f>-D16/D15</f>
+        <f>D17/D7</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E35" s="48">
-        <f>-E16/E15</f>
-        <v>0.14340473506200677</v>
+        <f>E17/E7</f>
+        <v>0.5412765957446809</v>
       </c>
       <c r="F35" s="47">
-        <f>-F16/F15</f>
+        <f>F17/F7</f>
         <v>0</v>
       </c>
       <c r="G35" s="47">
-        <f>-G16/G15</f>
+        <f>G17/G7</f>
         <v>0</v>
       </c>
       <c r="K35" s="4"/>
       <c r="L35" s="4"/>
       <c r="M35" s="4"/>
-      <c r="N35" s="139"/>
+      <c r="N35" s="4"/>
       <c r="O35" s="4"/>
       <c r="P35" s="4"/>
     </row>
-    <row r="38" spans="2:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="1" t="s">
+    <row r="36" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>66</v>
+      </c>
+      <c r="C36" s="49" t="e">
+        <f>-C17/C16</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D36" s="47" t="e">
+        <f>-D17/D16</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E36" s="48">
+        <f>-E17/E16</f>
+        <v>0.14340473506200677</v>
+      </c>
+      <c r="F36" s="47">
+        <f>-F17/F16</f>
+        <v>0</v>
+      </c>
+      <c r="G36" s="47">
+        <f>-G17/G16</f>
+        <v>0</v>
+      </c>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="4"/>
+      <c r="N36" s="4"/>
+      <c r="O36" s="4"/>
+      <c r="P36" s="4"/>
+    </row>
+    <row r="39" spans="2:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C38" s="11">
-        <f t="shared" ref="C38:G38" si="20">C39-C55</f>
+      <c r="C39" s="11">
+        <f t="shared" ref="C39:G39" si="27">C40-C56</f>
         <v>0</v>
       </c>
-      <c r="D38" s="11">
-        <f t="shared" si="20"/>
+      <c r="D39" s="11">
+        <f t="shared" si="27"/>
         <v>109.3</v>
       </c>
-      <c r="E38" s="11">
-        <f t="shared" si="20"/>
+      <c r="E39" s="11">
+        <f t="shared" si="27"/>
         <v>2443.5</v>
       </c>
-      <c r="F38" s="11">
-        <f t="shared" si="20"/>
+      <c r="F39" s="11">
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="G38" s="11">
-        <f t="shared" si="20"/>
+      <c r="G39" s="11">
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="K38" s="11">
-        <f t="shared" ref="K38" si="21">K39-K55</f>
+      <c r="K39" s="11">
+        <f t="shared" ref="K39" si="28">K40-K56</f>
         <v>0</v>
       </c>
-      <c r="L38" s="11">
-        <f t="shared" ref="L38" si="22">L39-L55</f>
+      <c r="L39" s="11">
+        <f t="shared" ref="L39" si="29">L40-L56</f>
         <v>0</v>
       </c>
-      <c r="M38" s="11">
-        <f t="shared" ref="M38" si="23">M39-M55</f>
+      <c r="M39" s="11">
+        <f t="shared" ref="M39" si="30">M40-M56</f>
         <v>0</v>
       </c>
-      <c r="N38" s="11">
-        <f t="shared" ref="N38" si="24">N39-N55</f>
+      <c r="N39" s="11">
+        <f t="shared" ref="N39" si="31">N40-N56</f>
         <v>2443.5</v>
       </c>
-      <c r="O38" s="11">
-        <f t="shared" ref="O38" si="25">O39-O55</f>
+      <c r="O39" s="11">
+        <f t="shared" ref="O39" si="32">O40-O56</f>
         <v>1440.8</v>
       </c>
-      <c r="P38" s="11">
-        <f t="shared" ref="P38" si="26">P39-P55</f>
+      <c r="P39" s="11">
+        <f t="shared" ref="P39" si="33">P40-P56</f>
         <v>1671.3</v>
       </c>
-      <c r="Q38" s="11">
-        <f t="shared" ref="Q38" si="27">Q39-Q55</f>
+      <c r="Q39" s="11">
+        <f t="shared" ref="Q39" si="34">Q40-Q56</f>
+        <v>4778.8</v>
+      </c>
+      <c r="R39" s="11">
+        <f t="shared" ref="R39" si="35">R40-R56</f>
         <v>0</v>
       </c>
-      <c r="R38" s="11">
-        <f t="shared" ref="R38" si="28">R39-R55</f>
+      <c r="S39" s="11">
+        <f t="shared" ref="S39" si="36">S40-S56</f>
         <v>0</v>
       </c>
-      <c r="S38" s="11">
-        <f t="shared" ref="S38" si="29">S39-S55</f>
+      <c r="T39" s="11">
+        <f t="shared" ref="T39" si="37">T40-T56</f>
         <v>0</v>
       </c>
-      <c r="T38" s="11">
-        <f t="shared" ref="T38" si="30">T39-T55</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
-        <v>15</v>
-      </c>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10">
-        <v>116.1</v>
-      </c>
-      <c r="E39" s="15">
-        <v>2449.6</v>
-      </c>
-      <c r="K39" s="10"/>
-      <c r="L39" s="10"/>
-      <c r="M39" s="10"/>
-      <c r="N39" s="136">
-        <f>E39</f>
-        <v>2449.6</v>
-      </c>
-      <c r="O39" s="10">
-        <v>1447</v>
-      </c>
-      <c r="P39" s="10">
-        <v>1679.3</v>
-      </c>
-      <c r="Q39" s="15"/>
-      <c r="R39" s="10"/>
-      <c r="S39" s="10"/>
-      <c r="T39" s="10"/>
     </row>
     <row r="40" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C40" s="10"/>
       <c r="D40" s="10">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="E40" s="13">
-        <v>13.1</v>
+        <v>116.1</v>
+      </c>
+      <c r="E40" s="15">
+        <v>2449.6</v>
       </c>
       <c r="K40" s="10"/>
       <c r="L40" s="10"/>
       <c r="M40" s="10"/>
-      <c r="N40" s="136">
-        <f t="shared" ref="N40:N44" si="31">E40</f>
-        <v>13.1</v>
+      <c r="N40" s="10">
+        <f>E40</f>
+        <v>2449.6</v>
       </c>
       <c r="O40" s="10">
-        <v>24.3</v>
+        <v>1447</v>
       </c>
       <c r="P40" s="10">
-        <v>54.7</v>
-      </c>
-      <c r="Q40" s="15"/>
+        <v>1679.3</v>
+      </c>
+      <c r="Q40" s="15">
+        <v>4794.8</v>
+      </c>
       <c r="R40" s="10"/>
       <c r="S40" s="10"/>
       <c r="T40" s="10"/>
     </row>
     <row r="41" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="C41" s="10"/>
       <c r="D41" s="10">
-        <v>5.0999999999999996</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="E41" s="13">
-        <v>22.9</v>
+        <v>13.1</v>
       </c>
       <c r="K41" s="10"/>
       <c r="L41" s="10"/>
       <c r="M41" s="10"/>
-      <c r="N41" s="136">
-        <f t="shared" si="31"/>
-        <v>22.9</v>
+      <c r="N41" s="10">
+        <f t="shared" ref="N41:N45" si="38">E41</f>
+        <v>13.1</v>
       </c>
       <c r="O41" s="10">
-        <v>22.4</v>
+        <v>24.3</v>
       </c>
       <c r="P41" s="10">
-        <v>28.3</v>
-      </c>
-      <c r="Q41" s="15"/>
+        <v>54.7</v>
+      </c>
+      <c r="Q41" s="15">
+        <v>91.2</v>
+      </c>
       <c r="R41" s="10"/>
       <c r="S41" s="10"/>
       <c r="T41" s="10"/>
     </row>
     <row r="42" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C42" s="10"/>
       <c r="D42" s="10">
-        <v>18.8</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="E42" s="13">
-        <v>0.6</v>
+        <v>22.9</v>
       </c>
       <c r="K42" s="10"/>
       <c r="L42" s="10"/>
       <c r="M42" s="10"/>
-      <c r="N42" s="136">
-        <f t="shared" si="31"/>
-        <v>0.6</v>
+      <c r="N42" s="10">
+        <f t="shared" si="38"/>
+        <v>22.9</v>
       </c>
       <c r="O42" s="10">
-        <v>80.599999999999994</v>
+        <v>22.4</v>
       </c>
       <c r="P42" s="10">
-        <v>74.5</v>
-      </c>
-      <c r="Q42" s="15"/>
+        <v>28.3</v>
+      </c>
+      <c r="Q42" s="15">
+        <v>29.1</v>
+      </c>
       <c r="R42" s="10"/>
       <c r="S42" s="10"/>
       <c r="T42" s="10"/>
     </row>
     <row r="43" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="C43" s="10"/>
       <c r="D43" s="10">
-        <v>5.4</v>
+        <v>18.8</v>
       </c>
       <c r="E43" s="13">
-        <v>8.1</v>
+        <v>0.6</v>
       </c>
       <c r="K43" s="10"/>
       <c r="L43" s="10"/>
       <c r="M43" s="10"/>
-      <c r="N43" s="136">
-        <f t="shared" si="31"/>
-        <v>8.1</v>
+      <c r="N43" s="10">
+        <f t="shared" si="38"/>
+        <v>0.6</v>
       </c>
       <c r="O43" s="10">
-        <v>84.4</v>
+        <v>80.599999999999994</v>
       </c>
       <c r="P43" s="10">
-        <v>158.30000000000001</v>
-      </c>
-      <c r="Q43" s="15"/>
+        <v>74.5</v>
+      </c>
+      <c r="Q43" s="15">
+        <v>107.1</v>
+      </c>
       <c r="R43" s="10"/>
       <c r="S43" s="10"/>
       <c r="T43" s="10"/>
     </row>
     <row r="44" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C44" s="10"/>
       <c r="D44" s="10">
-        <f>16.9+3289.5</f>
-        <v>3306.4</v>
+        <v>5.4</v>
       </c>
       <c r="E44" s="13">
-        <v>39</v>
+        <v>8.1</v>
       </c>
       <c r="K44" s="10"/>
       <c r="L44" s="10"/>
       <c r="M44" s="10"/>
-      <c r="N44" s="136">
-        <f t="shared" si="31"/>
-        <v>39</v>
+      <c r="N44" s="10">
+        <f t="shared" si="38"/>
+        <v>8.1</v>
       </c>
       <c r="O44" s="10">
-        <v>24.6</v>
+        <v>84.4</v>
       </c>
       <c r="P44" s="10">
-        <v>34.5</v>
-      </c>
-      <c r="Q44" s="15"/>
+        <v>158.30000000000001</v>
+      </c>
+      <c r="Q44" s="15">
+        <v>133.4</v>
+      </c>
       <c r="R44" s="10"/>
       <c r="S44" s="10"/>
       <c r="T44" s="10"/>
     </row>
-    <row r="45" spans="2:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="1" t="s">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>148</v>
+      </c>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10">
+        <f>16.9+3289.5</f>
+        <v>3306.4</v>
+      </c>
+      <c r="E45" s="13">
+        <v>39</v>
+      </c>
+      <c r="K45" s="10"/>
+      <c r="L45" s="10"/>
+      <c r="M45" s="10"/>
+      <c r="N45" s="10">
+        <f t="shared" si="38"/>
+        <v>39</v>
+      </c>
+      <c r="O45" s="10">
+        <v>24.6</v>
+      </c>
+      <c r="P45" s="10">
+        <v>34.5</v>
+      </c>
+      <c r="Q45" s="15">
+        <v>61.4</v>
+      </c>
+      <c r="R45" s="10"/>
+      <c r="S45" s="10"/>
+      <c r="T45" s="10"/>
+    </row>
+    <row r="46" spans="2:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C45" s="11">
-        <f t="shared" ref="C45:D45" si="32">SUM(C39:C44)</f>
+      <c r="C46" s="11">
+        <f t="shared" ref="C46:D46" si="39">SUM(C40:C45)</f>
         <v>0</v>
       </c>
-      <c r="D45" s="11">
-        <f t="shared" si="32"/>
+      <c r="D46" s="11">
+        <f t="shared" si="39"/>
         <v>3455.9</v>
       </c>
-      <c r="E45" s="14">
-        <f t="shared" ref="E45:G45" si="33">SUM(E39:E44)</f>
+      <c r="E46" s="14">
+        <f t="shared" ref="E46:G46" si="40">SUM(E40:E45)</f>
         <v>2533.2999999999997</v>
       </c>
-      <c r="F45" s="11">
-        <f t="shared" si="33"/>
+      <c r="F46" s="11">
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
-      <c r="G45" s="11">
-        <f t="shared" si="33"/>
+      <c r="G46" s="11">
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
-      <c r="K45" s="11">
-        <f t="shared" ref="K45:M45" si="34">SUM(K39:K44)</f>
+      <c r="K46" s="11">
+        <f t="shared" ref="K46:M46" si="41">SUM(K40:K45)</f>
         <v>0</v>
       </c>
-      <c r="L45" s="11">
-        <f t="shared" si="34"/>
+      <c r="L46" s="11">
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="M45" s="11">
-        <f t="shared" si="34"/>
+      <c r="M46" s="11">
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="N45" s="134">
-        <f t="shared" ref="N45:P45" si="35">SUM(N39:N44)</f>
+      <c r="N46" s="11">
+        <f t="shared" ref="N46:P46" si="42">SUM(N40:N45)</f>
         <v>2533.2999999999997</v>
       </c>
-      <c r="O45" s="11">
-        <f t="shared" si="35"/>
+      <c r="O46" s="11">
+        <f t="shared" si="42"/>
         <v>1683.3</v>
       </c>
-      <c r="P45" s="11">
-        <f t="shared" si="35"/>
+      <c r="P46" s="11">
+        <f t="shared" si="42"/>
         <v>2029.6</v>
       </c>
-      <c r="Q45" s="14">
-        <f t="shared" ref="Q45:T45" si="36">SUM(Q39:Q44)</f>
+      <c r="Q46" s="14">
+        <f t="shared" ref="Q46:T46" si="43">SUM(Q40:Q45)</f>
+        <v>5217</v>
+      </c>
+      <c r="R46" s="11">
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="R45" s="11">
-        <f t="shared" si="36"/>
+      <c r="S46" s="11">
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="S45" s="11">
-        <f t="shared" si="36"/>
+      <c r="T46" s="11">
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="T45" s="11">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
-        <v>62</v>
-      </c>
-      <c r="C46" s="10"/>
-      <c r="D46" s="10">
-        <v>132.4</v>
-      </c>
-      <c r="E46" s="15">
-        <v>847</v>
-      </c>
-      <c r="F46" s="10"/>
-      <c r="G46" s="10"/>
-      <c r="K46" s="10"/>
-      <c r="L46" s="10"/>
-      <c r="M46" s="10"/>
-      <c r="N46" s="136">
-        <f t="shared" ref="N46:N52" si="37">E46</f>
-        <v>847</v>
-      </c>
-      <c r="O46" s="10">
-        <v>1334.1</v>
-      </c>
-      <c r="P46" s="10">
-        <v>1789.4</v>
-      </c>
-      <c r="Q46" s="15"/>
-      <c r="R46" s="10"/>
-      <c r="S46" s="10"/>
-      <c r="T46" s="10"/>
     </row>
     <row r="47" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C47" s="10"/>
       <c r="D47" s="10">
-        <v>4.5999999999999996</v>
+        <v>132.4</v>
       </c>
       <c r="E47" s="15">
-        <v>4.9000000000000004</v>
+        <v>847</v>
       </c>
       <c r="F47" s="10"/>
       <c r="G47" s="10"/>
       <c r="K47" s="10"/>
       <c r="L47" s="10"/>
       <c r="M47" s="10"/>
-      <c r="N47" s="136">
-        <f t="shared" si="37"/>
-        <v>4.9000000000000004</v>
+      <c r="N47" s="10">
+        <f t="shared" ref="N47:N53" si="44">E47</f>
+        <v>847</v>
       </c>
       <c r="O47" s="10">
-        <v>17.399999999999999</v>
+        <v>1334.1</v>
       </c>
       <c r="P47" s="10">
-        <v>15.6</v>
-      </c>
-      <c r="Q47" s="15"/>
+        <v>1789.4</v>
+      </c>
+      <c r="Q47" s="15">
+        <v>3314.4</v>
+      </c>
       <c r="R47" s="10"/>
       <c r="S47" s="10"/>
       <c r="T47" s="10"/>
     </row>
     <row r="48" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="C48" s="10"/>
       <c r="D48" s="10">
-        <v>18.7</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="E48" s="15">
-        <v>45</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="F48" s="10"/>
       <c r="G48" s="10"/>
       <c r="K48" s="10"/>
       <c r="L48" s="10"/>
       <c r="M48" s="10"/>
-      <c r="N48" s="136">
-        <f t="shared" si="37"/>
-        <v>45</v>
+      <c r="N48" s="10">
+        <f t="shared" si="44"/>
+        <v>4.9000000000000004</v>
       </c>
       <c r="O48" s="10">
-        <v>250.3</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="P48" s="10">
-        <v>277.3</v>
-      </c>
-      <c r="Q48" s="15"/>
+        <v>15.6</v>
+      </c>
+      <c r="Q48" s="15">
+        <v>18</v>
+      </c>
       <c r="R48" s="10"/>
       <c r="S48" s="10"/>
       <c r="T48" s="10"/>
     </row>
     <row r="49" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>152</v>
+        <v>49</v>
       </c>
       <c r="C49" s="10"/>
       <c r="D49" s="10">
-        <v>6.4</v>
+        <v>18.7</v>
       </c>
       <c r="E49" s="15">
-        <v>6.4</v>
+        <v>45</v>
       </c>
       <c r="F49" s="10"/>
       <c r="G49" s="10"/>
       <c r="K49" s="10"/>
       <c r="L49" s="10"/>
       <c r="M49" s="10"/>
-      <c r="N49" s="136">
-        <f t="shared" si="37"/>
-        <v>6.4</v>
+      <c r="N49" s="10">
+        <f t="shared" si="44"/>
+        <v>45</v>
       </c>
       <c r="O49" s="10">
-        <v>6.4</v>
+        <v>250.3</v>
       </c>
       <c r="P49" s="10">
-        <v>32.299999999999997</v>
-      </c>
-      <c r="Q49" s="15"/>
+        <v>277.3</v>
+      </c>
+      <c r="Q49" s="15">
+        <v>501</v>
+      </c>
       <c r="R49" s="10"/>
       <c r="S49" s="10"/>
       <c r="T49" s="10"/>
     </row>
-    <row r="50" spans="2:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C50" s="10"/>
       <c r="D50" s="10">
-        <v>90.7</v>
+        <v>6.4</v>
       </c>
       <c r="E50" s="15">
-        <v>90.7</v>
+        <v>6.4</v>
       </c>
       <c r="F50" s="10"/>
       <c r="G50" s="10"/>
       <c r="K50" s="10"/>
       <c r="L50" s="10"/>
       <c r="M50" s="10"/>
-      <c r="N50" s="136">
-        <f t="shared" si="37"/>
-        <v>90.7</v>
+      <c r="N50" s="10">
+        <f t="shared" si="44"/>
+        <v>6.4</v>
       </c>
       <c r="O50" s="10">
-        <v>90.7</v>
+        <v>6.4</v>
       </c>
       <c r="P50" s="10">
-        <v>835.1</v>
-      </c>
-      <c r="Q50" s="15"/>
+        <v>32.299999999999997</v>
+      </c>
+      <c r="Q50" s="15">
+        <v>21.7</v>
+      </c>
       <c r="R50" s="10"/>
       <c r="S50" s="10"/>
       <c r="T50" s="10"/>
     </row>
     <row r="51" spans="2:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C51" s="10"/>
       <c r="D51" s="10">
-        <v>5.2</v>
+        <v>90.7</v>
       </c>
       <c r="E51" s="15">
-        <v>7.8</v>
+        <v>90.7</v>
       </c>
       <c r="F51" s="10"/>
       <c r="G51" s="10"/>
       <c r="K51" s="10"/>
       <c r="L51" s="10"/>
       <c r="M51" s="10"/>
-      <c r="N51" s="136">
-        <f t="shared" si="37"/>
-        <v>7.8</v>
+      <c r="N51" s="10">
+        <f t="shared" si="44"/>
+        <v>90.7</v>
       </c>
       <c r="O51" s="10">
-        <v>8.9</v>
+        <v>90.7</v>
       </c>
       <c r="P51" s="10">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="Q51" s="15"/>
+        <v>835.1</v>
+      </c>
+      <c r="Q51" s="15">
+        <v>835.1</v>
+      </c>
       <c r="R51" s="10"/>
       <c r="S51" s="10"/>
       <c r="T51" s="10"/>
     </row>
     <row r="52" spans="2:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C52" s="10"/>
       <c r="D52" s="10">
-        <f>11.6+5035.9</f>
-        <v>5047.5</v>
+        <v>5.2</v>
       </c>
       <c r="E52" s="15">
-        <v>13.5</v>
+        <v>7.8</v>
       </c>
       <c r="F52" s="10"/>
       <c r="G52" s="10"/>
       <c r="K52" s="10"/>
       <c r="L52" s="10"/>
       <c r="M52" s="10"/>
-      <c r="N52" s="136">
-        <f t="shared" si="37"/>
-        <v>13.5</v>
+      <c r="N52" s="10">
+        <f t="shared" si="44"/>
+        <v>7.8</v>
       </c>
       <c r="O52" s="10">
-        <v>45.4</v>
+        <v>8.9</v>
       </c>
       <c r="P52" s="10">
-        <v>108.5</v>
-      </c>
-      <c r="Q52" s="15"/>
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="Q52" s="15">
+        <v>9</v>
+      </c>
       <c r="R52" s="10"/>
       <c r="S52" s="10"/>
       <c r="T52" s="10"/>
     </row>
-    <row r="53" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B53" s="1" t="s">
+    <row r="53" spans="2:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>152</v>
+      </c>
+      <c r="C53" s="10"/>
+      <c r="D53" s="10">
+        <f>11.6+5035.9</f>
+        <v>5047.5</v>
+      </c>
+      <c r="E53" s="15">
+        <v>13.5</v>
+      </c>
+      <c r="F53" s="10"/>
+      <c r="G53" s="10"/>
+      <c r="K53" s="10"/>
+      <c r="L53" s="10"/>
+      <c r="M53" s="10"/>
+      <c r="N53" s="10">
+        <f t="shared" si="44"/>
+        <v>13.5</v>
+      </c>
+      <c r="O53" s="10">
+        <v>45.4</v>
+      </c>
+      <c r="P53" s="10">
+        <v>108.5</v>
+      </c>
+      <c r="Q53" s="15">
+        <v>186</v>
+      </c>
+      <c r="R53" s="10"/>
+      <c r="S53" s="10"/>
+      <c r="T53" s="10"/>
+    </row>
+    <row r="54" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B54" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C53" s="11">
-        <f>SUM(C45:C52)</f>
+      <c r="C54" s="11">
+        <f>SUM(C46:C53)</f>
         <v>0</v>
       </c>
-      <c r="D53" s="11">
-        <f>SUM(D45:D52)</f>
+      <c r="D54" s="11">
+        <f>SUM(D46:D53)</f>
         <v>8761.4</v>
       </c>
-      <c r="E53" s="14">
-        <f>SUM(E45:E52)</f>
+      <c r="E54" s="14">
+        <f>SUM(E46:E53)</f>
         <v>3548.6</v>
       </c>
-      <c r="F53" s="11">
-        <f>SUM(F45:F52)</f>
+      <c r="F54" s="11">
+        <f>SUM(F46:F53)</f>
         <v>0</v>
       </c>
-      <c r="G53" s="11">
-        <f>SUM(G45:G52)</f>
+      <c r="G54" s="11">
+        <f>SUM(G46:G53)</f>
         <v>0</v>
       </c>
-      <c r="K53" s="11">
-        <f>SUM(K45:K52)</f>
+      <c r="K54" s="11">
+        <f t="shared" ref="K54:T54" si="45">SUM(K46:K53)</f>
         <v>0</v>
       </c>
-      <c r="L53" s="11">
-        <f>SUM(L45:L52)</f>
+      <c r="L54" s="11">
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="M53" s="11">
-        <f>SUM(M45:M52)</f>
+      <c r="M54" s="11">
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="N53" s="134">
-        <f>SUM(N45:N52)</f>
+      <c r="N54" s="11">
+        <f t="shared" si="45"/>
         <v>3548.6</v>
       </c>
-      <c r="O53" s="11">
-        <f>SUM(O45:O52)</f>
+      <c r="O54" s="11">
+        <f t="shared" si="45"/>
         <v>3436.5</v>
       </c>
-      <c r="P53" s="11">
-        <f>SUM(P45:P52)</f>
+      <c r="P54" s="11">
+        <f t="shared" si="45"/>
         <v>5096.6000000000004</v>
       </c>
-      <c r="Q53" s="14">
-        <f>SUM(Q45:Q52)</f>
+      <c r="Q54" s="14">
+        <f t="shared" si="45"/>
+        <v>10102.200000000001</v>
+      </c>
+      <c r="R54" s="11">
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="R53" s="11">
-        <f>SUM(R45:R52)</f>
+      <c r="S54" s="11">
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="S53" s="11">
-        <f>SUM(S45:S52)</f>
+      <c r="T54" s="11">
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="T53" s="11">
-        <f>SUM(T45:T52)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B54" t="s">
-        <v>20</v>
-      </c>
-      <c r="C54" s="10"/>
-      <c r="D54" s="10">
-        <v>57.2</v>
-      </c>
-      <c r="E54" s="15">
-        <v>235.5</v>
-      </c>
-      <c r="F54" s="10"/>
-      <c r="G54" s="10"/>
-      <c r="K54" s="10"/>
-      <c r="L54" s="10"/>
-      <c r="M54" s="10"/>
-      <c r="N54" s="136">
-        <f t="shared" ref="N54:N57" si="38">E54</f>
-        <v>235.5</v>
-      </c>
-      <c r="O54" s="10">
-        <v>61.4</v>
-      </c>
-      <c r="P54" s="10">
-        <v>103.6</v>
-      </c>
-      <c r="Q54" s="15"/>
-      <c r="R54" s="10"/>
-      <c r="S54" s="10"/>
-      <c r="T54" s="10"/>
     </row>
     <row r="55" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>156</v>
+        <v>20</v>
       </c>
       <c r="C55" s="10"/>
       <c r="D55" s="10">
-        <v>6.8</v>
+        <v>57.2</v>
       </c>
       <c r="E55" s="15">
-        <v>6.1</v>
+        <v>235.5</v>
       </c>
       <c r="F55" s="10"/>
       <c r="G55" s="10"/>
       <c r="K55" s="10"/>
       <c r="L55" s="10"/>
       <c r="M55" s="10"/>
-      <c r="N55" s="136">
-        <f t="shared" si="38"/>
-        <v>6.1</v>
+      <c r="N55" s="10">
+        <f t="shared" ref="N55:N58" si="46">E55</f>
+        <v>235.5</v>
       </c>
       <c r="O55" s="10">
-        <v>6.2</v>
+        <v>61.4</v>
       </c>
       <c r="P55" s="10">
-        <v>8</v>
-      </c>
-      <c r="Q55" s="15"/>
+        <v>103.6</v>
+      </c>
+      <c r="Q55" s="15">
+        <v>726.4</v>
+      </c>
       <c r="R55" s="10"/>
       <c r="S55" s="10"/>
       <c r="T55" s="10"/>
     </row>
     <row r="56" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C56" s="10"/>
       <c r="D56" s="10">
-        <v>8.1</v>
+        <v>6.8</v>
       </c>
       <c r="E56" s="15">
-        <v>5.9</v>
+        <v>6.1</v>
       </c>
       <c r="F56" s="10"/>
       <c r="G56" s="10"/>
       <c r="K56" s="10"/>
       <c r="L56" s="10"/>
       <c r="M56" s="10"/>
-      <c r="N56" s="136">
-        <f t="shared" si="38"/>
-        <v>5.9</v>
+      <c r="N56" s="10">
+        <f t="shared" si="46"/>
+        <v>6.1</v>
       </c>
       <c r="O56" s="10">
-        <v>6.9</v>
+        <v>6.2</v>
       </c>
       <c r="P56" s="10">
-        <v>7.2</v>
-      </c>
-      <c r="Q56" s="15"/>
+        <v>8</v>
+      </c>
+      <c r="Q56" s="15">
+        <v>16</v>
+      </c>
       <c r="R56" s="10"/>
       <c r="S56" s="10"/>
       <c r="T56" s="10"/>
     </row>
     <row r="57" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C57" s="10"/>
       <c r="D57" s="10">
-        <f>6.9+3791</f>
-        <v>3797.9</v>
+        <v>8.1</v>
       </c>
       <c r="E57" s="15">
-        <v>16.5</v>
+        <v>5.9</v>
       </c>
       <c r="F57" s="10"/>
       <c r="G57" s="10"/>
       <c r="K57" s="10"/>
       <c r="L57" s="10"/>
       <c r="M57" s="10"/>
-      <c r="N57" s="136">
-        <f t="shared" si="38"/>
-        <v>16.5</v>
+      <c r="N57" s="10">
+        <f t="shared" si="46"/>
+        <v>5.9</v>
       </c>
       <c r="O57" s="10">
-        <v>19</v>
+        <v>6.9</v>
       </c>
       <c r="P57" s="10">
-        <v>19.3</v>
-      </c>
-      <c r="Q57" s="15"/>
+        <v>7.2</v>
+      </c>
+      <c r="Q57" s="15">
+        <v>36.6</v>
+      </c>
       <c r="R57" s="10"/>
       <c r="S57" s="10"/>
       <c r="T57" s="10"/>
     </row>
-    <row r="58" spans="2:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="1" t="s">
+    <row r="58" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>155</v>
+      </c>
+      <c r="C58" s="10"/>
+      <c r="D58" s="10">
+        <f>6.9+3791</f>
+        <v>3797.9</v>
+      </c>
+      <c r="E58" s="15">
+        <v>16.5</v>
+      </c>
+      <c r="F58" s="10"/>
+      <c r="G58" s="10"/>
+      <c r="K58" s="10"/>
+      <c r="L58" s="10"/>
+      <c r="M58" s="10"/>
+      <c r="N58" s="10">
+        <f t="shared" si="46"/>
+        <v>16.5</v>
+      </c>
+      <c r="O58" s="10">
+        <v>19</v>
+      </c>
+      <c r="P58" s="10">
+        <v>19.3</v>
+      </c>
+      <c r="Q58" s="15">
+        <v>15.6</v>
+      </c>
+      <c r="R58" s="10"/>
+      <c r="S58" s="10"/>
+      <c r="T58" s="10"/>
+    </row>
+    <row r="59" spans="2:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C58" s="11">
-        <f>SUM(C54:C57)</f>
+      <c r="C59" s="11">
+        <f>SUM(C55:C58)</f>
         <v>0</v>
       </c>
-      <c r="D58" s="11">
-        <f>SUM(D54:D57)</f>
+      <c r="D59" s="11">
+        <f>SUM(D55:D58)</f>
         <v>3870</v>
       </c>
-      <c r="E58" s="14">
-        <f>SUM(E54:E57)</f>
+      <c r="E59" s="14">
+        <f>SUM(E55:E58)</f>
         <v>264</v>
       </c>
-      <c r="F58" s="11">
-        <f>SUM(F54:F57)</f>
+      <c r="F59" s="11">
+        <f>SUM(F55:F58)</f>
         <v>0</v>
       </c>
-      <c r="G58" s="11">
-        <f>SUM(G54:G57)</f>
+      <c r="G59" s="11">
+        <f>SUM(G55:G58)</f>
         <v>0</v>
       </c>
-      <c r="K58" s="11">
-        <f>SUM(K54:K57)</f>
+      <c r="K59" s="11">
+        <f t="shared" ref="K59:T59" si="47">SUM(K55:K58)</f>
         <v>0</v>
       </c>
-      <c r="L58" s="11">
-        <f>SUM(L54:L57)</f>
+      <c r="L59" s="11">
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="M58" s="11">
-        <f>SUM(M54:M57)</f>
+      <c r="M59" s="11">
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="N58" s="134">
-        <f>SUM(N54:N57)</f>
+      <c r="N59" s="11">
+        <f t="shared" si="47"/>
         <v>264</v>
       </c>
-      <c r="O58" s="11">
-        <f>SUM(O54:O57)</f>
+      <c r="O59" s="11">
+        <f t="shared" si="47"/>
         <v>93.5</v>
       </c>
-      <c r="P58" s="11">
-        <f>SUM(P54:P57)</f>
+      <c r="P59" s="11">
+        <f t="shared" si="47"/>
         <v>138.1</v>
       </c>
-      <c r="Q58" s="14">
-        <f>SUM(Q54:Q57)</f>
+      <c r="Q59" s="14">
+        <f t="shared" si="47"/>
+        <v>794.6</v>
+      </c>
+      <c r="R59" s="11">
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="R58" s="11">
-        <f>SUM(R54:R57)</f>
+      <c r="S59" s="11">
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="S58" s="11">
-        <f>SUM(S54:S57)</f>
+      <c r="T59" s="11">
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="T58" s="11">
-        <f>SUM(T54:T57)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B59" t="s">
-        <v>49</v>
-      </c>
-      <c r="C59" s="10"/>
-      <c r="D59" s="10">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="E59" s="15">
-        <v>30.3</v>
-      </c>
-      <c r="F59" s="10"/>
-      <c r="G59" s="10"/>
-      <c r="K59" s="10"/>
-      <c r="L59" s="10"/>
-      <c r="M59" s="10"/>
-      <c r="N59" s="136">
-        <f t="shared" ref="N59:N60" si="39">E59</f>
-        <v>30.3</v>
-      </c>
-      <c r="O59" s="10">
-        <v>181.6</v>
-      </c>
-      <c r="P59" s="10">
-        <v>204.5</v>
-      </c>
-      <c r="Q59" s="15"/>
-      <c r="R59" s="10"/>
-      <c r="S59" s="10"/>
-      <c r="T59" s="10"/>
     </row>
     <row r="60" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>159</v>
+        <v>49</v>
       </c>
       <c r="C60" s="10"/>
       <c r="D60" s="10">
-        <f>0.2+1580.9</f>
-        <v>1581.1000000000001</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="E60" s="15">
-        <v>0.6</v>
+        <v>30.3</v>
       </c>
       <c r="F60" s="10"/>
       <c r="G60" s="10"/>
       <c r="K60" s="10"/>
       <c r="L60" s="10"/>
       <c r="M60" s="10"/>
-      <c r="N60" s="136">
-        <f t="shared" si="39"/>
-        <v>0.6</v>
+      <c r="N60" s="10">
+        <f t="shared" ref="N60:N62" si="48">E60</f>
+        <v>30.3</v>
       </c>
       <c r="O60" s="10">
-        <v>0.1</v>
+        <v>181.6</v>
       </c>
       <c r="P60" s="10">
-        <f>978.2+0.3</f>
-        <v>978.5</v>
-      </c>
-      <c r="Q60" s="15"/>
+        <v>204.5</v>
+      </c>
+      <c r="Q60" s="15">
+        <v>405.4</v>
+      </c>
       <c r="R60" s="10"/>
       <c r="S60" s="10"/>
       <c r="T60" s="10"/>
     </row>
     <row r="61" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B61" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C61" s="11">
-        <f>SUM(C58:C60)</f>
-        <v>0</v>
-      </c>
-      <c r="D61" s="11">
-        <f>SUM(D58:D60)</f>
-        <v>5460.8</v>
-      </c>
-      <c r="E61" s="14">
-        <f>SUM(E58:E60)</f>
-        <v>294.90000000000003</v>
-      </c>
-      <c r="F61" s="11">
-        <f>SUM(F58:F60)</f>
-        <v>0</v>
-      </c>
-      <c r="G61" s="11">
-        <f>SUM(G58:G60)</f>
-        <v>0</v>
-      </c>
-      <c r="K61" s="11">
-        <f>SUM(K58:K60)</f>
-        <v>0</v>
-      </c>
-      <c r="L61" s="11">
-        <f>SUM(L58:L60)</f>
-        <v>0</v>
-      </c>
-      <c r="M61" s="11">
-        <f>SUM(M58:M60)</f>
-        <v>0</v>
-      </c>
-      <c r="N61" s="134">
-        <f>SUM(N58:N60)</f>
-        <v>294.90000000000003</v>
-      </c>
-      <c r="O61" s="11">
-        <f>SUM(O58:O60)</f>
-        <v>275.20000000000005</v>
-      </c>
-      <c r="P61" s="11">
-        <f>SUM(P58:P60)</f>
-        <v>1321.1</v>
-      </c>
-      <c r="Q61" s="14">
-        <f>SUM(Q58:Q60)</f>
-        <v>0</v>
-      </c>
-      <c r="R61" s="11">
-        <f>SUM(R58:R60)</f>
-        <v>0</v>
-      </c>
-      <c r="S61" s="11">
-        <f>SUM(S58:S60)</f>
-        <v>0</v>
-      </c>
-      <c r="T61" s="11">
-        <f>SUM(T58:T60)</f>
-        <v>0</v>
-      </c>
+      <c r="B61" t="s">
+        <v>191</v>
+      </c>
+      <c r="C61" s="10"/>
+      <c r="D61" s="10"/>
+      <c r="E61" s="15"/>
+      <c r="F61" s="10"/>
+      <c r="G61" s="10"/>
+      <c r="K61" s="10"/>
+      <c r="L61" s="10"/>
+      <c r="M61" s="10"/>
+      <c r="N61" s="10"/>
+      <c r="O61" s="10"/>
+      <c r="P61" s="10"/>
+      <c r="Q61" s="15">
+        <v>4090.8</v>
+      </c>
+      <c r="R61" s="10"/>
+      <c r="S61" s="10"/>
+      <c r="T61" s="10"/>
     </row>
     <row r="62" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
+        <v>156</v>
+      </c>
+      <c r="C62" s="10"/>
+      <c r="D62" s="10">
+        <f>0.2+1580.9</f>
+        <v>1581.1000000000001</v>
+      </c>
+      <c r="E62" s="15">
+        <v>0.6</v>
+      </c>
+      <c r="F62" s="10"/>
+      <c r="G62" s="10"/>
+      <c r="K62" s="10"/>
+      <c r="L62" s="10"/>
+      <c r="M62" s="10"/>
+      <c r="N62" s="10">
+        <f t="shared" si="48"/>
+        <v>0.6</v>
+      </c>
+      <c r="O62" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="P62" s="10">
+        <f>978.2+0.3</f>
+        <v>978.5</v>
+      </c>
+      <c r="Q62" s="15">
+        <v>0.6</v>
+      </c>
+      <c r="R62" s="10"/>
+      <c r="S62" s="10"/>
+      <c r="T62" s="10"/>
+    </row>
+    <row r="63" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B63" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C63" s="11">
+        <f>SUM(C59:C62)</f>
+        <v>0</v>
+      </c>
+      <c r="D63" s="11">
+        <f>SUM(D59:D62)</f>
+        <v>5460.8</v>
+      </c>
+      <c r="E63" s="14">
+        <f>SUM(E59:E62)</f>
+        <v>294.90000000000003</v>
+      </c>
+      <c r="F63" s="11">
+        <f>SUM(F59:F62)</f>
+        <v>0</v>
+      </c>
+      <c r="G63" s="11">
+        <f>SUM(G59:G62)</f>
+        <v>0</v>
+      </c>
+      <c r="K63" s="11">
+        <f t="shared" ref="K63:T63" si="49">SUM(K59:K62)</f>
+        <v>0</v>
+      </c>
+      <c r="L63" s="11">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="M63" s="11">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="N63" s="11">
+        <f t="shared" si="49"/>
+        <v>294.90000000000003</v>
+      </c>
+      <c r="O63" s="11">
+        <f t="shared" si="49"/>
+        <v>275.20000000000005</v>
+      </c>
+      <c r="P63" s="11">
+        <f t="shared" si="49"/>
+        <v>1321.1</v>
+      </c>
+      <c r="Q63" s="14">
+        <f t="shared" si="49"/>
+        <v>5291.4000000000005</v>
+      </c>
+      <c r="R63" s="11">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="S63" s="11">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="T63" s="11">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
         <v>64</v>
       </c>
-      <c r="C62" s="10">
-        <f>C53-C61</f>
+      <c r="C64" s="10">
+        <f>C54-C63</f>
         <v>0</v>
       </c>
-      <c r="D62" s="10">
-        <f>D53-D61</f>
+      <c r="D64" s="10">
+        <f>D54-D63</f>
         <v>3300.5999999999995</v>
       </c>
-      <c r="E62" s="15">
-        <f>E53-E61</f>
+      <c r="E64" s="15">
+        <f>E54-E63</f>
         <v>3253.7</v>
       </c>
-      <c r="F62" s="10">
-        <f>F53-F61</f>
+      <c r="F64" s="10">
+        <f>F54-F63</f>
         <v>0</v>
       </c>
-      <c r="G62" s="10">
-        <f>G53-G61</f>
+      <c r="G64" s="10">
+        <f>G54-G63</f>
         <v>0</v>
       </c>
-      <c r="K62" s="10">
-        <f>K53-K61</f>
+      <c r="K64" s="10">
+        <f t="shared" ref="K64:T64" si="50">K54-K63</f>
         <v>0</v>
       </c>
-      <c r="L62" s="10">
-        <f>L53-L61</f>
+      <c r="L64" s="10">
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
-      <c r="M62" s="10">
-        <f>M53-M61</f>
+      <c r="M64" s="10">
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
-      <c r="N62" s="136">
-        <f>N53-N61</f>
+      <c r="N64" s="10">
+        <f t="shared" si="50"/>
         <v>3253.7</v>
       </c>
-      <c r="O62" s="10">
-        <f>O53-O61</f>
+      <c r="O64" s="10">
+        <f t="shared" si="50"/>
         <v>3161.3</v>
       </c>
-      <c r="P62" s="10">
-        <f>P53-P61</f>
+      <c r="P64" s="10">
+        <f t="shared" si="50"/>
         <v>3775.5000000000005</v>
       </c>
-      <c r="Q62" s="15">
-        <f>Q53-Q61</f>
+      <c r="Q64" s="15">
+        <f t="shared" si="50"/>
+        <v>4810.8</v>
+      </c>
+      <c r="R64" s="10">
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
-      <c r="R62" s="10">
-        <f>R53-R61</f>
+      <c r="S64" s="10">
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
-      <c r="S62" s="10">
-        <f>S53-S61</f>
+      <c r="T64" s="10">
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
-      <c r="T62" s="10">
-        <f>T53-T61</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="2:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="1" t="s">
+    </row>
+    <row r="66" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C64" s="50"/>
-      <c r="D64" s="120"/>
-      <c r="E64" s="16"/>
-      <c r="N64" s="140"/>
-      <c r="Q64" s="16"/>
-    </row>
-    <row r="82" spans="5:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E82" s="41"/>
-      <c r="N82" s="141"/>
-      <c r="Q82" s="41"/>
-    </row>
-    <row r="83" spans="5:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E83" s="16"/>
-      <c r="N83" s="140"/>
-      <c r="Q83" s="16"/>
+      <c r="C66" s="50"/>
+      <c r="D66" s="120"/>
+      <c r="E66" s="16"/>
+      <c r="Q66" s="16"/>
+    </row>
+    <row r="84" spans="5:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E84" s="41"/>
+      <c r="Q84" s="41"/>
+    </row>
+    <row r="85" spans="5:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E85" s="16"/>
+      <c r="Q85" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -18268,6 +18516,7 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -18321,7 +18570,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -18335,7 +18584,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -18349,7 +18598,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I4">
         <v>3</v>
@@ -18363,7 +18612,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="I5">
         <v>3</v>
@@ -18377,7 +18626,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="I6">
         <v>2</v>
@@ -18391,12 +18640,12 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="I10">
         <v>80</v>
@@ -18410,7 +18659,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I11">
         <v>90</v>
@@ -18424,7 +18673,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="I12">
         <v>40</v>
@@ -26848,14 +27097,14 @@
       <c r="D1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="H1" s="123" t="s">
+      <c r="H1" s="126" t="s">
         <v>81</v>
       </c>
-      <c r="I1" s="124"/>
-      <c r="J1" s="124"/>
-      <c r="K1" s="124"/>
-      <c r="L1" s="124"/>
-      <c r="M1" s="125"/>
+      <c r="I1" s="127"/>
+      <c r="J1" s="127"/>
+      <c r="K1" s="127"/>
+      <c r="L1" s="127"/>
+      <c r="M1" s="128"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D2" t="e">
@@ -27262,10 +27511,10 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H17" s="126" t="s">
+      <c r="H17" s="129" t="s">
         <v>119</v>
       </c>
-      <c r="I17" s="127"/>
+      <c r="I17" s="130"/>
       <c r="M17" s="77"/>
     </row>
     <row r="18" spans="4:13" x14ac:dyDescent="0.25">
@@ -27273,8 +27522,8 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H18" s="128"/>
-      <c r="I18" s="129"/>
+      <c r="H18" s="131"/>
+      <c r="I18" s="132"/>
       <c r="M18" s="77"/>
     </row>
     <row r="19" spans="4:13" x14ac:dyDescent="0.25">
@@ -27697,14 +27946,14 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H43" s="130" t="s">
+      <c r="H43" s="133" t="s">
         <v>113</v>
       </c>
-      <c r="I43" s="131"/>
-      <c r="J43" s="131"/>
-      <c r="K43" s="131"/>
-      <c r="L43" s="131"/>
-      <c r="M43" s="132"/>
+      <c r="I43" s="134"/>
+      <c r="J43" s="134"/>
+      <c r="K43" s="134"/>
+      <c r="L43" s="134"/>
+      <c r="M43" s="135"/>
     </row>
     <row r="44" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D44" t="e">
